--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="操作说明" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="工作表1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="233">
   <si>
     <t>操作说明</t>
   </si>
@@ -495,9 +495,6 @@
     <t>H5一账通登陆页面账号</t>
   </si>
   <si>
-    <t>className</t>
-  </si>
-  <si>
     <t>android.widget.EditText</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
     <t>登 录 Link</t>
   </si>
   <si>
-    <t>//UIALink[@name='登 录']</t>
-  </si>
-  <si>
     <t>一账通</t>
   </si>
   <si>
@@ -931,6 +925,141 @@
   </si>
   <si>
     <t>SwipeToClickPersonalCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一账通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>classname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@name='登 录']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起键盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭H5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_openCenterMsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_loginByH5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +1067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -961,6 +1090,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -1124,12 +1265,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1235,9 +1514,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1283,8 +1559,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="47">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2485,17 +2811,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="64" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2862,7 +3188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2871,7 +3199,7 @@
     <col min="3" max="3" width="43.1640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="55" customWidth="1"/>
     <col min="7" max="7" width="5.1640625" style="17" customWidth="1"/>
     <col min="8" max="256" width="11.1640625" style="17" customWidth="1"/>
   </cols>
@@ -2901,7 +3229,7 @@
     </row>
     <row r="2" spans="1:7" ht="40.5" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>49</v>
@@ -2914,7 +3242,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G2" s="20"/>
     </row>
@@ -2933,7 +3261,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -2942,141 +3270,137 @@
         <v>54</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="27.5" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="27.5" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="27.5" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
@@ -3085,135 +3409,141 @@
         <v>49</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="28" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="40.5" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="25" t="s">
+        <v>210</v>
+      </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>209</v>
+      </c>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
@@ -3222,7 +3552,7 @@
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="28"/>
     </row>
   </sheetData>
@@ -3243,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -3263,42 +3593,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
@@ -3311,10 +3641,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -3322,7 +3652,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1">
@@ -3331,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>11</v>
@@ -3349,30 +3679,30 @@
         <v>4</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.5" customHeight="1">
       <c r="A6" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="34">
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="28"/>
@@ -3380,15 +3710,17 @@
       <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="B7" s="34">
         <v>2</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -3396,16 +3728,18 @@
         <v>52</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="B8" s="34">
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>11</v>
@@ -3418,52 +3752,56 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="35" t="s">
+        <v>108</v>
+      </c>
       <c r="B9" s="34">
         <v>4</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B10" s="34">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B11" s="34">
         <v>2</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>17</v>
@@ -3474,641 +3812,1145 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="32" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B12" s="34">
         <v>3</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="32" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B13" s="34">
         <v>4</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>206</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="G13" s="28"/>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B14" s="34">
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B15" s="34">
         <v>6</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B16" s="34">
         <v>7</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="32" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.5" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256" ht="14.5" customHeight="1">
       <c r="A17" s="35" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="B17" s="34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
+      <c r="BR17" s="51"/>
+      <c r="BS17" s="51"/>
+      <c r="BT17" s="51"/>
+      <c r="BU17" s="51"/>
+      <c r="BV17" s="51"/>
+      <c r="BW17" s="51"/>
+      <c r="BX17" s="51"/>
+      <c r="BY17" s="51"/>
+      <c r="BZ17" s="51"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
+      <c r="CC17" s="51"/>
+      <c r="CD17" s="51"/>
+      <c r="CE17" s="51"/>
+      <c r="CF17" s="51"/>
+      <c r="CG17" s="51"/>
+      <c r="CH17" s="51"/>
+      <c r="CI17" s="51"/>
+      <c r="CJ17" s="51"/>
+      <c r="CK17" s="51"/>
+      <c r="CL17" s="51"/>
+      <c r="CM17" s="51"/>
+      <c r="CN17" s="51"/>
+      <c r="CO17" s="51"/>
+      <c r="CP17" s="51"/>
+      <c r="CQ17" s="51"/>
+      <c r="CR17" s="51"/>
+      <c r="CS17" s="51"/>
+      <c r="CT17" s="51"/>
+      <c r="CU17" s="51"/>
+      <c r="CV17" s="51"/>
+      <c r="CW17" s="51"/>
+      <c r="CX17" s="51"/>
+      <c r="CY17" s="51"/>
+      <c r="CZ17" s="51"/>
+      <c r="DA17" s="51"/>
+      <c r="DB17" s="51"/>
+      <c r="DC17" s="51"/>
+      <c r="DD17" s="51"/>
+      <c r="DE17" s="51"/>
+      <c r="DF17" s="51"/>
+      <c r="DG17" s="51"/>
+      <c r="DH17" s="51"/>
+      <c r="DI17" s="51"/>
+      <c r="DJ17" s="51"/>
+      <c r="DK17" s="51"/>
+      <c r="DL17" s="51"/>
+      <c r="DM17" s="51"/>
+      <c r="DN17" s="51"/>
+      <c r="DO17" s="51"/>
+      <c r="DP17" s="51"/>
+      <c r="DQ17" s="51"/>
+      <c r="DR17" s="51"/>
+      <c r="DS17" s="51"/>
+      <c r="DT17" s="51"/>
+      <c r="DU17" s="51"/>
+      <c r="DV17" s="51"/>
+      <c r="DW17" s="51"/>
+      <c r="DX17" s="51"/>
+      <c r="DY17" s="51"/>
+      <c r="DZ17" s="51"/>
+      <c r="EA17" s="51"/>
+      <c r="EB17" s="51"/>
+      <c r="EC17" s="51"/>
+      <c r="ED17" s="51"/>
+      <c r="EE17" s="51"/>
+      <c r="EF17" s="51"/>
+      <c r="EG17" s="51"/>
+      <c r="EH17" s="51"/>
+      <c r="EI17" s="51"/>
+      <c r="EJ17" s="51"/>
+      <c r="EK17" s="51"/>
+      <c r="EL17" s="51"/>
+      <c r="EM17" s="51"/>
+      <c r="EN17" s="51"/>
+      <c r="EO17" s="51"/>
+      <c r="EP17" s="51"/>
+      <c r="EQ17" s="51"/>
+      <c r="ER17" s="51"/>
+      <c r="ES17" s="51"/>
+      <c r="ET17" s="51"/>
+      <c r="EU17" s="51"/>
+      <c r="EV17" s="51"/>
+      <c r="EW17" s="51"/>
+      <c r="EX17" s="51"/>
+      <c r="EY17" s="51"/>
+      <c r="EZ17" s="51"/>
+      <c r="FA17" s="51"/>
+      <c r="FB17" s="51"/>
+      <c r="FC17" s="51"/>
+      <c r="FD17" s="51"/>
+      <c r="FE17" s="51"/>
+      <c r="FF17" s="51"/>
+      <c r="FG17" s="51"/>
+      <c r="FH17" s="51"/>
+      <c r="FI17" s="51"/>
+      <c r="FJ17" s="51"/>
+      <c r="FK17" s="51"/>
+      <c r="FL17" s="51"/>
+      <c r="FM17" s="51"/>
+      <c r="FN17" s="51"/>
+      <c r="FO17" s="51"/>
+      <c r="FP17" s="51"/>
+      <c r="FQ17" s="51"/>
+      <c r="FR17" s="51"/>
+      <c r="FS17" s="51"/>
+      <c r="FT17" s="51"/>
+      <c r="FU17" s="51"/>
+      <c r="FV17" s="51"/>
+      <c r="FW17" s="51"/>
+      <c r="FX17" s="51"/>
+      <c r="FY17" s="51"/>
+      <c r="FZ17" s="51"/>
+      <c r="GA17" s="51"/>
+      <c r="GB17" s="51"/>
+      <c r="GC17" s="51"/>
+      <c r="GD17" s="51"/>
+      <c r="GE17" s="51"/>
+      <c r="GF17" s="51"/>
+      <c r="GG17" s="51"/>
+      <c r="GH17" s="51"/>
+      <c r="GI17" s="51"/>
+      <c r="GJ17" s="51"/>
+      <c r="GK17" s="51"/>
+      <c r="GL17" s="51"/>
+      <c r="GM17" s="51"/>
+      <c r="GN17" s="51"/>
+      <c r="GO17" s="51"/>
+      <c r="GP17" s="51"/>
+      <c r="GQ17" s="51"/>
+      <c r="GR17" s="51"/>
+      <c r="GS17" s="51"/>
+      <c r="GT17" s="51"/>
+      <c r="GU17" s="51"/>
+      <c r="GV17" s="51"/>
+      <c r="GW17" s="51"/>
+      <c r="GX17" s="51"/>
+      <c r="GY17" s="51"/>
+      <c r="GZ17" s="51"/>
+      <c r="HA17" s="51"/>
+      <c r="HB17" s="51"/>
+      <c r="HC17" s="51"/>
+      <c r="HD17" s="51"/>
+      <c r="HE17" s="51"/>
+      <c r="HF17" s="51"/>
+      <c r="HG17" s="51"/>
+      <c r="HH17" s="51"/>
+      <c r="HI17" s="51"/>
+      <c r="HJ17" s="51"/>
+      <c r="HK17" s="51"/>
+      <c r="HL17" s="51"/>
+      <c r="HM17" s="51"/>
+      <c r="HN17" s="51"/>
+      <c r="HO17" s="51"/>
+      <c r="HP17" s="51"/>
+      <c r="HQ17" s="51"/>
+      <c r="HR17" s="51"/>
+      <c r="HS17" s="51"/>
+      <c r="HT17" s="51"/>
+      <c r="HU17" s="51"/>
+      <c r="HV17" s="51"/>
+      <c r="HW17" s="51"/>
+      <c r="HX17" s="51"/>
+      <c r="HY17" s="51"/>
+      <c r="HZ17" s="51"/>
+      <c r="IA17" s="51"/>
+      <c r="IB17" s="51"/>
+      <c r="IC17" s="51"/>
+      <c r="ID17" s="51"/>
+      <c r="IE17" s="51"/>
+      <c r="IF17" s="51"/>
+      <c r="IG17" s="51"/>
+      <c r="IH17" s="51"/>
+      <c r="II17" s="51"/>
+      <c r="IJ17" s="51"/>
+      <c r="IK17" s="51"/>
+      <c r="IL17" s="51"/>
+      <c r="IM17" s="51"/>
+      <c r="IN17" s="51"/>
+      <c r="IO17" s="51"/>
+      <c r="IP17" s="51"/>
+      <c r="IQ17" s="51"/>
+      <c r="IR17" s="51"/>
+      <c r="IS17" s="51"/>
+      <c r="IT17" s="51"/>
+      <c r="IU17" s="51"/>
+      <c r="IV17" s="51"/>
+    </row>
+    <row r="18" spans="1:256" ht="14.5" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="B18" s="34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="E18" s="34"/>
-      <c r="F18" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="28"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+      <c r="BN18" s="51"/>
+      <c r="BO18" s="51"/>
+      <c r="BP18" s="51"/>
+      <c r="BQ18" s="51"/>
+      <c r="BR18" s="51"/>
+      <c r="BS18" s="51"/>
+      <c r="BT18" s="51"/>
+      <c r="BU18" s="51"/>
+      <c r="BV18" s="51"/>
+      <c r="BW18" s="51"/>
+      <c r="BX18" s="51"/>
+      <c r="BY18" s="51"/>
+      <c r="BZ18" s="51"/>
+      <c r="CA18" s="51"/>
+      <c r="CB18" s="51"/>
+      <c r="CC18" s="51"/>
+      <c r="CD18" s="51"/>
+      <c r="CE18" s="51"/>
+      <c r="CF18" s="51"/>
+      <c r="CG18" s="51"/>
+      <c r="CH18" s="51"/>
+      <c r="CI18" s="51"/>
+      <c r="CJ18" s="51"/>
+      <c r="CK18" s="51"/>
+      <c r="CL18" s="51"/>
+      <c r="CM18" s="51"/>
+      <c r="CN18" s="51"/>
+      <c r="CO18" s="51"/>
+      <c r="CP18" s="51"/>
+      <c r="CQ18" s="51"/>
+      <c r="CR18" s="51"/>
+      <c r="CS18" s="51"/>
+      <c r="CT18" s="51"/>
+      <c r="CU18" s="51"/>
+      <c r="CV18" s="51"/>
+      <c r="CW18" s="51"/>
+      <c r="CX18" s="51"/>
+      <c r="CY18" s="51"/>
+      <c r="CZ18" s="51"/>
+      <c r="DA18" s="51"/>
+      <c r="DB18" s="51"/>
+      <c r="DC18" s="51"/>
+      <c r="DD18" s="51"/>
+      <c r="DE18" s="51"/>
+      <c r="DF18" s="51"/>
+      <c r="DG18" s="51"/>
+      <c r="DH18" s="51"/>
+      <c r="DI18" s="51"/>
+      <c r="DJ18" s="51"/>
+      <c r="DK18" s="51"/>
+      <c r="DL18" s="51"/>
+      <c r="DM18" s="51"/>
+      <c r="DN18" s="51"/>
+      <c r="DO18" s="51"/>
+      <c r="DP18" s="51"/>
+      <c r="DQ18" s="51"/>
+      <c r="DR18" s="51"/>
+      <c r="DS18" s="51"/>
+      <c r="DT18" s="51"/>
+      <c r="DU18" s="51"/>
+      <c r="DV18" s="51"/>
+      <c r="DW18" s="51"/>
+      <c r="DX18" s="51"/>
+      <c r="DY18" s="51"/>
+      <c r="DZ18" s="51"/>
+      <c r="EA18" s="51"/>
+      <c r="EB18" s="51"/>
+      <c r="EC18" s="51"/>
+      <c r="ED18" s="51"/>
+      <c r="EE18" s="51"/>
+      <c r="EF18" s="51"/>
+      <c r="EG18" s="51"/>
+      <c r="EH18" s="51"/>
+      <c r="EI18" s="51"/>
+      <c r="EJ18" s="51"/>
+      <c r="EK18" s="51"/>
+      <c r="EL18" s="51"/>
+      <c r="EM18" s="51"/>
+      <c r="EN18" s="51"/>
+      <c r="EO18" s="51"/>
+      <c r="EP18" s="51"/>
+      <c r="EQ18" s="51"/>
+      <c r="ER18" s="51"/>
+      <c r="ES18" s="51"/>
+      <c r="ET18" s="51"/>
+      <c r="EU18" s="51"/>
+      <c r="EV18" s="51"/>
+      <c r="EW18" s="51"/>
+      <c r="EX18" s="51"/>
+      <c r="EY18" s="51"/>
+      <c r="EZ18" s="51"/>
+      <c r="FA18" s="51"/>
+      <c r="FB18" s="51"/>
+      <c r="FC18" s="51"/>
+      <c r="FD18" s="51"/>
+      <c r="FE18" s="51"/>
+      <c r="FF18" s="51"/>
+      <c r="FG18" s="51"/>
+      <c r="FH18" s="51"/>
+      <c r="FI18" s="51"/>
+      <c r="FJ18" s="51"/>
+      <c r="FK18" s="51"/>
+      <c r="FL18" s="51"/>
+      <c r="FM18" s="51"/>
+      <c r="FN18" s="51"/>
+      <c r="FO18" s="51"/>
+      <c r="FP18" s="51"/>
+      <c r="FQ18" s="51"/>
+      <c r="FR18" s="51"/>
+      <c r="FS18" s="51"/>
+      <c r="FT18" s="51"/>
+      <c r="FU18" s="51"/>
+      <c r="FV18" s="51"/>
+      <c r="FW18" s="51"/>
+      <c r="FX18" s="51"/>
+      <c r="FY18" s="51"/>
+      <c r="FZ18" s="51"/>
+      <c r="GA18" s="51"/>
+      <c r="GB18" s="51"/>
+      <c r="GC18" s="51"/>
+      <c r="GD18" s="51"/>
+      <c r="GE18" s="51"/>
+      <c r="GF18" s="51"/>
+      <c r="GG18" s="51"/>
+      <c r="GH18" s="51"/>
+      <c r="GI18" s="51"/>
+      <c r="GJ18" s="51"/>
+      <c r="GK18" s="51"/>
+      <c r="GL18" s="51"/>
+      <c r="GM18" s="51"/>
+      <c r="GN18" s="51"/>
+      <c r="GO18" s="51"/>
+      <c r="GP18" s="51"/>
+      <c r="GQ18" s="51"/>
+      <c r="GR18" s="51"/>
+      <c r="GS18" s="51"/>
+      <c r="GT18" s="51"/>
+      <c r="GU18" s="51"/>
+      <c r="GV18" s="51"/>
+      <c r="GW18" s="51"/>
+      <c r="GX18" s="51"/>
+      <c r="GY18" s="51"/>
+      <c r="GZ18" s="51"/>
+      <c r="HA18" s="51"/>
+      <c r="HB18" s="51"/>
+      <c r="HC18" s="51"/>
+      <c r="HD18" s="51"/>
+      <c r="HE18" s="51"/>
+      <c r="HF18" s="51"/>
+      <c r="HG18" s="51"/>
+      <c r="HH18" s="51"/>
+      <c r="HI18" s="51"/>
+      <c r="HJ18" s="51"/>
+      <c r="HK18" s="51"/>
+      <c r="HL18" s="51"/>
+      <c r="HM18" s="51"/>
+      <c r="HN18" s="51"/>
+      <c r="HO18" s="51"/>
+      <c r="HP18" s="51"/>
+      <c r="HQ18" s="51"/>
+      <c r="HR18" s="51"/>
+      <c r="HS18" s="51"/>
+      <c r="HT18" s="51"/>
+      <c r="HU18" s="51"/>
+      <c r="HV18" s="51"/>
+      <c r="HW18" s="51"/>
+      <c r="HX18" s="51"/>
+      <c r="HY18" s="51"/>
+      <c r="HZ18" s="51"/>
+      <c r="IA18" s="51"/>
+      <c r="IB18" s="51"/>
+      <c r="IC18" s="51"/>
+      <c r="ID18" s="51"/>
+      <c r="IE18" s="51"/>
+      <c r="IF18" s="51"/>
+      <c r="IG18" s="51"/>
+      <c r="IH18" s="51"/>
+      <c r="II18" s="51"/>
+      <c r="IJ18" s="51"/>
+      <c r="IK18" s="51"/>
+      <c r="IL18" s="51"/>
+      <c r="IM18" s="51"/>
+      <c r="IN18" s="51"/>
+      <c r="IO18" s="51"/>
+      <c r="IP18" s="51"/>
+      <c r="IQ18" s="51"/>
+      <c r="IR18" s="51"/>
+      <c r="IS18" s="51"/>
+      <c r="IT18" s="51"/>
+      <c r="IU18" s="51"/>
+      <c r="IV18" s="51"/>
+    </row>
+    <row r="19" spans="1:256" ht="14.5" customHeight="1">
+      <c r="A19" s="35" t="s">
+        <v>125</v>
+      </c>
       <c r="B19" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.5" customHeight="1">
+      <c r="F19" s="34"/>
+      <c r="G19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:256" ht="14.5" customHeight="1">
       <c r="A20" s="28"/>
       <c r="B20" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.5" customHeight="1">
+      <c r="F20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:256" ht="14.5" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" ht="14.5" customHeight="1">
+    <row r="22" spans="1:256" ht="14.5" customHeight="1">
       <c r="A22" s="28"/>
       <c r="B22" s="34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="28"/>
+        <v>129</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="H22" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.5" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:256" ht="14.5" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="35" t="s">
-        <v>76</v>
+      <c r="E23" s="34"/>
+      <c r="F23" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" ht="14.5" customHeight="1">
+    <row r="24" spans="1:256" ht="14.5" customHeight="1">
       <c r="A24" s="28"/>
       <c r="B24" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="32" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="G24" s="28"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.5" customHeight="1">
+      <c r="H24" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:256" ht="14.5" customHeight="1">
       <c r="A25" s="28"/>
       <c r="B25" s="34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.5" customHeight="1">
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:256" ht="14.5" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>141</v>
-      </c>
+      <c r="F26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:256" ht="14.5" customHeight="1">
+      <c r="A27" s="28"/>
       <c r="B27" s="34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32" t="s">
-        <v>143</v>
-      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.5" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:256" ht="14.5" customHeight="1">
       <c r="A28" s="28"/>
       <c r="B28" s="34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="32" t="s">
+        <v>133</v>
+      </c>
       <c r="H28" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A29" s="28"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:256" ht="14.5" customHeight="1">
+      <c r="A29" s="35" t="s">
+        <v>139</v>
+      </c>
       <c r="B29" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.5" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:256" ht="14.5" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="34"/>
+        <v>142</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>144</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.5" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:256" ht="14.5" customHeight="1">
       <c r="A31" s="28"/>
       <c r="B31" s="34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.5" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:256" ht="14.5" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="32" t="s">
-        <v>152</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.5" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="28"/>
+        <v>147</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="32" t="s">
+        <v>148</v>
+      </c>
       <c r="H33" s="32" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="28"/>
+        <v>149</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="32" t="s">
+        <v>150</v>
+      </c>
       <c r="H34" s="32" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.5" customHeight="1">
       <c r="A35" s="28"/>
       <c r="B35" s="34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="32" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="14.5" customHeight="1">
       <c r="A36" s="28"/>
       <c r="B36" s="34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="35" t="s">
+        <v>85</v>
+      </c>
       <c r="G36" s="28"/>
       <c r="H36" s="32" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.5" customHeight="1">
       <c r="A37" s="28"/>
       <c r="B37" s="34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="35" t="s">
-        <v>89</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="28"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="14.5" customHeight="1">
       <c r="A38" s="28"/>
       <c r="B38" s="34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="32" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.5" customHeight="1">
       <c r="A39" s="28"/>
       <c r="B39" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>140</v>
-      </c>
+      <c r="F39" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A40" s="35" t="s">
-        <v>154</v>
-      </c>
+      <c r="A40" s="28"/>
       <c r="B40" s="34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="32" t="s">
-        <v>67</v>
-      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="32" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.5" customHeight="1">
       <c r="A41" s="28"/>
       <c r="B41" s="34">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="35" t="s">
+        <v>152</v>
+      </c>
       <c r="B42" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="32"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1">
       <c r="A43" s="28"/>
       <c r="B43" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="F43" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" ht="14.5" customHeight="1">
       <c r="A44" s="28"/>
       <c r="B44" s="34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="32"/>
@@ -4116,39 +4958,37 @@
     <row r="45" spans="1:8" ht="14.5" customHeight="1">
       <c r="A45" s="28"/>
       <c r="B45" s="34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="28"/>
+        <v>129</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="H45" s="32" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.5" customHeight="1">
       <c r="A46" s="28"/>
       <c r="B46" s="34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="35" t="s">
-        <v>76</v>
+      <c r="E46" s="34"/>
+      <c r="F46" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="32"/>
@@ -4156,57 +4996,97 @@
     <row r="47" spans="1:8" ht="14.5" customHeight="1">
       <c r="A47" s="28"/>
       <c r="B47" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="32" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="G47" s="28"/>
-      <c r="H47" s="32"/>
+      <c r="H47" s="32" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="14.5" customHeight="1">
       <c r="A48" s="28"/>
       <c r="B48" s="34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="32" t="s">
-        <v>124</v>
-      </c>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="14.5" customHeight="1">
       <c r="A49" s="28"/>
       <c r="B49" s="34">
+        <v>8</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="34">
+        <v>9</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A51" s="28"/>
+      <c r="B51" s="34">
         <v>10</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C51" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="32" t="s">
         <v>138</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4227,212 +5107,646 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IU6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="36" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="36" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="36" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="36" customWidth="1"/>
-    <col min="10" max="256" width="8.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="18" style="36" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="37.83203125" style="36" customWidth="1"/>
+    <col min="9" max="255" width="8.6640625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" customHeight="1">
+    <row r="1" spans="1:255" ht="28" customHeight="1">
       <c r="A1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:255" ht="14.5" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" s="40">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="40">
-        <v>2</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:255" ht="14.5" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:255" ht="14" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="40">
+        <v>227</v>
+      </c>
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="40">
-        <v>2</v>
+        <v>226</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="51"/>
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="51"/>
+      <c r="CE4" s="51"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="51"/>
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="51"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="51"/>
+      <c r="CO4" s="51"/>
+      <c r="CP4" s="51"/>
+      <c r="CQ4" s="51"/>
+      <c r="CR4" s="51"/>
+      <c r="CS4" s="51"/>
+      <c r="CT4" s="51"/>
+      <c r="CU4" s="51"/>
+      <c r="CV4" s="51"/>
+      <c r="CW4" s="51"/>
+      <c r="CX4" s="51"/>
+      <c r="CY4" s="51"/>
+      <c r="CZ4" s="51"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="51"/>
+      <c r="DC4" s="51"/>
+      <c r="DD4" s="51"/>
+      <c r="DE4" s="51"/>
+      <c r="DF4" s="51"/>
+      <c r="DG4" s="51"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="51"/>
+      <c r="DJ4" s="51"/>
+      <c r="DK4" s="51"/>
+      <c r="DL4" s="51"/>
+      <c r="DM4" s="51"/>
+      <c r="DN4" s="51"/>
+      <c r="DO4" s="51"/>
+      <c r="DP4" s="51"/>
+      <c r="DQ4" s="51"/>
+      <c r="DR4" s="51"/>
+      <c r="DS4" s="51"/>
+      <c r="DT4" s="51"/>
+      <c r="DU4" s="51"/>
+      <c r="DV4" s="51"/>
+      <c r="DW4" s="51"/>
+      <c r="DX4" s="51"/>
+      <c r="DY4" s="51"/>
+      <c r="DZ4" s="51"/>
+      <c r="EA4" s="51"/>
+      <c r="EB4" s="51"/>
+      <c r="EC4" s="51"/>
+      <c r="ED4" s="51"/>
+      <c r="EE4" s="51"/>
+      <c r="EF4" s="51"/>
+      <c r="EG4" s="51"/>
+      <c r="EH4" s="51"/>
+      <c r="EI4" s="51"/>
+      <c r="EJ4" s="51"/>
+      <c r="EK4" s="51"/>
+      <c r="EL4" s="51"/>
+      <c r="EM4" s="51"/>
+      <c r="EN4" s="51"/>
+      <c r="EO4" s="51"/>
+      <c r="EP4" s="51"/>
+      <c r="EQ4" s="51"/>
+      <c r="ER4" s="51"/>
+      <c r="ES4" s="51"/>
+      <c r="ET4" s="51"/>
+      <c r="EU4" s="51"/>
+      <c r="EV4" s="51"/>
+      <c r="EW4" s="51"/>
+      <c r="EX4" s="51"/>
+      <c r="EY4" s="51"/>
+      <c r="EZ4" s="51"/>
+      <c r="FA4" s="51"/>
+      <c r="FB4" s="51"/>
+      <c r="FC4" s="51"/>
+      <c r="FD4" s="51"/>
+      <c r="FE4" s="51"/>
+      <c r="FF4" s="51"/>
+      <c r="FG4" s="51"/>
+      <c r="FH4" s="51"/>
+      <c r="FI4" s="51"/>
+      <c r="FJ4" s="51"/>
+      <c r="FK4" s="51"/>
+      <c r="FL4" s="51"/>
+      <c r="FM4" s="51"/>
+      <c r="FN4" s="51"/>
+      <c r="FO4" s="51"/>
+      <c r="FP4" s="51"/>
+      <c r="FQ4" s="51"/>
+      <c r="FR4" s="51"/>
+      <c r="FS4" s="51"/>
+      <c r="FT4" s="51"/>
+      <c r="FU4" s="51"/>
+      <c r="FV4" s="51"/>
+      <c r="FW4" s="51"/>
+      <c r="FX4" s="51"/>
+      <c r="FY4" s="51"/>
+      <c r="FZ4" s="51"/>
+      <c r="GA4" s="51"/>
+      <c r="GB4" s="51"/>
+      <c r="GC4" s="51"/>
+      <c r="GD4" s="51"/>
+      <c r="GE4" s="51"/>
+      <c r="GF4" s="51"/>
+      <c r="GG4" s="51"/>
+      <c r="GH4" s="51"/>
+      <c r="GI4" s="51"/>
+      <c r="GJ4" s="51"/>
+      <c r="GK4" s="51"/>
+      <c r="GL4" s="51"/>
+      <c r="GM4" s="51"/>
+      <c r="GN4" s="51"/>
+      <c r="GO4" s="51"/>
+      <c r="GP4" s="51"/>
+      <c r="GQ4" s="51"/>
+      <c r="GR4" s="51"/>
+      <c r="GS4" s="51"/>
+      <c r="GT4" s="51"/>
+      <c r="GU4" s="51"/>
+      <c r="GV4" s="51"/>
+      <c r="GW4" s="51"/>
+      <c r="GX4" s="51"/>
+      <c r="GY4" s="51"/>
+      <c r="GZ4" s="51"/>
+      <c r="HA4" s="51"/>
+      <c r="HB4" s="51"/>
+      <c r="HC4" s="51"/>
+      <c r="HD4" s="51"/>
+      <c r="HE4" s="51"/>
+      <c r="HF4" s="51"/>
+      <c r="HG4" s="51"/>
+      <c r="HH4" s="51"/>
+      <c r="HI4" s="51"/>
+      <c r="HJ4" s="51"/>
+      <c r="HK4" s="51"/>
+      <c r="HL4" s="51"/>
+      <c r="HM4" s="51"/>
+      <c r="HN4" s="51"/>
+      <c r="HO4" s="51"/>
+      <c r="HP4" s="51"/>
+      <c r="HQ4" s="51"/>
+      <c r="HR4" s="51"/>
+      <c r="HS4" s="51"/>
+      <c r="HT4" s="51"/>
+      <c r="HU4" s="51"/>
+      <c r="HV4" s="51"/>
+      <c r="HW4" s="51"/>
+      <c r="HX4" s="51"/>
+      <c r="HY4" s="51"/>
+      <c r="HZ4" s="51"/>
+      <c r="IA4" s="51"/>
+      <c r="IB4" s="51"/>
+      <c r="IC4" s="51"/>
+      <c r="ID4" s="51"/>
+      <c r="IE4" s="51"/>
+      <c r="IF4" s="51"/>
+      <c r="IG4" s="51"/>
+      <c r="IH4" s="51"/>
+      <c r="II4" s="51"/>
+      <c r="IJ4" s="51"/>
+      <c r="IK4" s="51"/>
+      <c r="IL4" s="51"/>
+      <c r="IM4" s="51"/>
+      <c r="IN4" s="51"/>
+      <c r="IO4" s="51"/>
+      <c r="IP4" s="51"/>
+      <c r="IQ4" s="51"/>
+      <c r="IR4" s="51"/>
+      <c r="IS4" s="51"/>
+      <c r="IT4" s="51"/>
+      <c r="IU4" s="51"/>
+    </row>
+    <row r="5" spans="1:255" ht="14" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="40">
-        <v>3</v>
+        <v>228</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:255" ht="14" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+        <v>225</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="40">
-        <v>20</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="40">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="40">
-        <v>2</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="40">
-        <v>3</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="16"/>
+        <v>222</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="51"/>
+      <c r="BR6" s="51"/>
+      <c r="BS6" s="51"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="51"/>
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="51"/>
+      <c r="BX6" s="51"/>
+      <c r="BY6" s="51"/>
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="51"/>
+      <c r="CB6" s="51"/>
+      <c r="CC6" s="51"/>
+      <c r="CD6" s="51"/>
+      <c r="CE6" s="51"/>
+      <c r="CF6" s="51"/>
+      <c r="CG6" s="51"/>
+      <c r="CH6" s="51"/>
+      <c r="CI6" s="51"/>
+      <c r="CJ6" s="51"/>
+      <c r="CK6" s="51"/>
+      <c r="CL6" s="51"/>
+      <c r="CM6" s="51"/>
+      <c r="CN6" s="51"/>
+      <c r="CO6" s="51"/>
+      <c r="CP6" s="51"/>
+      <c r="CQ6" s="51"/>
+      <c r="CR6" s="51"/>
+      <c r="CS6" s="51"/>
+      <c r="CT6" s="51"/>
+      <c r="CU6" s="51"/>
+      <c r="CV6" s="51"/>
+      <c r="CW6" s="51"/>
+      <c r="CX6" s="51"/>
+      <c r="CY6" s="51"/>
+      <c r="CZ6" s="51"/>
+      <c r="DA6" s="51"/>
+      <c r="DB6" s="51"/>
+      <c r="DC6" s="51"/>
+      <c r="DD6" s="51"/>
+      <c r="DE6" s="51"/>
+      <c r="DF6" s="51"/>
+      <c r="DG6" s="51"/>
+      <c r="DH6" s="51"/>
+      <c r="DI6" s="51"/>
+      <c r="DJ6" s="51"/>
+      <c r="DK6" s="51"/>
+      <c r="DL6" s="51"/>
+      <c r="DM6" s="51"/>
+      <c r="DN6" s="51"/>
+      <c r="DO6" s="51"/>
+      <c r="DP6" s="51"/>
+      <c r="DQ6" s="51"/>
+      <c r="DR6" s="51"/>
+      <c r="DS6" s="51"/>
+      <c r="DT6" s="51"/>
+      <c r="DU6" s="51"/>
+      <c r="DV6" s="51"/>
+      <c r="DW6" s="51"/>
+      <c r="DX6" s="51"/>
+      <c r="DY6" s="51"/>
+      <c r="DZ6" s="51"/>
+      <c r="EA6" s="51"/>
+      <c r="EB6" s="51"/>
+      <c r="EC6" s="51"/>
+      <c r="ED6" s="51"/>
+      <c r="EE6" s="51"/>
+      <c r="EF6" s="51"/>
+      <c r="EG6" s="51"/>
+      <c r="EH6" s="51"/>
+      <c r="EI6" s="51"/>
+      <c r="EJ6" s="51"/>
+      <c r="EK6" s="51"/>
+      <c r="EL6" s="51"/>
+      <c r="EM6" s="51"/>
+      <c r="EN6" s="51"/>
+      <c r="EO6" s="51"/>
+      <c r="EP6" s="51"/>
+      <c r="EQ6" s="51"/>
+      <c r="ER6" s="51"/>
+      <c r="ES6" s="51"/>
+      <c r="ET6" s="51"/>
+      <c r="EU6" s="51"/>
+      <c r="EV6" s="51"/>
+      <c r="EW6" s="51"/>
+      <c r="EX6" s="51"/>
+      <c r="EY6" s="51"/>
+      <c r="EZ6" s="51"/>
+      <c r="FA6" s="51"/>
+      <c r="FB6" s="51"/>
+      <c r="FC6" s="51"/>
+      <c r="FD6" s="51"/>
+      <c r="FE6" s="51"/>
+      <c r="FF6" s="51"/>
+      <c r="FG6" s="51"/>
+      <c r="FH6" s="51"/>
+      <c r="FI6" s="51"/>
+      <c r="FJ6" s="51"/>
+      <c r="FK6" s="51"/>
+      <c r="FL6" s="51"/>
+      <c r="FM6" s="51"/>
+      <c r="FN6" s="51"/>
+      <c r="FO6" s="51"/>
+      <c r="FP6" s="51"/>
+      <c r="FQ6" s="51"/>
+      <c r="FR6" s="51"/>
+      <c r="FS6" s="51"/>
+      <c r="FT6" s="51"/>
+      <c r="FU6" s="51"/>
+      <c r="FV6" s="51"/>
+      <c r="FW6" s="51"/>
+      <c r="FX6" s="51"/>
+      <c r="FY6" s="51"/>
+      <c r="FZ6" s="51"/>
+      <c r="GA6" s="51"/>
+      <c r="GB6" s="51"/>
+      <c r="GC6" s="51"/>
+      <c r="GD6" s="51"/>
+      <c r="GE6" s="51"/>
+      <c r="GF6" s="51"/>
+      <c r="GG6" s="51"/>
+      <c r="GH6" s="51"/>
+      <c r="GI6" s="51"/>
+      <c r="GJ6" s="51"/>
+      <c r="GK6" s="51"/>
+      <c r="GL6" s="51"/>
+      <c r="GM6" s="51"/>
+      <c r="GN6" s="51"/>
+      <c r="GO6" s="51"/>
+      <c r="GP6" s="51"/>
+      <c r="GQ6" s="51"/>
+      <c r="GR6" s="51"/>
+      <c r="GS6" s="51"/>
+      <c r="GT6" s="51"/>
+      <c r="GU6" s="51"/>
+      <c r="GV6" s="51"/>
+      <c r="GW6" s="51"/>
+      <c r="GX6" s="51"/>
+      <c r="GY6" s="51"/>
+      <c r="GZ6" s="51"/>
+      <c r="HA6" s="51"/>
+      <c r="HB6" s="51"/>
+      <c r="HC6" s="51"/>
+      <c r="HD6" s="51"/>
+      <c r="HE6" s="51"/>
+      <c r="HF6" s="51"/>
+      <c r="HG6" s="51"/>
+      <c r="HH6" s="51"/>
+      <c r="HI6" s="51"/>
+      <c r="HJ6" s="51"/>
+      <c r="HK6" s="51"/>
+      <c r="HL6" s="51"/>
+      <c r="HM6" s="51"/>
+      <c r="HN6" s="51"/>
+      <c r="HO6" s="51"/>
+      <c r="HP6" s="51"/>
+      <c r="HQ6" s="51"/>
+      <c r="HR6" s="51"/>
+      <c r="HS6" s="51"/>
+      <c r="HT6" s="51"/>
+      <c r="HU6" s="51"/>
+      <c r="HV6" s="51"/>
+      <c r="HW6" s="51"/>
+      <c r="HX6" s="51"/>
+      <c r="HY6" s="51"/>
+      <c r="HZ6" s="51"/>
+      <c r="IA6" s="51"/>
+      <c r="IB6" s="51"/>
+      <c r="IC6" s="51"/>
+      <c r="ID6" s="51"/>
+      <c r="IE6" s="51"/>
+      <c r="IF6" s="51"/>
+      <c r="IG6" s="51"/>
+      <c r="IH6" s="51"/>
+      <c r="II6" s="51"/>
+      <c r="IJ6" s="51"/>
+      <c r="IK6" s="51"/>
+      <c r="IL6" s="51"/>
+      <c r="IM6" s="51"/>
+      <c r="IN6" s="51"/>
+      <c r="IO6" s="51"/>
+      <c r="IP6" s="51"/>
+      <c r="IQ6" s="51"/>
+      <c r="IR6" s="51"/>
+      <c r="IS6" s="51"/>
+      <c r="IT6" s="51"/>
+      <c r="IU6" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4457,36 +5771,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="19" style="41" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="41" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="41" customWidth="1"/>
-    <col min="10" max="256" width="8.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="40" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="40" customWidth="1"/>
+    <col min="10" max="256" width="8.6640625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>31</v>
@@ -4498,30 +5812,30 @@
         <v>33</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="14"/>
@@ -4535,17 +5849,17 @@
     </row>
     <row r="3" spans="1:12" ht="14.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="42" t="s">
-        <v>176</v>
+      <c r="B3" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14"/>
@@ -4559,17 +5873,17 @@
     </row>
     <row r="4" spans="1:12" ht="14.5" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="42" t="s">
-        <v>177</v>
+      <c r="B4" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
@@ -4583,17 +5897,17 @@
     </row>
     <row r="5" spans="1:12" ht="14.5" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="42" t="s">
-        <v>179</v>
+      <c r="B5" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="14"/>
@@ -4607,17 +5921,17 @@
     </row>
     <row r="6" spans="1:12" ht="14.5" customHeight="1">
       <c r="A6" s="16"/>
-      <c r="B6" s="42" t="s">
-        <v>181</v>
+      <c r="B6" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="14"/>
@@ -4631,19 +5945,19 @@
     </row>
     <row r="7" spans="1:12" ht="14.5" customHeight="1">
       <c r="A7" s="16"/>
-      <c r="B7" s="42" t="s">
-        <v>183</v>
+      <c r="B7" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="D7" s="42"/>
       <c r="E7" s="14"/>
       <c r="F7" s="16"/>
       <c r="G7" s="14"/>
       <c r="H7" s="16"/>
       <c r="I7" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -4651,11 +5965,11 @@
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="42" t="s">
-        <v>184</v>
+      <c r="B8" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
@@ -4663,11 +5977,11 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -4675,23 +5989,23 @@
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="42" t="s">
-        <v>187</v>
+      <c r="B9" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -4699,11 +6013,11 @@
     </row>
     <row r="10" spans="1:12" ht="14.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="42" t="s">
-        <v>190</v>
+      <c r="B10" s="41" t="s">
+        <v>188</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
@@ -4711,7 +6025,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -4719,21 +6033,21 @@
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>175</v>
+        <v>191</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
       <c r="G11" s="14"/>
       <c r="H11" s="16"/>
       <c r="I11" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -4741,11 +6055,11 @@
     </row>
     <row r="12" spans="1:12" ht="14.5" customHeight="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="42" t="s">
-        <v>176</v>
+      <c r="B12" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>10</v>
@@ -4765,17 +6079,17 @@
     </row>
     <row r="13" spans="1:12" ht="14.5" customHeight="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="42" t="s">
-        <v>177</v>
+      <c r="B13" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -4789,21 +6103,21 @@
     </row>
     <row r="14" spans="1:12" ht="14.5" customHeight="1">
       <c r="A14" s="16"/>
-      <c r="B14" s="42" t="s">
-        <v>179</v>
+      <c r="B14" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="14" t="s">
@@ -4815,20 +6129,20 @@
     </row>
     <row r="15" spans="1:12" ht="14.5" customHeight="1">
       <c r="A15" s="16"/>
-      <c r="B15" s="42" t="s">
-        <v>181</v>
+      <c r="B15" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="16"/>
       <c r="I15" s="14" t="s">
         <v>11</v>
@@ -4839,21 +6153,21 @@
     </row>
     <row r="16" spans="1:12" ht="14.5" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="42" t="s">
-        <v>183</v>
+      <c r="B16" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -4894,7 +6208,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -4908,7 +6222,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="45"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4922,7 +6236,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -4936,7 +6250,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -4950,7 +6264,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -4964,7 +6278,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4978,8 +6292,8 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -5006,67 +6320,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="47" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="18" style="47" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="47" customWidth="1"/>
-    <col min="6" max="7" width="17.1640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" style="47" customWidth="1"/>
-    <col min="9" max="256" width="8.6640625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="20" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="18" style="46" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="46" customWidth="1"/>
+    <col min="6" max="7" width="17.1640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" style="46" customWidth="1"/>
+    <col min="9" max="256" width="8.6640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" s="40">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
@@ -5074,20 +6390,20 @@
     </row>
     <row r="3" spans="1:11" ht="14.5" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
@@ -5095,22 +6411,22 @@
     </row>
     <row r="4" spans="1:11" ht="14.5" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="40">
+        <v>158</v>
+      </c>
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="3"/>
@@ -5118,20 +6434,20 @@
     </row>
     <row r="5" spans="1:11" ht="14.5" customHeight="1">
       <c r="A5" s="23"/>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
@@ -5139,21 +6455,21 @@
     </row>
     <row r="6" spans="1:11" ht="14.5" customHeight="1">
       <c r="A6" s="23"/>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+        <v>102</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="40">
+        <v>124</v>
+      </c>
+      <c r="H6" s="39">
         <v>20</v>
       </c>
       <c r="I6" s="5"/>
@@ -5162,22 +6478,22 @@
     </row>
     <row r="7" spans="1:11" ht="14.5" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="40">
+        <v>161</v>
+      </c>
+      <c r="B7" s="39">
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="3"/>
@@ -5185,20 +6501,20 @@
     </row>
     <row r="8" spans="1:11" ht="14.5" customHeight="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>2</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="3"/>
@@ -5206,20 +6522,20 @@
     </row>
     <row r="9" spans="1:11" ht="14.5" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>3</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="40"/>
+        <v>157</v>
+      </c>
+      <c r="E9" s="39"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
@@ -5262,7 +6578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="256" width="11.1640625" style="52" customWidth="1"/>
+    <col min="1" max="256" width="11.1640625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" customHeight="1">

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="操作说明" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="283">
   <si>
     <t>操作说明</t>
   </si>
@@ -495,579 +495,675 @@
     <t>30</t>
   </si>
   <si>
+    <t>延迟等待</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter</t>
+  </si>
+  <si>
+    <t>等待文本显示（个人中心）</t>
+  </si>
+  <si>
+    <t>点击左屏个人中心</t>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+  </si>
+  <si>
+    <t>等待文本显示（一账通登录）</t>
+  </si>
+  <si>
+    <t>一账通登录</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>隐藏键盘</t>
+  </si>
+  <si>
+    <t>hidekeyboard</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>等待文本显示（一账通）</t>
+  </si>
+  <si>
+    <t>点击一账通</t>
+  </si>
+  <si>
+    <t>点击宿主登陆</t>
+  </si>
+  <si>
+    <t>等待文本显示（返回）</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>点击默认登录账号</t>
+  </si>
+  <si>
+    <t>输入宿主登录账号</t>
+  </si>
+  <si>
+    <t>15006180030</t>
+  </si>
+  <si>
+    <t>点击确认宿主登录账号</t>
+  </si>
+  <si>
+    <t>点击宿主登录</t>
+  </si>
+  <si>
+    <t>断言页面文字消失（15006180030）</t>
+  </si>
+  <si>
+    <t>assertFalse</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>等待文本显示（密码登录）</t>
+  </si>
+  <si>
+    <t>密码登录</t>
+  </si>
+  <si>
+    <t>向上滑动</t>
+  </si>
+  <si>
+    <t>swipeToUp</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>点击密码登录</t>
+  </si>
+  <si>
+    <t>等待文本显示（注册账号 Link）</t>
+  </si>
+  <si>
+    <t>注册账号 Link</t>
+  </si>
+  <si>
+    <t>等待文本显示（注册账号）</t>
+  </si>
+  <si>
+    <t>注册账号</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>等待文本显示（非一账通）</t>
+  </si>
+  <si>
+    <t>点击非一账通</t>
+  </si>
+  <si>
+    <t>滑动打开个人中心</t>
+  </si>
+  <si>
+    <t>公共库</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>步骤ID</t>
+  </si>
+  <si>
+    <t>API类别</t>
+  </si>
+  <si>
+    <t>定位元素</t>
+  </si>
+  <si>
+    <t>定位索引</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>是否跳过</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>test_loginyzt</t>
+  </si>
+  <si>
+    <t>test_0001</t>
+  </si>
+  <si>
+    <t>test_0002</t>
+  </si>
+  <si>
+    <t>test_0003</t>
+  </si>
+  <si>
+    <t>点击选择登陆用户</t>
+  </si>
+  <si>
+    <t>test_0004</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>test_0005</t>
+  </si>
+  <si>
+    <t>点击登陆</t>
+  </si>
+  <si>
+    <t>test_0006</t>
+  </si>
+  <si>
+    <t>test_0007</t>
+  </si>
+  <si>
+    <t>断言不存在个人中心</t>
+  </si>
+  <si>
+    <t>assertNotTrue</t>
+  </si>
+  <si>
+    <t>test_0008</t>
+  </si>
+  <si>
+    <t>等待我的订单</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+  </si>
+  <si>
+    <t>test_0009</t>
+  </si>
+  <si>
+    <t>向左滑动</t>
+  </si>
+  <si>
+    <t>swipe2left</t>
+  </si>
+  <si>
+    <t>test_loginbyH5</t>
+  </si>
+  <si>
+    <t>点击个人中心</t>
+  </si>
+  <si>
+    <t>点击账户输入框</t>
+  </si>
+  <si>
+    <t>输入账户</t>
+  </si>
+  <si>
+    <t>18602753065</t>
+  </si>
+  <si>
+    <t>点击密码输入框</t>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一账通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>classname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起键盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭H5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_loginByH5_1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_loginByH5_1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1001</t>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1002</t>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1004</t>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1005</t>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1006</t>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1007</t>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1008</t>
+  </si>
+  <si>
+    <t>PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本活动的最终解释权归平安科技所有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信用卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试算一下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CheckPlugin_1009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登 录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByHost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByLow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginNoyztByHost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟等待</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言页面文字消失（18602753065）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSuite（案例）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseID(步骤id)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description（步骤描述）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action_Keyword(操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios or android(ios或android独有操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element（元素封装）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject(页面元素)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter（传入参数）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>点击消息中心</t>
-  </si>
-  <si>
-    <t>延迟等待</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>SwipeToClickPersonalCenter</t>
-  </si>
-  <si>
-    <t>等待文本显示（个人中心）</t>
-  </si>
-  <si>
-    <t>点击左屏个人中心</t>
-  </si>
-  <si>
-    <t>loginyztByH5</t>
-  </si>
-  <si>
-    <t>等待文本显示（一账通登录）</t>
-  </si>
-  <si>
-    <t>一账通登录</t>
-  </si>
-  <si>
-    <t>输入账号</t>
-  </si>
-  <si>
-    <t>18688971111</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>hu154235</t>
-  </si>
-  <si>
-    <t>隐藏键盘</t>
-  </si>
-  <si>
-    <t>hidekeyboard</t>
-  </si>
-  <si>
-    <t>ios</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>等待文本显示（我的资产）</t>
-  </si>
-  <si>
-    <t>我的资产</t>
-  </si>
-  <si>
-    <t>loginyztByHost</t>
-  </si>
-  <si>
-    <t>等待文本显示（一账通）</t>
-  </si>
-  <si>
-    <t>点击一账通</t>
-  </si>
-  <si>
-    <t>点击宿主登陆</t>
-  </si>
-  <si>
-    <t>等待文本显示（返回）</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>点击默认登录账号</t>
-  </si>
-  <si>
-    <t>输入宿主登录账号</t>
-  </si>
-  <si>
-    <t>15006180030</t>
-  </si>
-  <si>
-    <t>点击确认宿主登录账号</t>
-  </si>
-  <si>
-    <t>点击宿主登录</t>
-  </si>
-  <si>
-    <t>断言页面文字消失（15006180030）</t>
-  </si>
-  <si>
-    <t>assertFalse</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>loginyztByLow</t>
-  </si>
-  <si>
-    <t>等待文本显示（密码登录）</t>
-  </si>
-  <si>
-    <t>密码登录</t>
-  </si>
-  <si>
-    <t>向上滑动</t>
-  </si>
-  <si>
-    <t>swipeToUp</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>点击密码登录</t>
-  </si>
-  <si>
-    <t>等待文本显示（注册账号 Link）</t>
-  </si>
-  <si>
-    <t>注册账号 Link</t>
-  </si>
-  <si>
-    <t>等待文本显示（注册账号）</t>
-  </si>
-  <si>
-    <t>注册账号</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>loginNoyztByHost</t>
-  </si>
-  <si>
-    <t>等待文本显示（非一账通）</t>
-  </si>
-  <si>
-    <t>点击非一账通</t>
-  </si>
-  <si>
-    <t>滑动打开个人中心</t>
-  </si>
-  <si>
-    <t>公共库</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>步骤ID</t>
-  </si>
-  <si>
-    <t>API类别</t>
-  </si>
-  <si>
-    <t>定位元素</t>
-  </si>
-  <si>
-    <t>定位索引</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>是否跳过</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>test_loginyzt</t>
-  </si>
-  <si>
-    <t>test_0001</t>
-  </si>
-  <si>
-    <t>test_0002</t>
-  </si>
-  <si>
-    <t>test_0003</t>
-  </si>
-  <si>
-    <t>点击选择登陆用户</t>
-  </si>
-  <si>
-    <t>test_0004</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>test_0005</t>
-  </si>
-  <si>
-    <t>点击登陆</t>
-  </si>
-  <si>
-    <t>test_0006</t>
-  </si>
-  <si>
-    <t>test_0007</t>
-  </si>
-  <si>
-    <t>断言不存在个人中心</t>
-  </si>
-  <si>
-    <t>assertNotTrue</t>
-  </si>
-  <si>
-    <t>test_0008</t>
-  </si>
-  <si>
-    <t>等待我的订单</t>
-  </si>
-  <si>
-    <t>我的订单</t>
-  </si>
-  <si>
-    <t>test_0009</t>
-  </si>
-  <si>
-    <t>向左滑动</t>
-  </si>
-  <si>
-    <t>swipe2left</t>
-  </si>
-  <si>
-    <t>test_loginbyH5</t>
-  </si>
-  <si>
-    <t>点击个人中心</t>
-  </si>
-  <si>
-    <t>点击账户输入框</t>
-  </si>
-  <si>
-    <t>输入账户</t>
-  </si>
-  <si>
-    <t>18602753065</t>
-  </si>
-  <si>
-    <t>点击密码输入框</t>
-  </si>
-  <si>
-    <t>qweqwe123</t>
-  </si>
-  <si>
-    <t>SwipeToClickPersonalCenter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一账通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>classname</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@name='登 录']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收起键盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面完成按钮</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面完成按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qweqwe123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭H5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2left</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>值得买</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取插件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPluginList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_getPluginList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_loginByH5_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_loginByH5_1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言等待文本显示（我的订单）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1001</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1002</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1004</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1005</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1006</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1007</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1008</t>
-  </si>
-  <si>
-    <t>PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本活动的最终解释权归平安科技所有</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用积分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的信用卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元GO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试算一下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_h5_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_h5_1001</t>
-  </si>
-  <si>
-    <t>checkPlugin:PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkPlugin:PA03300000000_02_AJDK</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1112,8 +1208,15 @@
       <color theme="11"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,8 +1247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1263,8 +1372,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,8 +1638,140 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1649,6 +1905,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,7 +1915,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="127">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1698,6 +1957,28 @@
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1739,6 +2020,28 @@
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2939,17 +3242,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="64" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3095,7 +3398,7 @@
   <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -3135,7 +3438,7 @@
     </row>
     <row r="2" spans="1:7" ht="40.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>38</v>
@@ -3148,7 +3451,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -3167,7 +3470,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G3" s="18"/>
     </row>
@@ -3176,7 +3479,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>44</v>
@@ -3186,7 +3489,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -3195,7 +3498,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>44</v>
@@ -3221,10 +3524,10 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="18" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -3243,7 +3546,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G7" s="20"/>
     </row>
@@ -3381,7 +3684,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>44</v>
@@ -3402,7 +3705,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>44</v>
@@ -3439,26 +3742,36 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>238</v>
+      </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>238</v>
+      </c>
       <c r="G19" s="26"/>
     </row>
   </sheetData>
@@ -3481,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -3517,10 +3830,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
@@ -3567,14 +3880,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="30" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="30"/>
@@ -3585,21 +3898,21 @@
         <v>4</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.5" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="31">
         <v>1</v>
@@ -3621,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>91</v>
@@ -3641,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>11</v>
@@ -3659,27 +3972,27 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="B10" s="31">
         <v>1</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>91</v>
@@ -3687,7 +4000,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>92</v>
@@ -3699,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>17</v>
@@ -3710,7 +4023,7 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="30" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" customHeight="1">
@@ -3719,7 +4032,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>17</v>
@@ -3730,7 +4043,7 @@
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="30" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1">
@@ -3739,14 +4052,14 @@
         <v>4</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="30"/>
@@ -3757,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>11</v>
@@ -3775,16 +4088,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1">
@@ -3793,15 +4106,15 @@
         <v>7</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>92</v>
@@ -3813,10 +4126,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -4077,10 +4390,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -4337,13 +4650,13 @@
     </row>
     <row r="19" spans="1:256" ht="14.5" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="B19" s="31">
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>91</v>
@@ -4363,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>11</v>
@@ -4381,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>11</v>
@@ -4399,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>91</v>
@@ -4407,7 +4720,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>92</v>
@@ -4419,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>11</v>
@@ -4437,20 +4750,20 @@
         <v>6</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="30" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:256" ht="14.5" customHeight="1">
@@ -4459,7 +4772,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>11</v>
@@ -4477,7 +4790,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>11</v>
@@ -4495,16 +4808,16 @@
         <v>9</v>
       </c>
       <c r="C27" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="14.5" customHeight="1">
@@ -4513,29 +4826,29 @@
         <v>10</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="30" t="s">
-        <v>122</v>
+      <c r="G28" s="49" t="s">
+        <v>259</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:256" ht="14.5" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="B29" s="31">
         <v>1</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>91</v>
@@ -4543,7 +4856,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>92</v>
@@ -4555,18 +4868,18 @@
         <v>2</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="30" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:256" ht="14.5" customHeight="1">
@@ -4575,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>11</v>
@@ -4593,16 +4906,16 @@
         <v>4</v>
       </c>
       <c r="C32" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.5" customHeight="1">
@@ -4611,17 +4924,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>92</v>
@@ -4633,17 +4946,17 @@
         <v>6</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>92</v>
@@ -4655,7 +4968,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>17</v>
@@ -4666,7 +4979,7 @@
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="30" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.5" customHeight="1">
@@ -4675,7 +4988,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>17</v>
@@ -4686,7 +4999,7 @@
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="30" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.5" customHeight="1">
@@ -4695,13 +5008,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -4713,16 +5026,16 @@
         <v>10</v>
       </c>
       <c r="C38" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.5" customHeight="1">
@@ -4731,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>11</v>
@@ -4749,16 +5062,16 @@
         <v>12</v>
       </c>
       <c r="C40" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.5" customHeight="1">
@@ -4767,7 +5080,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>91</v>
@@ -4775,21 +5088,21 @@
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="30" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" customHeight="1">
       <c r="A42" s="32" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="B42" s="31">
         <v>1</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>91</v>
@@ -4809,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>11</v>
@@ -4827,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>11</v>
@@ -4845,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>91</v>
@@ -4853,7 +5166,7 @@
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>92</v>
@@ -4865,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>11</v>
@@ -4883,20 +5196,20 @@
         <v>6</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.5" customHeight="1">
@@ -4905,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>11</v>
@@ -4923,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>11</v>
@@ -4941,16 +5254,16 @@
         <v>9</v>
       </c>
       <c r="C50" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1">
@@ -4959,18 +5272,18 @@
         <v>10</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="30" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4991,10 +5304,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU14"/>
+  <dimension ref="A1:IU18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -5012,22 +5325,22 @@
   <sheetData>
     <row r="1" spans="1:255" ht="28" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>85</v>
@@ -5038,27 +5351,273 @@
     </row>
     <row r="2" spans="1:255" ht="14.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
       <c r="H2" s="18" t="s">
-        <v>180</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
+      <c r="CN2" s="43"/>
+      <c r="CO2" s="43"/>
+      <c r="CP2" s="43"/>
+      <c r="CQ2" s="43"/>
+      <c r="CR2" s="43"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="43"/>
+      <c r="CU2" s="43"/>
+      <c r="CV2" s="43"/>
+      <c r="CW2" s="43"/>
+      <c r="CX2" s="43"/>
+      <c r="CY2" s="43"/>
+      <c r="CZ2" s="43"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="43"/>
+      <c r="DC2" s="43"/>
+      <c r="DD2" s="43"/>
+      <c r="DE2" s="43"/>
+      <c r="DF2" s="43"/>
+      <c r="DG2" s="43"/>
+      <c r="DH2" s="43"/>
+      <c r="DI2" s="43"/>
+      <c r="DJ2" s="43"/>
+      <c r="DK2" s="43"/>
+      <c r="DL2" s="43"/>
+      <c r="DM2" s="43"/>
+      <c r="DN2" s="43"/>
+      <c r="DO2" s="43"/>
+      <c r="DP2" s="43"/>
+      <c r="DQ2" s="43"/>
+      <c r="DR2" s="43"/>
+      <c r="DS2" s="43"/>
+      <c r="DT2" s="43"/>
+      <c r="DU2" s="43"/>
+      <c r="DV2" s="43"/>
+      <c r="DW2" s="43"/>
+      <c r="DX2" s="43"/>
+      <c r="DY2" s="43"/>
+      <c r="DZ2" s="43"/>
+      <c r="EA2" s="43"/>
+      <c r="EB2" s="43"/>
+      <c r="EC2" s="43"/>
+      <c r="ED2" s="43"/>
+      <c r="EE2" s="43"/>
+      <c r="EF2" s="43"/>
+      <c r="EG2" s="43"/>
+      <c r="EH2" s="43"/>
+      <c r="EI2" s="43"/>
+      <c r="EJ2" s="43"/>
+      <c r="EK2" s="43"/>
+      <c r="EL2" s="43"/>
+      <c r="EM2" s="43"/>
+      <c r="EN2" s="43"/>
+      <c r="EO2" s="43"/>
+      <c r="EP2" s="43"/>
+      <c r="EQ2" s="43"/>
+      <c r="ER2" s="43"/>
+      <c r="ES2" s="43"/>
+      <c r="ET2" s="43"/>
+      <c r="EU2" s="43"/>
+      <c r="EV2" s="43"/>
+      <c r="EW2" s="43"/>
+      <c r="EX2" s="43"/>
+      <c r="EY2" s="43"/>
+      <c r="EZ2" s="43"/>
+      <c r="FA2" s="43"/>
+      <c r="FB2" s="43"/>
+      <c r="FC2" s="43"/>
+      <c r="FD2" s="43"/>
+      <c r="FE2" s="43"/>
+      <c r="FF2" s="43"/>
+      <c r="FG2" s="43"/>
+      <c r="FH2" s="43"/>
+      <c r="FI2" s="43"/>
+      <c r="FJ2" s="43"/>
+      <c r="FK2" s="43"/>
+      <c r="FL2" s="43"/>
+      <c r="FM2" s="43"/>
+      <c r="FN2" s="43"/>
+      <c r="FO2" s="43"/>
+      <c r="FP2" s="43"/>
+      <c r="FQ2" s="43"/>
+      <c r="FR2" s="43"/>
+      <c r="FS2" s="43"/>
+      <c r="FT2" s="43"/>
+      <c r="FU2" s="43"/>
+      <c r="FV2" s="43"/>
+      <c r="FW2" s="43"/>
+      <c r="FX2" s="43"/>
+      <c r="FY2" s="43"/>
+      <c r="FZ2" s="43"/>
+      <c r="GA2" s="43"/>
+      <c r="GB2" s="43"/>
+      <c r="GC2" s="43"/>
+      <c r="GD2" s="43"/>
+      <c r="GE2" s="43"/>
+      <c r="GF2" s="43"/>
+      <c r="GG2" s="43"/>
+      <c r="GH2" s="43"/>
+      <c r="GI2" s="43"/>
+      <c r="GJ2" s="43"/>
+      <c r="GK2" s="43"/>
+      <c r="GL2" s="43"/>
+      <c r="GM2" s="43"/>
+      <c r="GN2" s="43"/>
+      <c r="GO2" s="43"/>
+      <c r="GP2" s="43"/>
+      <c r="GQ2" s="43"/>
+      <c r="GR2" s="43"/>
+      <c r="GS2" s="43"/>
+      <c r="GT2" s="43"/>
+      <c r="GU2" s="43"/>
+      <c r="GV2" s="43"/>
+      <c r="GW2" s="43"/>
+      <c r="GX2" s="43"/>
+      <c r="GY2" s="43"/>
+      <c r="GZ2" s="43"/>
+      <c r="HA2" s="43"/>
+      <c r="HB2" s="43"/>
+      <c r="HC2" s="43"/>
+      <c r="HD2" s="43"/>
+      <c r="HE2" s="43"/>
+      <c r="HF2" s="43"/>
+      <c r="HG2" s="43"/>
+      <c r="HH2" s="43"/>
+      <c r="HI2" s="43"/>
+      <c r="HJ2" s="43"/>
+      <c r="HK2" s="43"/>
+      <c r="HL2" s="43"/>
+      <c r="HM2" s="43"/>
+      <c r="HN2" s="43"/>
+      <c r="HO2" s="43"/>
+      <c r="HP2" s="43"/>
+      <c r="HQ2" s="43"/>
+      <c r="HR2" s="43"/>
+      <c r="HS2" s="43"/>
+      <c r="HT2" s="43"/>
+      <c r="HU2" s="43"/>
+      <c r="HV2" s="43"/>
+      <c r="HW2" s="43"/>
+      <c r="HX2" s="43"/>
+      <c r="HY2" s="43"/>
+      <c r="HZ2" s="43"/>
+      <c r="IA2" s="43"/>
+      <c r="IB2" s="43"/>
+      <c r="IC2" s="43"/>
+      <c r="ID2" s="43"/>
+      <c r="IE2" s="43"/>
+      <c r="IF2" s="43"/>
+      <c r="IG2" s="43"/>
+      <c r="IH2" s="43"/>
+      <c r="II2" s="43"/>
+      <c r="IJ2" s="43"/>
+      <c r="IK2" s="43"/>
+      <c r="IL2" s="43"/>
+      <c r="IM2" s="43"/>
+      <c r="IN2" s="43"/>
+      <c r="IO2" s="43"/>
+      <c r="IP2" s="43"/>
+      <c r="IQ2" s="43"/>
+      <c r="IR2" s="43"/>
+      <c r="IS2" s="43"/>
+      <c r="IT2" s="43"/>
+      <c r="IU2" s="43"/>
     </row>
     <row r="3" spans="1:255" ht="14.5" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
@@ -5067,27 +5626,27 @@
         <v>29</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -5343,223 +5902,793 @@
     </row>
     <row r="5" spans="1:255" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>209</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:255" ht="14" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B6" s="36">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="20" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:255" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B7" s="36">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="20" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:255" ht="14" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B8" s="36">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="20" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:255" ht="14" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B9" s="36">
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="20" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:255" ht="14" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B10" s="36">
         <v>1</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="20" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:255" ht="14" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B11" s="36">
         <v>1</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="20" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:255" ht="14" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B12" s="36">
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="20" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:255" ht="14" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B13" s="36">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:255" ht="14" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B14" s="36">
         <v>1</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="20" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>235</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:255" ht="14" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="36">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="43"/>
+      <c r="BO15" s="43"/>
+      <c r="BP15" s="43"/>
+      <c r="BQ15" s="43"/>
+      <c r="BR15" s="43"/>
+      <c r="BS15" s="43"/>
+      <c r="BT15" s="43"/>
+      <c r="BU15" s="43"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="43"/>
+      <c r="BX15" s="43"/>
+      <c r="BY15" s="43"/>
+      <c r="BZ15" s="43"/>
+      <c r="CA15" s="43"/>
+      <c r="CB15" s="43"/>
+      <c r="CC15" s="43"/>
+      <c r="CD15" s="43"/>
+      <c r="CE15" s="43"/>
+      <c r="CF15" s="43"/>
+      <c r="CG15" s="43"/>
+      <c r="CH15" s="43"/>
+      <c r="CI15" s="43"/>
+      <c r="CJ15" s="43"/>
+      <c r="CK15" s="43"/>
+      <c r="CL15" s="43"/>
+      <c r="CM15" s="43"/>
+      <c r="CN15" s="43"/>
+      <c r="CO15" s="43"/>
+      <c r="CP15" s="43"/>
+      <c r="CQ15" s="43"/>
+      <c r="CR15" s="43"/>
+      <c r="CS15" s="43"/>
+      <c r="CT15" s="43"/>
+      <c r="CU15" s="43"/>
+      <c r="CV15" s="43"/>
+      <c r="CW15" s="43"/>
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="43"/>
+      <c r="DB15" s="43"/>
+      <c r="DC15" s="43"/>
+      <c r="DD15" s="43"/>
+      <c r="DE15" s="43"/>
+      <c r="DF15" s="43"/>
+      <c r="DG15" s="43"/>
+      <c r="DH15" s="43"/>
+      <c r="DI15" s="43"/>
+      <c r="DJ15" s="43"/>
+      <c r="DK15" s="43"/>
+      <c r="DL15" s="43"/>
+      <c r="DM15" s="43"/>
+      <c r="DN15" s="43"/>
+      <c r="DO15" s="43"/>
+      <c r="DP15" s="43"/>
+      <c r="DQ15" s="43"/>
+      <c r="DR15" s="43"/>
+      <c r="DS15" s="43"/>
+      <c r="DT15" s="43"/>
+      <c r="DU15" s="43"/>
+      <c r="DV15" s="43"/>
+      <c r="DW15" s="43"/>
+      <c r="DX15" s="43"/>
+      <c r="DY15" s="43"/>
+      <c r="DZ15" s="43"/>
+      <c r="EA15" s="43"/>
+      <c r="EB15" s="43"/>
+      <c r="EC15" s="43"/>
+      <c r="ED15" s="43"/>
+      <c r="EE15" s="43"/>
+      <c r="EF15" s="43"/>
+      <c r="EG15" s="43"/>
+      <c r="EH15" s="43"/>
+      <c r="EI15" s="43"/>
+      <c r="EJ15" s="43"/>
+      <c r="EK15" s="43"/>
+      <c r="EL15" s="43"/>
+      <c r="EM15" s="43"/>
+      <c r="EN15" s="43"/>
+      <c r="EO15" s="43"/>
+      <c r="EP15" s="43"/>
+      <c r="EQ15" s="43"/>
+      <c r="ER15" s="43"/>
+      <c r="ES15" s="43"/>
+      <c r="ET15" s="43"/>
+      <c r="EU15" s="43"/>
+      <c r="EV15" s="43"/>
+      <c r="EW15" s="43"/>
+      <c r="EX15" s="43"/>
+      <c r="EY15" s="43"/>
+      <c r="EZ15" s="43"/>
+      <c r="FA15" s="43"/>
+      <c r="FB15" s="43"/>
+      <c r="FC15" s="43"/>
+      <c r="FD15" s="43"/>
+      <c r="FE15" s="43"/>
+      <c r="FF15" s="43"/>
+      <c r="FG15" s="43"/>
+      <c r="FH15" s="43"/>
+      <c r="FI15" s="43"/>
+      <c r="FJ15" s="43"/>
+      <c r="FK15" s="43"/>
+      <c r="FL15" s="43"/>
+      <c r="FM15" s="43"/>
+      <c r="FN15" s="43"/>
+      <c r="FO15" s="43"/>
+      <c r="FP15" s="43"/>
+      <c r="FQ15" s="43"/>
+      <c r="FR15" s="43"/>
+      <c r="FS15" s="43"/>
+      <c r="FT15" s="43"/>
+      <c r="FU15" s="43"/>
+      <c r="FV15" s="43"/>
+      <c r="FW15" s="43"/>
+      <c r="FX15" s="43"/>
+      <c r="FY15" s="43"/>
+      <c r="FZ15" s="43"/>
+      <c r="GA15" s="43"/>
+      <c r="GB15" s="43"/>
+      <c r="GC15" s="43"/>
+      <c r="GD15" s="43"/>
+      <c r="GE15" s="43"/>
+      <c r="GF15" s="43"/>
+      <c r="GG15" s="43"/>
+      <c r="GH15" s="43"/>
+      <c r="GI15" s="43"/>
+      <c r="GJ15" s="43"/>
+      <c r="GK15" s="43"/>
+      <c r="GL15" s="43"/>
+      <c r="GM15" s="43"/>
+      <c r="GN15" s="43"/>
+      <c r="GO15" s="43"/>
+      <c r="GP15" s="43"/>
+      <c r="GQ15" s="43"/>
+      <c r="GR15" s="43"/>
+      <c r="GS15" s="43"/>
+      <c r="GT15" s="43"/>
+      <c r="GU15" s="43"/>
+      <c r="GV15" s="43"/>
+      <c r="GW15" s="43"/>
+      <c r="GX15" s="43"/>
+      <c r="GY15" s="43"/>
+      <c r="GZ15" s="43"/>
+      <c r="HA15" s="43"/>
+      <c r="HB15" s="43"/>
+      <c r="HC15" s="43"/>
+      <c r="HD15" s="43"/>
+      <c r="HE15" s="43"/>
+      <c r="HF15" s="43"/>
+      <c r="HG15" s="43"/>
+      <c r="HH15" s="43"/>
+      <c r="HI15" s="43"/>
+      <c r="HJ15" s="43"/>
+      <c r="HK15" s="43"/>
+      <c r="HL15" s="43"/>
+      <c r="HM15" s="43"/>
+      <c r="HN15" s="43"/>
+      <c r="HO15" s="43"/>
+      <c r="HP15" s="43"/>
+      <c r="HQ15" s="43"/>
+      <c r="HR15" s="43"/>
+      <c r="HS15" s="43"/>
+      <c r="HT15" s="43"/>
+      <c r="HU15" s="43"/>
+      <c r="HV15" s="43"/>
+      <c r="HW15" s="43"/>
+      <c r="HX15" s="43"/>
+      <c r="HY15" s="43"/>
+      <c r="HZ15" s="43"/>
+      <c r="IA15" s="43"/>
+      <c r="IB15" s="43"/>
+      <c r="IC15" s="43"/>
+      <c r="ID15" s="43"/>
+      <c r="IE15" s="43"/>
+      <c r="IF15" s="43"/>
+      <c r="IG15" s="43"/>
+      <c r="IH15" s="43"/>
+      <c r="II15" s="43"/>
+      <c r="IJ15" s="43"/>
+      <c r="IK15" s="43"/>
+      <c r="IL15" s="43"/>
+      <c r="IM15" s="43"/>
+      <c r="IN15" s="43"/>
+      <c r="IO15" s="43"/>
+      <c r="IP15" s="43"/>
+      <c r="IQ15" s="43"/>
+      <c r="IR15" s="43"/>
+      <c r="IS15" s="43"/>
+      <c r="IT15" s="43"/>
+      <c r="IU15" s="43"/>
+    </row>
+    <row r="16" spans="1:255" ht="14" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:255" ht="14" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="43"/>
+      <c r="BA17" s="43"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="43"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="43"/>
+      <c r="BF17" s="43"/>
+      <c r="BG17" s="43"/>
+      <c r="BH17" s="43"/>
+      <c r="BI17" s="43"/>
+      <c r="BJ17" s="43"/>
+      <c r="BK17" s="43"/>
+      <c r="BL17" s="43"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="43"/>
+      <c r="BO17" s="43"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="43"/>
+      <c r="BR17" s="43"/>
+      <c r="BS17" s="43"/>
+      <c r="BT17" s="43"/>
+      <c r="BU17" s="43"/>
+      <c r="BV17" s="43"/>
+      <c r="BW17" s="43"/>
+      <c r="BX17" s="43"/>
+      <c r="BY17" s="43"/>
+      <c r="BZ17" s="43"/>
+      <c r="CA17" s="43"/>
+      <c r="CB17" s="43"/>
+      <c r="CC17" s="43"/>
+      <c r="CD17" s="43"/>
+      <c r="CE17" s="43"/>
+      <c r="CF17" s="43"/>
+      <c r="CG17" s="43"/>
+      <c r="CH17" s="43"/>
+      <c r="CI17" s="43"/>
+      <c r="CJ17" s="43"/>
+      <c r="CK17" s="43"/>
+      <c r="CL17" s="43"/>
+      <c r="CM17" s="43"/>
+      <c r="CN17" s="43"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="43"/>
+      <c r="CQ17" s="43"/>
+      <c r="CR17" s="43"/>
+      <c r="CS17" s="43"/>
+      <c r="CT17" s="43"/>
+      <c r="CU17" s="43"/>
+      <c r="CV17" s="43"/>
+      <c r="CW17" s="43"/>
+      <c r="CX17" s="43"/>
+      <c r="CY17" s="43"/>
+      <c r="CZ17" s="43"/>
+      <c r="DA17" s="43"/>
+      <c r="DB17" s="43"/>
+      <c r="DC17" s="43"/>
+      <c r="DD17" s="43"/>
+      <c r="DE17" s="43"/>
+      <c r="DF17" s="43"/>
+      <c r="DG17" s="43"/>
+      <c r="DH17" s="43"/>
+      <c r="DI17" s="43"/>
+      <c r="DJ17" s="43"/>
+      <c r="DK17" s="43"/>
+      <c r="DL17" s="43"/>
+      <c r="DM17" s="43"/>
+      <c r="DN17" s="43"/>
+      <c r="DO17" s="43"/>
+      <c r="DP17" s="43"/>
+      <c r="DQ17" s="43"/>
+      <c r="DR17" s="43"/>
+      <c r="DS17" s="43"/>
+      <c r="DT17" s="43"/>
+      <c r="DU17" s="43"/>
+      <c r="DV17" s="43"/>
+      <c r="DW17" s="43"/>
+      <c r="DX17" s="43"/>
+      <c r="DY17" s="43"/>
+      <c r="DZ17" s="43"/>
+      <c r="EA17" s="43"/>
+      <c r="EB17" s="43"/>
+      <c r="EC17" s="43"/>
+      <c r="ED17" s="43"/>
+      <c r="EE17" s="43"/>
+      <c r="EF17" s="43"/>
+      <c r="EG17" s="43"/>
+      <c r="EH17" s="43"/>
+      <c r="EI17" s="43"/>
+      <c r="EJ17" s="43"/>
+      <c r="EK17" s="43"/>
+      <c r="EL17" s="43"/>
+      <c r="EM17" s="43"/>
+      <c r="EN17" s="43"/>
+      <c r="EO17" s="43"/>
+      <c r="EP17" s="43"/>
+      <c r="EQ17" s="43"/>
+      <c r="ER17" s="43"/>
+      <c r="ES17" s="43"/>
+      <c r="ET17" s="43"/>
+      <c r="EU17" s="43"/>
+      <c r="EV17" s="43"/>
+      <c r="EW17" s="43"/>
+      <c r="EX17" s="43"/>
+      <c r="EY17" s="43"/>
+      <c r="EZ17" s="43"/>
+      <c r="FA17" s="43"/>
+      <c r="FB17" s="43"/>
+      <c r="FC17" s="43"/>
+      <c r="FD17" s="43"/>
+      <c r="FE17" s="43"/>
+      <c r="FF17" s="43"/>
+      <c r="FG17" s="43"/>
+      <c r="FH17" s="43"/>
+      <c r="FI17" s="43"/>
+      <c r="FJ17" s="43"/>
+      <c r="FK17" s="43"/>
+      <c r="FL17" s="43"/>
+      <c r="FM17" s="43"/>
+      <c r="FN17" s="43"/>
+      <c r="FO17" s="43"/>
+      <c r="FP17" s="43"/>
+      <c r="FQ17" s="43"/>
+      <c r="FR17" s="43"/>
+      <c r="FS17" s="43"/>
+      <c r="FT17" s="43"/>
+      <c r="FU17" s="43"/>
+      <c r="FV17" s="43"/>
+      <c r="FW17" s="43"/>
+      <c r="FX17" s="43"/>
+      <c r="FY17" s="43"/>
+      <c r="FZ17" s="43"/>
+      <c r="GA17" s="43"/>
+      <c r="GB17" s="43"/>
+      <c r="GC17" s="43"/>
+      <c r="GD17" s="43"/>
+      <c r="GE17" s="43"/>
+      <c r="GF17" s="43"/>
+      <c r="GG17" s="43"/>
+      <c r="GH17" s="43"/>
+      <c r="GI17" s="43"/>
+      <c r="GJ17" s="43"/>
+      <c r="GK17" s="43"/>
+      <c r="GL17" s="43"/>
+      <c r="GM17" s="43"/>
+      <c r="GN17" s="43"/>
+      <c r="GO17" s="43"/>
+      <c r="GP17" s="43"/>
+      <c r="GQ17" s="43"/>
+      <c r="GR17" s="43"/>
+      <c r="GS17" s="43"/>
+      <c r="GT17" s="43"/>
+      <c r="GU17" s="43"/>
+      <c r="GV17" s="43"/>
+      <c r="GW17" s="43"/>
+      <c r="GX17" s="43"/>
+      <c r="GY17" s="43"/>
+      <c r="GZ17" s="43"/>
+      <c r="HA17" s="43"/>
+      <c r="HB17" s="43"/>
+      <c r="HC17" s="43"/>
+      <c r="HD17" s="43"/>
+      <c r="HE17" s="43"/>
+      <c r="HF17" s="43"/>
+      <c r="HG17" s="43"/>
+      <c r="HH17" s="43"/>
+      <c r="HI17" s="43"/>
+      <c r="HJ17" s="43"/>
+      <c r="HK17" s="43"/>
+      <c r="HL17" s="43"/>
+      <c r="HM17" s="43"/>
+      <c r="HN17" s="43"/>
+      <c r="HO17" s="43"/>
+      <c r="HP17" s="43"/>
+      <c r="HQ17" s="43"/>
+      <c r="HR17" s="43"/>
+      <c r="HS17" s="43"/>
+      <c r="HT17" s="43"/>
+      <c r="HU17" s="43"/>
+      <c r="HV17" s="43"/>
+      <c r="HW17" s="43"/>
+      <c r="HX17" s="43"/>
+      <c r="HY17" s="43"/>
+      <c r="HZ17" s="43"/>
+      <c r="IA17" s="43"/>
+      <c r="IB17" s="43"/>
+      <c r="IC17" s="43"/>
+      <c r="ID17" s="43"/>
+      <c r="IE17" s="43"/>
+      <c r="IF17" s="43"/>
+      <c r="IG17" s="43"/>
+      <c r="IH17" s="43"/>
+      <c r="II17" s="43"/>
+      <c r="IJ17" s="43"/>
+      <c r="IK17" s="43"/>
+      <c r="IL17" s="43"/>
+      <c r="IM17" s="43"/>
+      <c r="IN17" s="43"/>
+      <c r="IO17" s="43"/>
+      <c r="IP17" s="43"/>
+      <c r="IQ17" s="43"/>
+      <c r="IR17" s="43"/>
+      <c r="IS17" s="43"/>
+      <c r="IT17" s="43"/>
+      <c r="IU17" s="43"/>
+    </row>
+    <row r="18" spans="1:255" ht="14" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="36">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5600,22 +6729,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>26</v>
@@ -5627,24 +6756,24 @@
         <v>28</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.5" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -5665,10 +6794,10 @@
     <row r="3" spans="1:12" ht="14.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>10</v>
@@ -5689,10 +6818,10 @@
     <row r="4" spans="1:12" ht="14.5" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>10</v>
@@ -5713,10 +6842,10 @@
     <row r="5" spans="1:12" ht="14.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="38" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>10</v>
@@ -5737,10 +6866,10 @@
     <row r="6" spans="1:12" ht="14.5" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="38" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -5761,7 +6890,7 @@
     <row r="7" spans="1:12" ht="14.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="38" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>88</v>
@@ -5781,10 +6910,10 @@
     <row r="8" spans="1:12" ht="14.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="38" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12" t="s">
@@ -5792,11 +6921,11 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -5805,14 +6934,14 @@
     <row r="9" spans="1:12" ht="14.5" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="38" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="12" t="s">
@@ -5829,10 +6958,10 @@
     <row r="10" spans="1:12" ht="14.5" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12"/>
@@ -5840,7 +6969,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="14"/>
       <c r="I10" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -5848,10 +6977,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>88</v>
@@ -5871,10 +7000,10 @@
     <row r="12" spans="1:12" ht="14.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
@@ -5895,10 +7024,10 @@
     <row r="13" spans="1:12" ht="14.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>16</v>
@@ -5919,10 +7048,10 @@
     <row r="14" spans="1:12" ht="14.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="38" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>16</v>
@@ -5932,7 +7061,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
@@ -5945,10 +7074,10 @@
     <row r="15" spans="1:12" ht="14.5" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="38" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>16</v>
@@ -5969,10 +7098,10 @@
     <row r="16" spans="1:12" ht="14.5" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="38" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>16</v>
@@ -5982,7 +7111,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -6180,27 +7309,27 @@
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
@@ -6209,27 +7338,27 @@
         <v>29</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -6238,222 +7367,222 @@
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>209</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B6" s="36">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B7" s="36">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B8" s="36">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B9" s="36">
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="20" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B10" s="36">
         <v>1</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>209</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="20" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B11" s="36">
         <v>1</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="20" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B12" s="36">
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="20" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B13" s="36">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B14" s="36">
         <v>1</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="操作说明" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="290">
   <si>
     <t>操作说明</t>
   </si>
@@ -1164,6 +1164,34 @@
   </si>
   <si>
     <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1388,8 +1416,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1915,7 +1991,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="143">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1979,6 +2055,14 @@
     <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2042,6 +2126,14 @@
     <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3794,7 +3886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5304,10 +5396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU18"/>
+  <dimension ref="A1:IU20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -5919,7 +6011,7 @@
         <v>230</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:255" ht="14" customHeight="1">
@@ -6690,6 +6782,50 @@
       <c r="G18" s="20"/>
       <c r="H18" s="36"/>
     </row>
+    <row r="19" spans="1:255" ht="14" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:255" ht="14" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="36">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="操作说明" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="267">
   <si>
     <t>操作说明</t>
   </si>
@@ -807,6 +807,74 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>值得买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本活动的最终解释权归平安科技所有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信用卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试算一下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>PA01100000000_02_PAZB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -815,7 +883,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>值得买</t>
+    <t>PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -823,35 +922,67 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>assertTrue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPluginList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_getPluginList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_loginByH5_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_loginByH5_1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言等待文本显示（我的订单）</t>
+    <t>检查插件:PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登 录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByHost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByLow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginNoyztByHost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待文本显示（我的订单）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -859,183 +990,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_CheckPlugin_1001</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1002</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1004</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1005</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1006</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1007</t>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1008</t>
-  </si>
-  <si>
-    <t>PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本活动的最终解释权归平安科技所有</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用积分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的信用卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元GO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试算一下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_CheckPlugin_1009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录_1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取插件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02500000000_02_TZLC</t>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟等待</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言页面文字消失（18602753065）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1043,59 +1026,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>登 录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByHost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByLow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginNoyztByHost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待文本显示（我的订单）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟等待</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言页面文字消失（18602753065）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点开插件</t>
+    <t>检查插件:PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭插件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1103,26 +1042,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CaseSuite（案例）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1188,10 +1107,6 @@
   </si>
   <si>
     <t>产品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1416,8 +1331,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1991,7 +1918,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="147">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2063,6 +1990,8 @@
     <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2134,6 +2063,8 @@
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3616,10 +3547,10 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="18" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -3849,20 +3780,20 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="26" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -3886,7 +3817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3922,10 +3853,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
@@ -3972,14 +3903,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="30" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="30"/>
@@ -4078,7 +4009,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B10" s="31">
         <v>1</v>
@@ -4115,7 +4046,7 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" customHeight="1">
@@ -4198,10 +4129,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -4742,7 +4673,7 @@
     </row>
     <row r="19" spans="1:256" ht="14.5" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B19" s="31">
         <v>1</v>
@@ -4855,7 +4786,7 @@
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:256" ht="14.5" customHeight="1">
@@ -4900,7 +4831,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>94</v>
@@ -4918,7 +4849,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>120</v>
@@ -4926,7 +4857,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="49" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>121</v>
@@ -4934,7 +4865,7 @@
     </row>
     <row r="29" spans="1:256" ht="14.5" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B29" s="31">
         <v>1</v>
@@ -5071,7 +5002,7 @@
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.5" customHeight="1">
@@ -5172,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>91</v>
@@ -5188,7 +5119,7 @@
     </row>
     <row r="42" spans="1:8" ht="14.5" customHeight="1">
       <c r="A42" s="32" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B42" s="31">
         <v>1</v>
@@ -5372,7 +5303,7 @@
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="30" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H51" s="30" t="s">
         <v>121</v>
@@ -5396,10 +5327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU20"/>
+  <dimension ref="A1:IU4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -5417,22 +5348,22 @@
   <sheetData>
     <row r="1" spans="1:255" ht="28" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>85</v>
@@ -5443,7 +5374,7 @@
     </row>
     <row r="2" spans="1:255" ht="14.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
@@ -5709,7 +5640,7 @@
     </row>
     <row r="3" spans="1:255" ht="14.5" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
@@ -5729,16 +5660,16 @@
     </row>
     <row r="4" spans="1:255" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -5992,840 +5923,6 @@
       <c r="IT4" s="43"/>
       <c r="IU4" s="43"/>
     </row>
-    <row r="5" spans="1:255" ht="14" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="36">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:255" ht="14" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="36">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:255" ht="14" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="36">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:255" ht="14" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="36">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:255" ht="14" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="36">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:255" ht="14" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="36">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:255" ht="14" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11" s="36">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:255" ht="14" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="36">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:255" ht="14" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="36">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:255" ht="14" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="36">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:255" ht="14" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="36">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="43"/>
-      <c r="AJ15" s="43"/>
-      <c r="AK15" s="43"/>
-      <c r="AL15" s="43"/>
-      <c r="AM15" s="43"/>
-      <c r="AN15" s="43"/>
-      <c r="AO15" s="43"/>
-      <c r="AP15" s="43"/>
-      <c r="AQ15" s="43"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="43"/>
-      <c r="AT15" s="43"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="43"/>
-      <c r="AW15" s="43"/>
-      <c r="AX15" s="43"/>
-      <c r="AY15" s="43"/>
-      <c r="AZ15" s="43"/>
-      <c r="BA15" s="43"/>
-      <c r="BB15" s="43"/>
-      <c r="BC15" s="43"/>
-      <c r="BD15" s="43"/>
-      <c r="BE15" s="43"/>
-      <c r="BF15" s="43"/>
-      <c r="BG15" s="43"/>
-      <c r="BH15" s="43"/>
-      <c r="BI15" s="43"/>
-      <c r="BJ15" s="43"/>
-      <c r="BK15" s="43"/>
-      <c r="BL15" s="43"/>
-      <c r="BM15" s="43"/>
-      <c r="BN15" s="43"/>
-      <c r="BO15" s="43"/>
-      <c r="BP15" s="43"/>
-      <c r="BQ15" s="43"/>
-      <c r="BR15" s="43"/>
-      <c r="BS15" s="43"/>
-      <c r="BT15" s="43"/>
-      <c r="BU15" s="43"/>
-      <c r="BV15" s="43"/>
-      <c r="BW15" s="43"/>
-      <c r="BX15" s="43"/>
-      <c r="BY15" s="43"/>
-      <c r="BZ15" s="43"/>
-      <c r="CA15" s="43"/>
-      <c r="CB15" s="43"/>
-      <c r="CC15" s="43"/>
-      <c r="CD15" s="43"/>
-      <c r="CE15" s="43"/>
-      <c r="CF15" s="43"/>
-      <c r="CG15" s="43"/>
-      <c r="CH15" s="43"/>
-      <c r="CI15" s="43"/>
-      <c r="CJ15" s="43"/>
-      <c r="CK15" s="43"/>
-      <c r="CL15" s="43"/>
-      <c r="CM15" s="43"/>
-      <c r="CN15" s="43"/>
-      <c r="CO15" s="43"/>
-      <c r="CP15" s="43"/>
-      <c r="CQ15" s="43"/>
-      <c r="CR15" s="43"/>
-      <c r="CS15" s="43"/>
-      <c r="CT15" s="43"/>
-      <c r="CU15" s="43"/>
-      <c r="CV15" s="43"/>
-      <c r="CW15" s="43"/>
-      <c r="CX15" s="43"/>
-      <c r="CY15" s="43"/>
-      <c r="CZ15" s="43"/>
-      <c r="DA15" s="43"/>
-      <c r="DB15" s="43"/>
-      <c r="DC15" s="43"/>
-      <c r="DD15" s="43"/>
-      <c r="DE15" s="43"/>
-      <c r="DF15" s="43"/>
-      <c r="DG15" s="43"/>
-      <c r="DH15" s="43"/>
-      <c r="DI15" s="43"/>
-      <c r="DJ15" s="43"/>
-      <c r="DK15" s="43"/>
-      <c r="DL15" s="43"/>
-      <c r="DM15" s="43"/>
-      <c r="DN15" s="43"/>
-      <c r="DO15" s="43"/>
-      <c r="DP15" s="43"/>
-      <c r="DQ15" s="43"/>
-      <c r="DR15" s="43"/>
-      <c r="DS15" s="43"/>
-      <c r="DT15" s="43"/>
-      <c r="DU15" s="43"/>
-      <c r="DV15" s="43"/>
-      <c r="DW15" s="43"/>
-      <c r="DX15" s="43"/>
-      <c r="DY15" s="43"/>
-      <c r="DZ15" s="43"/>
-      <c r="EA15" s="43"/>
-      <c r="EB15" s="43"/>
-      <c r="EC15" s="43"/>
-      <c r="ED15" s="43"/>
-      <c r="EE15" s="43"/>
-      <c r="EF15" s="43"/>
-      <c r="EG15" s="43"/>
-      <c r="EH15" s="43"/>
-      <c r="EI15" s="43"/>
-      <c r="EJ15" s="43"/>
-      <c r="EK15" s="43"/>
-      <c r="EL15" s="43"/>
-      <c r="EM15" s="43"/>
-      <c r="EN15" s="43"/>
-      <c r="EO15" s="43"/>
-      <c r="EP15" s="43"/>
-      <c r="EQ15" s="43"/>
-      <c r="ER15" s="43"/>
-      <c r="ES15" s="43"/>
-      <c r="ET15" s="43"/>
-      <c r="EU15" s="43"/>
-      <c r="EV15" s="43"/>
-      <c r="EW15" s="43"/>
-      <c r="EX15" s="43"/>
-      <c r="EY15" s="43"/>
-      <c r="EZ15" s="43"/>
-      <c r="FA15" s="43"/>
-      <c r="FB15" s="43"/>
-      <c r="FC15" s="43"/>
-      <c r="FD15" s="43"/>
-      <c r="FE15" s="43"/>
-      <c r="FF15" s="43"/>
-      <c r="FG15" s="43"/>
-      <c r="FH15" s="43"/>
-      <c r="FI15" s="43"/>
-      <c r="FJ15" s="43"/>
-      <c r="FK15" s="43"/>
-      <c r="FL15" s="43"/>
-      <c r="FM15" s="43"/>
-      <c r="FN15" s="43"/>
-      <c r="FO15" s="43"/>
-      <c r="FP15" s="43"/>
-      <c r="FQ15" s="43"/>
-      <c r="FR15" s="43"/>
-      <c r="FS15" s="43"/>
-      <c r="FT15" s="43"/>
-      <c r="FU15" s="43"/>
-      <c r="FV15" s="43"/>
-      <c r="FW15" s="43"/>
-      <c r="FX15" s="43"/>
-      <c r="FY15" s="43"/>
-      <c r="FZ15" s="43"/>
-      <c r="GA15" s="43"/>
-      <c r="GB15" s="43"/>
-      <c r="GC15" s="43"/>
-      <c r="GD15" s="43"/>
-      <c r="GE15" s="43"/>
-      <c r="GF15" s="43"/>
-      <c r="GG15" s="43"/>
-      <c r="GH15" s="43"/>
-      <c r="GI15" s="43"/>
-      <c r="GJ15" s="43"/>
-      <c r="GK15" s="43"/>
-      <c r="GL15" s="43"/>
-      <c r="GM15" s="43"/>
-      <c r="GN15" s="43"/>
-      <c r="GO15" s="43"/>
-      <c r="GP15" s="43"/>
-      <c r="GQ15" s="43"/>
-      <c r="GR15" s="43"/>
-      <c r="GS15" s="43"/>
-      <c r="GT15" s="43"/>
-      <c r="GU15" s="43"/>
-      <c r="GV15" s="43"/>
-      <c r="GW15" s="43"/>
-      <c r="GX15" s="43"/>
-      <c r="GY15" s="43"/>
-      <c r="GZ15" s="43"/>
-      <c r="HA15" s="43"/>
-      <c r="HB15" s="43"/>
-      <c r="HC15" s="43"/>
-      <c r="HD15" s="43"/>
-      <c r="HE15" s="43"/>
-      <c r="HF15" s="43"/>
-      <c r="HG15" s="43"/>
-      <c r="HH15" s="43"/>
-      <c r="HI15" s="43"/>
-      <c r="HJ15" s="43"/>
-      <c r="HK15" s="43"/>
-      <c r="HL15" s="43"/>
-      <c r="HM15" s="43"/>
-      <c r="HN15" s="43"/>
-      <c r="HO15" s="43"/>
-      <c r="HP15" s="43"/>
-      <c r="HQ15" s="43"/>
-      <c r="HR15" s="43"/>
-      <c r="HS15" s="43"/>
-      <c r="HT15" s="43"/>
-      <c r="HU15" s="43"/>
-      <c r="HV15" s="43"/>
-      <c r="HW15" s="43"/>
-      <c r="HX15" s="43"/>
-      <c r="HY15" s="43"/>
-      <c r="HZ15" s="43"/>
-      <c r="IA15" s="43"/>
-      <c r="IB15" s="43"/>
-      <c r="IC15" s="43"/>
-      <c r="ID15" s="43"/>
-      <c r="IE15" s="43"/>
-      <c r="IF15" s="43"/>
-      <c r="IG15" s="43"/>
-      <c r="IH15" s="43"/>
-      <c r="II15" s="43"/>
-      <c r="IJ15" s="43"/>
-      <c r="IK15" s="43"/>
-      <c r="IL15" s="43"/>
-      <c r="IM15" s="43"/>
-      <c r="IN15" s="43"/>
-      <c r="IO15" s="43"/>
-      <c r="IP15" s="43"/>
-      <c r="IQ15" s="43"/>
-      <c r="IR15" s="43"/>
-      <c r="IS15" s="43"/>
-      <c r="IT15" s="43"/>
-      <c r="IU15" s="43"/>
-    </row>
-    <row r="16" spans="1:255" ht="14" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="36">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:255" ht="14" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="36">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="43"/>
-      <c r="AJ17" s="43"/>
-      <c r="AK17" s="43"/>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="43"/>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="43"/>
-      <c r="AT17" s="43"/>
-      <c r="AU17" s="43"/>
-      <c r="AV17" s="43"/>
-      <c r="AW17" s="43"/>
-      <c r="AX17" s="43"/>
-      <c r="AY17" s="43"/>
-      <c r="AZ17" s="43"/>
-      <c r="BA17" s="43"/>
-      <c r="BB17" s="43"/>
-      <c r="BC17" s="43"/>
-      <c r="BD17" s="43"/>
-      <c r="BE17" s="43"/>
-      <c r="BF17" s="43"/>
-      <c r="BG17" s="43"/>
-      <c r="BH17" s="43"/>
-      <c r="BI17" s="43"/>
-      <c r="BJ17" s="43"/>
-      <c r="BK17" s="43"/>
-      <c r="BL17" s="43"/>
-      <c r="BM17" s="43"/>
-      <c r="BN17" s="43"/>
-      <c r="BO17" s="43"/>
-      <c r="BP17" s="43"/>
-      <c r="BQ17" s="43"/>
-      <c r="BR17" s="43"/>
-      <c r="BS17" s="43"/>
-      <c r="BT17" s="43"/>
-      <c r="BU17" s="43"/>
-      <c r="BV17" s="43"/>
-      <c r="BW17" s="43"/>
-      <c r="BX17" s="43"/>
-      <c r="BY17" s="43"/>
-      <c r="BZ17" s="43"/>
-      <c r="CA17" s="43"/>
-      <c r="CB17" s="43"/>
-      <c r="CC17" s="43"/>
-      <c r="CD17" s="43"/>
-      <c r="CE17" s="43"/>
-      <c r="CF17" s="43"/>
-      <c r="CG17" s="43"/>
-      <c r="CH17" s="43"/>
-      <c r="CI17" s="43"/>
-      <c r="CJ17" s="43"/>
-      <c r="CK17" s="43"/>
-      <c r="CL17" s="43"/>
-      <c r="CM17" s="43"/>
-      <c r="CN17" s="43"/>
-      <c r="CO17" s="43"/>
-      <c r="CP17" s="43"/>
-      <c r="CQ17" s="43"/>
-      <c r="CR17" s="43"/>
-      <c r="CS17" s="43"/>
-      <c r="CT17" s="43"/>
-      <c r="CU17" s="43"/>
-      <c r="CV17" s="43"/>
-      <c r="CW17" s="43"/>
-      <c r="CX17" s="43"/>
-      <c r="CY17" s="43"/>
-      <c r="CZ17" s="43"/>
-      <c r="DA17" s="43"/>
-      <c r="DB17" s="43"/>
-      <c r="DC17" s="43"/>
-      <c r="DD17" s="43"/>
-      <c r="DE17" s="43"/>
-      <c r="DF17" s="43"/>
-      <c r="DG17" s="43"/>
-      <c r="DH17" s="43"/>
-      <c r="DI17" s="43"/>
-      <c r="DJ17" s="43"/>
-      <c r="DK17" s="43"/>
-      <c r="DL17" s="43"/>
-      <c r="DM17" s="43"/>
-      <c r="DN17" s="43"/>
-      <c r="DO17" s="43"/>
-      <c r="DP17" s="43"/>
-      <c r="DQ17" s="43"/>
-      <c r="DR17" s="43"/>
-      <c r="DS17" s="43"/>
-      <c r="DT17" s="43"/>
-      <c r="DU17" s="43"/>
-      <c r="DV17" s="43"/>
-      <c r="DW17" s="43"/>
-      <c r="DX17" s="43"/>
-      <c r="DY17" s="43"/>
-      <c r="DZ17" s="43"/>
-      <c r="EA17" s="43"/>
-      <c r="EB17" s="43"/>
-      <c r="EC17" s="43"/>
-      <c r="ED17" s="43"/>
-      <c r="EE17" s="43"/>
-      <c r="EF17" s="43"/>
-      <c r="EG17" s="43"/>
-      <c r="EH17" s="43"/>
-      <c r="EI17" s="43"/>
-      <c r="EJ17" s="43"/>
-      <c r="EK17" s="43"/>
-      <c r="EL17" s="43"/>
-      <c r="EM17" s="43"/>
-      <c r="EN17" s="43"/>
-      <c r="EO17" s="43"/>
-      <c r="EP17" s="43"/>
-      <c r="EQ17" s="43"/>
-      <c r="ER17" s="43"/>
-      <c r="ES17" s="43"/>
-      <c r="ET17" s="43"/>
-      <c r="EU17" s="43"/>
-      <c r="EV17" s="43"/>
-      <c r="EW17" s="43"/>
-      <c r="EX17" s="43"/>
-      <c r="EY17" s="43"/>
-      <c r="EZ17" s="43"/>
-      <c r="FA17" s="43"/>
-      <c r="FB17" s="43"/>
-      <c r="FC17" s="43"/>
-      <c r="FD17" s="43"/>
-      <c r="FE17" s="43"/>
-      <c r="FF17" s="43"/>
-      <c r="FG17" s="43"/>
-      <c r="FH17" s="43"/>
-      <c r="FI17" s="43"/>
-      <c r="FJ17" s="43"/>
-      <c r="FK17" s="43"/>
-      <c r="FL17" s="43"/>
-      <c r="FM17" s="43"/>
-      <c r="FN17" s="43"/>
-      <c r="FO17" s="43"/>
-      <c r="FP17" s="43"/>
-      <c r="FQ17" s="43"/>
-      <c r="FR17" s="43"/>
-      <c r="FS17" s="43"/>
-      <c r="FT17" s="43"/>
-      <c r="FU17" s="43"/>
-      <c r="FV17" s="43"/>
-      <c r="FW17" s="43"/>
-      <c r="FX17" s="43"/>
-      <c r="FY17" s="43"/>
-      <c r="FZ17" s="43"/>
-      <c r="GA17" s="43"/>
-      <c r="GB17" s="43"/>
-      <c r="GC17" s="43"/>
-      <c r="GD17" s="43"/>
-      <c r="GE17" s="43"/>
-      <c r="GF17" s="43"/>
-      <c r="GG17" s="43"/>
-      <c r="GH17" s="43"/>
-      <c r="GI17" s="43"/>
-      <c r="GJ17" s="43"/>
-      <c r="GK17" s="43"/>
-      <c r="GL17" s="43"/>
-      <c r="GM17" s="43"/>
-      <c r="GN17" s="43"/>
-      <c r="GO17" s="43"/>
-      <c r="GP17" s="43"/>
-      <c r="GQ17" s="43"/>
-      <c r="GR17" s="43"/>
-      <c r="GS17" s="43"/>
-      <c r="GT17" s="43"/>
-      <c r="GU17" s="43"/>
-      <c r="GV17" s="43"/>
-      <c r="GW17" s="43"/>
-      <c r="GX17" s="43"/>
-      <c r="GY17" s="43"/>
-      <c r="GZ17" s="43"/>
-      <c r="HA17" s="43"/>
-      <c r="HB17" s="43"/>
-      <c r="HC17" s="43"/>
-      <c r="HD17" s="43"/>
-      <c r="HE17" s="43"/>
-      <c r="HF17" s="43"/>
-      <c r="HG17" s="43"/>
-      <c r="HH17" s="43"/>
-      <c r="HI17" s="43"/>
-      <c r="HJ17" s="43"/>
-      <c r="HK17" s="43"/>
-      <c r="HL17" s="43"/>
-      <c r="HM17" s="43"/>
-      <c r="HN17" s="43"/>
-      <c r="HO17" s="43"/>
-      <c r="HP17" s="43"/>
-      <c r="HQ17" s="43"/>
-      <c r="HR17" s="43"/>
-      <c r="HS17" s="43"/>
-      <c r="HT17" s="43"/>
-      <c r="HU17" s="43"/>
-      <c r="HV17" s="43"/>
-      <c r="HW17" s="43"/>
-      <c r="HX17" s="43"/>
-      <c r="HY17" s="43"/>
-      <c r="HZ17" s="43"/>
-      <c r="IA17" s="43"/>
-      <c r="IB17" s="43"/>
-      <c r="IC17" s="43"/>
-      <c r="ID17" s="43"/>
-      <c r="IE17" s="43"/>
-      <c r="IF17" s="43"/>
-      <c r="IG17" s="43"/>
-      <c r="IH17" s="43"/>
-      <c r="II17" s="43"/>
-      <c r="IJ17" s="43"/>
-      <c r="IK17" s="43"/>
-      <c r="IL17" s="43"/>
-      <c r="IM17" s="43"/>
-      <c r="IN17" s="43"/>
-      <c r="IO17" s="43"/>
-      <c r="IP17" s="43"/>
-      <c r="IQ17" s="43"/>
-      <c r="IR17" s="43"/>
-      <c r="IS17" s="43"/>
-      <c r="IT17" s="43"/>
-      <c r="IU17" s="43"/>
-    </row>
-    <row r="18" spans="1:255" ht="14" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="36">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:255" ht="14" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="36">
-        <v>1</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:255" ht="14" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="36">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>287</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7398,10 +6495,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU14"/>
+  <dimension ref="A1:IU20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -7419,22 +6516,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>85</v>
@@ -7445,7 +6542,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
@@ -7458,14 +6555,13 @@
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
       <c r="H2" s="18" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
@@ -7485,16 +6581,16 @@
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -7503,7 +6599,7 @@
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
@@ -7512,12 +6608,12 @@
         <v>189</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="20" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>190</v>
@@ -7525,7 +6621,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B6" s="36">
         <v>1</v>
@@ -7534,20 +6630,20 @@
         <v>189</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="20" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B7" s="36">
         <v>1</v>
@@ -7556,20 +6652,20 @@
         <v>189</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>211</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="36">
         <v>1</v>
@@ -7578,20 +6674,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B9" s="36">
         <v>1</v>
@@ -7600,20 +6696,20 @@
         <v>189</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B10" s="36">
         <v>1</v>
@@ -7622,20 +6718,20 @@
         <v>189</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B11" s="36">
         <v>1</v>
@@ -7644,20 +6740,20 @@
         <v>189</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B12" s="36">
         <v>1</v>
@@ -7666,20 +6762,20 @@
         <v>189</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B13" s="36">
         <v>1</v>
@@ -7688,20 +6784,20 @@
         <v>189</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B14" s="36">
         <v>1</v>
@@ -7710,15 +6806,135 @@
         <v>189</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>225</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="36">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="14" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="14" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" ht="14" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="36">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="14" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="36">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="操作说明" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="268">
   <si>
     <t>操作说明</t>
   </si>
@@ -1107,6 +1107,10 @@
   </si>
   <si>
     <t>产品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即领取</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1331,8 +1335,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1918,7 +1964,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="161">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1992,6 +2038,13 @@
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2065,6 +2118,13 @@
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5327,10 +5387,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU4"/>
+  <dimension ref="A1:IU8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -5923,6 +5983,341 @@
       <c r="IT4" s="43"/>
       <c r="IU4" s="43"/>
     </row>
+    <row r="5" spans="1:255" ht="14" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="43"/>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="43"/>
+      <c r="BX5" s="43"/>
+      <c r="BY5" s="43"/>
+      <c r="BZ5" s="43"/>
+      <c r="CA5" s="43"/>
+      <c r="CB5" s="43"/>
+      <c r="CC5" s="43"/>
+      <c r="CD5" s="43"/>
+      <c r="CE5" s="43"/>
+      <c r="CF5" s="43"/>
+      <c r="CG5" s="43"/>
+      <c r="CH5" s="43"/>
+      <c r="CI5" s="43"/>
+      <c r="CJ5" s="43"/>
+      <c r="CK5" s="43"/>
+      <c r="CL5" s="43"/>
+      <c r="CM5" s="43"/>
+      <c r="CN5" s="43"/>
+      <c r="CO5" s="43"/>
+      <c r="CP5" s="43"/>
+      <c r="CQ5" s="43"/>
+      <c r="CR5" s="43"/>
+      <c r="CS5" s="43"/>
+      <c r="CT5" s="43"/>
+      <c r="CU5" s="43"/>
+      <c r="CV5" s="43"/>
+      <c r="CW5" s="43"/>
+      <c r="CX5" s="43"/>
+      <c r="CY5" s="43"/>
+      <c r="CZ5" s="43"/>
+      <c r="DA5" s="43"/>
+      <c r="DB5" s="43"/>
+      <c r="DC5" s="43"/>
+      <c r="DD5" s="43"/>
+      <c r="DE5" s="43"/>
+      <c r="DF5" s="43"/>
+      <c r="DG5" s="43"/>
+      <c r="DH5" s="43"/>
+      <c r="DI5" s="43"/>
+      <c r="DJ5" s="43"/>
+      <c r="DK5" s="43"/>
+      <c r="DL5" s="43"/>
+      <c r="DM5" s="43"/>
+      <c r="DN5" s="43"/>
+      <c r="DO5" s="43"/>
+      <c r="DP5" s="43"/>
+      <c r="DQ5" s="43"/>
+      <c r="DR5" s="43"/>
+      <c r="DS5" s="43"/>
+      <c r="DT5" s="43"/>
+      <c r="DU5" s="43"/>
+      <c r="DV5" s="43"/>
+      <c r="DW5" s="43"/>
+      <c r="DX5" s="43"/>
+      <c r="DY5" s="43"/>
+      <c r="DZ5" s="43"/>
+      <c r="EA5" s="43"/>
+      <c r="EB5" s="43"/>
+      <c r="EC5" s="43"/>
+      <c r="ED5" s="43"/>
+      <c r="EE5" s="43"/>
+      <c r="EF5" s="43"/>
+      <c r="EG5" s="43"/>
+      <c r="EH5" s="43"/>
+      <c r="EI5" s="43"/>
+      <c r="EJ5" s="43"/>
+      <c r="EK5" s="43"/>
+      <c r="EL5" s="43"/>
+      <c r="EM5" s="43"/>
+      <c r="EN5" s="43"/>
+      <c r="EO5" s="43"/>
+      <c r="EP5" s="43"/>
+      <c r="EQ5" s="43"/>
+      <c r="ER5" s="43"/>
+      <c r="ES5" s="43"/>
+      <c r="ET5" s="43"/>
+      <c r="EU5" s="43"/>
+      <c r="EV5" s="43"/>
+      <c r="EW5" s="43"/>
+      <c r="EX5" s="43"/>
+      <c r="EY5" s="43"/>
+      <c r="EZ5" s="43"/>
+      <c r="FA5" s="43"/>
+      <c r="FB5" s="43"/>
+      <c r="FC5" s="43"/>
+      <c r="FD5" s="43"/>
+      <c r="FE5" s="43"/>
+      <c r="FF5" s="43"/>
+      <c r="FG5" s="43"/>
+      <c r="FH5" s="43"/>
+      <c r="FI5" s="43"/>
+      <c r="FJ5" s="43"/>
+      <c r="FK5" s="43"/>
+      <c r="FL5" s="43"/>
+      <c r="FM5" s="43"/>
+      <c r="FN5" s="43"/>
+      <c r="FO5" s="43"/>
+      <c r="FP5" s="43"/>
+      <c r="FQ5" s="43"/>
+      <c r="FR5" s="43"/>
+      <c r="FS5" s="43"/>
+      <c r="FT5" s="43"/>
+      <c r="FU5" s="43"/>
+      <c r="FV5" s="43"/>
+      <c r="FW5" s="43"/>
+      <c r="FX5" s="43"/>
+      <c r="FY5" s="43"/>
+      <c r="FZ5" s="43"/>
+      <c r="GA5" s="43"/>
+      <c r="GB5" s="43"/>
+      <c r="GC5" s="43"/>
+      <c r="GD5" s="43"/>
+      <c r="GE5" s="43"/>
+      <c r="GF5" s="43"/>
+      <c r="GG5" s="43"/>
+      <c r="GH5" s="43"/>
+      <c r="GI5" s="43"/>
+      <c r="GJ5" s="43"/>
+      <c r="GK5" s="43"/>
+      <c r="GL5" s="43"/>
+      <c r="GM5" s="43"/>
+      <c r="GN5" s="43"/>
+      <c r="GO5" s="43"/>
+      <c r="GP5" s="43"/>
+      <c r="GQ5" s="43"/>
+      <c r="GR5" s="43"/>
+      <c r="GS5" s="43"/>
+      <c r="GT5" s="43"/>
+      <c r="GU5" s="43"/>
+      <c r="GV5" s="43"/>
+      <c r="GW5" s="43"/>
+      <c r="GX5" s="43"/>
+      <c r="GY5" s="43"/>
+      <c r="GZ5" s="43"/>
+      <c r="HA5" s="43"/>
+      <c r="HB5" s="43"/>
+      <c r="HC5" s="43"/>
+      <c r="HD5" s="43"/>
+      <c r="HE5" s="43"/>
+      <c r="HF5" s="43"/>
+      <c r="HG5" s="43"/>
+      <c r="HH5" s="43"/>
+      <c r="HI5" s="43"/>
+      <c r="HJ5" s="43"/>
+      <c r="HK5" s="43"/>
+      <c r="HL5" s="43"/>
+      <c r="HM5" s="43"/>
+      <c r="HN5" s="43"/>
+      <c r="HO5" s="43"/>
+      <c r="HP5" s="43"/>
+      <c r="HQ5" s="43"/>
+      <c r="HR5" s="43"/>
+      <c r="HS5" s="43"/>
+      <c r="HT5" s="43"/>
+      <c r="HU5" s="43"/>
+      <c r="HV5" s="43"/>
+      <c r="HW5" s="43"/>
+      <c r="HX5" s="43"/>
+      <c r="HY5" s="43"/>
+      <c r="HZ5" s="43"/>
+      <c r="IA5" s="43"/>
+      <c r="IB5" s="43"/>
+      <c r="IC5" s="43"/>
+      <c r="ID5" s="43"/>
+      <c r="IE5" s="43"/>
+      <c r="IF5" s="43"/>
+      <c r="IG5" s="43"/>
+      <c r="IH5" s="43"/>
+      <c r="II5" s="43"/>
+      <c r="IJ5" s="43"/>
+      <c r="IK5" s="43"/>
+      <c r="IL5" s="43"/>
+      <c r="IM5" s="43"/>
+      <c r="IN5" s="43"/>
+      <c r="IO5" s="43"/>
+      <c r="IP5" s="43"/>
+      <c r="IQ5" s="43"/>
+      <c r="IR5" s="43"/>
+      <c r="IS5" s="43"/>
+      <c r="IT5" s="43"/>
+      <c r="IU5" s="43"/>
+    </row>
+    <row r="6" spans="1:255" ht="14" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="36">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:255" ht="14" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="36">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:255" ht="14" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="36">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6498,7 +6893,7 @@
   <dimension ref="A1:IU20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H20"/>
+      <selection activeCell="A19" sqref="A19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="操作说明" sheetId="1" r:id="rId1"/>
@@ -465,652 +465,654 @@
     <t>Action_Keyword(操作)</t>
   </si>
   <si>
+    <t>Element（元素封装）</t>
+  </si>
+  <si>
+    <t>PageObject(页面元素)</t>
+  </si>
+  <si>
+    <t>Parameter（传入参数）</t>
+  </si>
+  <si>
+    <t>向右滑动</t>
+  </si>
+  <si>
+    <t>swipe2right</t>
+  </si>
+  <si>
+    <t>等待文本显示（消息中心）</t>
+  </si>
+  <si>
+    <t>waitFortext</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>延迟等待</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter</t>
+  </si>
+  <si>
+    <t>等待文本显示（个人中心）</t>
+  </si>
+  <si>
+    <t>点击左屏个人中心</t>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+  </si>
+  <si>
+    <t>等待文本显示（一账通登录）</t>
+  </si>
+  <si>
+    <t>一账通登录</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>隐藏键盘</t>
+  </si>
+  <si>
+    <t>hidekeyboard</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>等待文本显示（一账通）</t>
+  </si>
+  <si>
+    <t>点击一账通</t>
+  </si>
+  <si>
+    <t>点击宿主登陆</t>
+  </si>
+  <si>
+    <t>等待文本显示（返回）</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>点击默认登录账号</t>
+  </si>
+  <si>
+    <t>输入宿主登录账号</t>
+  </si>
+  <si>
+    <t>15006180030</t>
+  </si>
+  <si>
+    <t>点击确认宿主登录账号</t>
+  </si>
+  <si>
+    <t>点击宿主登录</t>
+  </si>
+  <si>
+    <t>断言页面文字消失（15006180030）</t>
+  </si>
+  <si>
+    <t>assertFalse</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>等待文本显示（密码登录）</t>
+  </si>
+  <si>
+    <t>密码登录</t>
+  </si>
+  <si>
+    <t>向上滑动</t>
+  </si>
+  <si>
+    <t>swipeToUp</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>点击密码登录</t>
+  </si>
+  <si>
+    <t>等待文本显示（注册账号 Link）</t>
+  </si>
+  <si>
+    <t>注册账号 Link</t>
+  </si>
+  <si>
+    <t>等待文本显示（注册账号）</t>
+  </si>
+  <si>
+    <t>注册账号</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>等待文本显示（非一账通）</t>
+  </si>
+  <si>
+    <t>点击非一账通</t>
+  </si>
+  <si>
+    <t>滑动打开个人中心</t>
+  </si>
+  <si>
+    <t>公共库</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>步骤ID</t>
+  </si>
+  <si>
+    <t>API类别</t>
+  </si>
+  <si>
+    <t>定位元素</t>
+  </si>
+  <si>
+    <t>定位索引</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>是否跳过</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>test_loginyzt</t>
+  </si>
+  <si>
+    <t>test_0001</t>
+  </si>
+  <si>
+    <t>test_0002</t>
+  </si>
+  <si>
+    <t>test_0003</t>
+  </si>
+  <si>
+    <t>点击选择登陆用户</t>
+  </si>
+  <si>
+    <t>test_0004</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>test_0005</t>
+  </si>
+  <si>
+    <t>点击登陆</t>
+  </si>
+  <si>
+    <t>test_0006</t>
+  </si>
+  <si>
+    <t>test_0007</t>
+  </si>
+  <si>
+    <t>断言不存在个人中心</t>
+  </si>
+  <si>
+    <t>assertNotTrue</t>
+  </si>
+  <si>
+    <t>test_0008</t>
+  </si>
+  <si>
+    <t>等待我的订单</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+  </si>
+  <si>
+    <t>test_0009</t>
+  </si>
+  <si>
+    <t>向左滑动</t>
+  </si>
+  <si>
+    <t>swipe2left</t>
+  </si>
+  <si>
+    <t>test_loginbyH5</t>
+  </si>
+  <si>
+    <t>点击个人中心</t>
+  </si>
+  <si>
+    <t>点击账户输入框</t>
+  </si>
+  <si>
+    <t>输入账户</t>
+  </si>
+  <si>
+    <t>18602753065</t>
+  </si>
+  <si>
+    <t>点击密码输入框</t>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一账通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>classname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起键盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭H5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本活动的最终解释权归平安科技所有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信用卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试算一下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登 录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByHost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByLow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginNoyztByHost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟等待</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言页面文字消失（18602753065）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSuite（案例）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseID(步骤id)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description（步骤描述）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action_Keyword(操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>ios or android(ios或android独有操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Element（元素封装）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PageObject(页面元素)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Parameter（传入参数）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios or android(ios或android独有操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClickMsgCenter</t>
-  </si>
-  <si>
-    <t>向右滑动</t>
-  </si>
-  <si>
-    <t>swipe2right</t>
-  </si>
-  <si>
-    <t>等待文本显示（消息中心）</t>
-  </si>
-  <si>
-    <t>waitFortext</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>延迟等待</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>SwipeToClickPersonalCenter</t>
-  </si>
-  <si>
-    <t>等待文本显示（个人中心）</t>
-  </si>
-  <si>
-    <t>点击左屏个人中心</t>
-  </si>
-  <si>
-    <t>loginyztByH5</t>
-  </si>
-  <si>
-    <t>等待文本显示（一账通登录）</t>
-  </si>
-  <si>
-    <t>一账通登录</t>
-  </si>
-  <si>
-    <t>输入账号</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>隐藏键盘</t>
-  </si>
-  <si>
-    <t>hidekeyboard</t>
-  </si>
-  <si>
-    <t>ios</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>等待文本显示（一账通）</t>
-  </si>
-  <si>
-    <t>点击一账通</t>
-  </si>
-  <si>
-    <t>点击宿主登陆</t>
-  </si>
-  <si>
-    <t>等待文本显示（返回）</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>点击默认登录账号</t>
-  </si>
-  <si>
-    <t>输入宿主登录账号</t>
-  </si>
-  <si>
-    <t>15006180030</t>
-  </si>
-  <si>
-    <t>点击确认宿主登录账号</t>
-  </si>
-  <si>
-    <t>点击宿主登录</t>
-  </si>
-  <si>
-    <t>断言页面文字消失（15006180030）</t>
-  </si>
-  <si>
-    <t>assertFalse</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>等待文本显示（密码登录）</t>
-  </si>
-  <si>
-    <t>密码登录</t>
-  </si>
-  <si>
-    <t>向上滑动</t>
-  </si>
-  <si>
-    <t>swipeToUp</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>点击密码登录</t>
-  </si>
-  <si>
-    <t>等待文本显示（注册账号 Link）</t>
-  </si>
-  <si>
-    <t>注册账号 Link</t>
-  </si>
-  <si>
-    <t>等待文本显示（注册账号）</t>
-  </si>
-  <si>
-    <t>注册账号</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>等待文本显示（非一账通）</t>
-  </si>
-  <si>
-    <t>点击非一账通</t>
-  </si>
-  <si>
-    <t>滑动打开个人中心</t>
-  </si>
-  <si>
-    <t>公共库</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>步骤ID</t>
-  </si>
-  <si>
-    <t>API类别</t>
-  </si>
-  <si>
-    <t>定位元素</t>
-  </si>
-  <si>
-    <t>定位索引</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>是否跳过</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>test_loginyzt</t>
-  </si>
-  <si>
-    <t>test_0001</t>
-  </si>
-  <si>
-    <t>test_0002</t>
-  </si>
-  <si>
-    <t>test_0003</t>
-  </si>
-  <si>
-    <t>点击选择登陆用户</t>
-  </si>
-  <si>
-    <t>test_0004</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>test_0005</t>
-  </si>
-  <si>
-    <t>点击登陆</t>
-  </si>
-  <si>
-    <t>test_0006</t>
-  </si>
-  <si>
-    <t>test_0007</t>
-  </si>
-  <si>
-    <t>断言不存在个人中心</t>
-  </si>
-  <si>
-    <t>assertNotTrue</t>
-  </si>
-  <si>
-    <t>test_0008</t>
-  </si>
-  <si>
-    <t>等待我的订单</t>
-  </si>
-  <si>
-    <t>我的订单</t>
-  </si>
-  <si>
-    <t>test_0009</t>
-  </si>
-  <si>
-    <t>向左滑动</t>
-  </si>
-  <si>
-    <t>swipe2left</t>
-  </si>
-  <si>
-    <t>test_loginbyH5</t>
-  </si>
-  <si>
-    <t>点击个人中心</t>
-  </si>
-  <si>
-    <t>点击账户输入框</t>
-  </si>
-  <si>
-    <t>输入账户</t>
-  </si>
-  <si>
-    <t>18602753065</t>
-  </si>
-  <si>
-    <t>点击密码输入框</t>
-  </si>
-  <si>
-    <t>qweqwe123</t>
-  </si>
-  <si>
-    <t>SwipeToClickPersonalCenter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一账通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>classname</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收起键盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面完成按钮</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面完成按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qweqwe123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭H5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2left</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>值得买</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取插件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPluginList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言等待文本显示（我的订单）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本活动的最终解释权归平安科技所有</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用积分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的信用卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元GO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试算一下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录_1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取插件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登 录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByHost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByLow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginNoyztByHost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待文本显示（我的订单）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟等待</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言页面文字消失（18602753065）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点开插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseSuite（案例）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseID(步骤id)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description（步骤描述）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action_Keyword(操作)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios or android(ios或android独有操作)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element（元素封装）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageObject(页面元素)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter（传入参数）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000000_02_KY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000000_02_KY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000000_02_DYP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000000_02_DYP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电影</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即领取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益5%-6%，明星产品，稳健首选！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1335,8 +1337,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,7 +1990,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2045,6 +2071,10 @@
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2125,6 +2155,10 @@
     <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3521,7 +3555,7 @@
     </row>
     <row r="2" spans="1:7" ht="40.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>38</v>
@@ -3534,7 +3568,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -3553,7 +3587,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G3" s="18"/>
     </row>
@@ -3562,7 +3596,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>44</v>
@@ -3572,7 +3606,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -3581,7 +3615,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>44</v>
@@ -3607,10 +3641,10 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -3629,7 +3663,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G7" s="20"/>
     </row>
@@ -3767,7 +3801,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>44</v>
@@ -3788,7 +3822,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>44</v>
@@ -3825,35 +3859,35 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -3877,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -3907,30 +3941,30 @@
         <v>82</v>
       </c>
       <c r="E1" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" s="47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="B2" s="31">
         <v>1</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -3943,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -3954,7 +3988,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1">
@@ -3963,14 +3997,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="30"/>
@@ -3981,30 +4015,30 @@
         <v>4</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.5" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="31">
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="26"/>
@@ -4017,10 +4051,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -4028,7 +4062,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" customHeight="1">
@@ -4037,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>11</v>
@@ -4055,38 +4089,38 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="B10" s="31">
         <v>1</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1">
@@ -4095,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>17</v>
@@ -4106,7 +4140,7 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" customHeight="1">
@@ -4115,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>17</v>
@@ -4126,7 +4160,7 @@
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1">
@@ -4135,14 +4169,14 @@
         <v>4</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="30"/>
@@ -4153,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>11</v>
@@ -4171,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1">
@@ -4189,18 +4223,18 @@
         <v>7</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:256" ht="14.5" customHeight="1">
@@ -4209,10 +4243,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>185</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -4473,10 +4507,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>188</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -4733,16 +4767,16 @@
     </row>
     <row r="19" spans="1:256" ht="14.5" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B19" s="31">
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -4750,7 +4784,7 @@
         <v>52</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="14.5" customHeight="1">
@@ -4759,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>11</v>
@@ -4777,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>11</v>
@@ -4795,18 +4829,18 @@
         <v>4</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:256" ht="14.5" customHeight="1">
@@ -4815,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>11</v>
@@ -4833,20 +4867,20 @@
         <v>6</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:256" ht="14.5" customHeight="1">
@@ -4855,7 +4889,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>11</v>
@@ -4873,7 +4907,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>11</v>
@@ -4891,16 +4925,16 @@
         <v>9</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="14.5" customHeight="1">
@@ -4909,40 +4943,40 @@
         <v>10</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="49" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:256" ht="14.5" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B29" s="31">
         <v>1</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:256" ht="14.5" customHeight="1">
@@ -4951,18 +4985,18 @@
         <v>2</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:256" ht="14.5" customHeight="1">
@@ -4971,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>11</v>
@@ -4989,16 +5023,16 @@
         <v>4</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.5" customHeight="1">
@@ -5007,20 +5041,20 @@
         <v>5</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1">
@@ -5029,20 +5063,20 @@
         <v>6</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.5" customHeight="1">
@@ -5051,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>17</v>
@@ -5062,7 +5096,7 @@
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.5" customHeight="1">
@@ -5071,7 +5105,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>17</v>
@@ -5082,7 +5116,7 @@
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.5" customHeight="1">
@@ -5091,13 +5125,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>104</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5109,16 +5143,16 @@
         <v>10</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.5" customHeight="1">
@@ -5127,7 +5161,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>11</v>
@@ -5145,16 +5179,16 @@
         <v>12</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.5" customHeight="1">
@@ -5163,32 +5197,32 @@
         <v>13</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" customHeight="1">
       <c r="A42" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B42" s="31">
         <v>1</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -5196,7 +5230,7 @@
         <v>54</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1">
@@ -5205,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>11</v>
@@ -5223,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>11</v>
@@ -5241,18 +5275,18 @@
         <v>4</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.5" customHeight="1">
@@ -5261,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>11</v>
@@ -5279,20 +5313,20 @@
         <v>6</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.5" customHeight="1">
@@ -5301,7 +5335,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>11</v>
@@ -5319,7 +5353,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>11</v>
@@ -5337,16 +5371,16 @@
         <v>9</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1">
@@ -5355,18 +5389,18 @@
         <v>10</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +5424,7 @@
   <dimension ref="A1:IU8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -5408,47 +5442,47 @@
   <sheetData>
     <row r="1" spans="1:255" ht="28" customHeight="1">
       <c r="A1" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>255</v>
-      </c>
       <c r="G1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:255" ht="14.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="H2" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
@@ -5700,7 +5734,7 @@
     </row>
     <row r="3" spans="1:255" ht="14.5" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
@@ -5709,27 +5743,27 @@
         <v>29</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -5985,24 +6019,24 @@
     </row>
     <row r="5" spans="1:255" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -6254,65 +6288,65 @@
     </row>
     <row r="6" spans="1:255" ht="14" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="36">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:255" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B7" s="36">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:255" ht="14" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8" s="36">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>267</v>
@@ -6357,22 +6391,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>26</v>
@@ -6384,24 +6418,24 @@
         <v>28</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.5" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -6422,10 +6456,10 @@
     <row r="3" spans="1:12" ht="14.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>10</v>
@@ -6446,10 +6480,10 @@
     <row r="4" spans="1:12" ht="14.5" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>10</v>
@@ -6470,10 +6504,10 @@
     <row r="5" spans="1:12" ht="14.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>10</v>
@@ -6494,10 +6528,10 @@
     <row r="6" spans="1:12" ht="14.5" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -6518,10 +6552,10 @@
     <row r="7" spans="1:12" ht="14.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="12"/>
@@ -6529,7 +6563,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -6538,10 +6572,10 @@
     <row r="8" spans="1:12" ht="14.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12" t="s">
@@ -6549,11 +6583,11 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -6562,22 +6596,22 @@
     <row r="9" spans="1:12" ht="14.5" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -6586,10 +6620,10 @@
     <row r="10" spans="1:12" ht="14.5" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12"/>
@@ -6597,7 +6631,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="14"/>
       <c r="I10" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -6605,13 +6639,13 @@
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="12"/>
@@ -6619,7 +6653,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="14"/>
       <c r="I11" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -6628,10 +6662,10 @@
     <row r="12" spans="1:12" ht="14.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
@@ -6652,10 +6686,10 @@
     <row r="13" spans="1:12" ht="14.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>16</v>
@@ -6676,10 +6710,10 @@
     <row r="14" spans="1:12" ht="14.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>16</v>
@@ -6689,7 +6723,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
@@ -6702,10 +6736,10 @@
     <row r="15" spans="1:12" ht="14.5" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>16</v>
@@ -6726,10 +6760,10 @@
     <row r="16" spans="1:12" ht="14.5" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>16</v>
@@ -6739,7 +6773,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -6911,52 +6945,52 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1">
       <c r="A1" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>255</v>
-      </c>
       <c r="G1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="H2" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
@@ -6965,27 +6999,27 @@
         <v>29</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -6994,236 +7028,236 @@
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="36">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="36">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="36">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="36">
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B10" s="36">
         <v>1</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11" s="36">
         <v>1</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" s="36">
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="36">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="36">
         <v>1</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B15" s="36">
         <v>1</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -7232,16 +7266,16 @@
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B16" s="36">
         <v>1</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -7250,86 +7284,86 @@
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B17" s="36">
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B18" s="36">
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" s="36">
         <v>1</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B20" s="36">
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档介绍" sheetId="1" r:id="rId1"/>
@@ -4370,7 +4370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5324,7 +5324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7886,8 +7886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文档介绍" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="312">
   <si>
     <t>支持定位方式</t>
   </si>
@@ -1259,15 +1259,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>checkplugin_PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>android</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>活动集合页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_HDJHY_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_HDJHY_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_HDJHY_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件,正常场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件，插件不存在</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件，断言失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动集合1页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_01_HDJHY</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1712,8 +1740,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2742,7 +2776,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="275">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2879,6 +2913,7 @@
     <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3015,6 +3050,7 @@
     <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4370,7 +4406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -7884,10 +7920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU6"/>
+  <dimension ref="A1:IU8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -8501,7 +8537,7 @@
         <v>295</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="46" t="s">
@@ -8760,13 +8796,13 @@
     </row>
     <row r="6" spans="1:255" ht="14.5" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B6" s="44">
         <v>1</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>295</v>
@@ -8777,7 +8813,7 @@
         <v>301</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
@@ -9026,6 +9062,544 @@
       <c r="IS6" s="36"/>
       <c r="IT6" s="36"/>
       <c r="IU6" s="36"/>
+    </row>
+    <row r="7" spans="1:255" ht="14.5" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="36"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="36"/>
+      <c r="CF7" s="36"/>
+      <c r="CG7" s="36"/>
+      <c r="CH7" s="36"/>
+      <c r="CI7" s="36"/>
+      <c r="CJ7" s="36"/>
+      <c r="CK7" s="36"/>
+      <c r="CL7" s="36"/>
+      <c r="CM7" s="36"/>
+      <c r="CN7" s="36"/>
+      <c r="CO7" s="36"/>
+      <c r="CP7" s="36"/>
+      <c r="CQ7" s="36"/>
+      <c r="CR7" s="36"/>
+      <c r="CS7" s="36"/>
+      <c r="CT7" s="36"/>
+      <c r="CU7" s="36"/>
+      <c r="CV7" s="36"/>
+      <c r="CW7" s="36"/>
+      <c r="CX7" s="36"/>
+      <c r="CY7" s="36"/>
+      <c r="CZ7" s="36"/>
+      <c r="DA7" s="36"/>
+      <c r="DB7" s="36"/>
+      <c r="DC7" s="36"/>
+      <c r="DD7" s="36"/>
+      <c r="DE7" s="36"/>
+      <c r="DF7" s="36"/>
+      <c r="DG7" s="36"/>
+      <c r="DH7" s="36"/>
+      <c r="DI7" s="36"/>
+      <c r="DJ7" s="36"/>
+      <c r="DK7" s="36"/>
+      <c r="DL7" s="36"/>
+      <c r="DM7" s="36"/>
+      <c r="DN7" s="36"/>
+      <c r="DO7" s="36"/>
+      <c r="DP7" s="36"/>
+      <c r="DQ7" s="36"/>
+      <c r="DR7" s="36"/>
+      <c r="DS7" s="36"/>
+      <c r="DT7" s="36"/>
+      <c r="DU7" s="36"/>
+      <c r="DV7" s="36"/>
+      <c r="DW7" s="36"/>
+      <c r="DX7" s="36"/>
+      <c r="DY7" s="36"/>
+      <c r="DZ7" s="36"/>
+      <c r="EA7" s="36"/>
+      <c r="EB7" s="36"/>
+      <c r="EC7" s="36"/>
+      <c r="ED7" s="36"/>
+      <c r="EE7" s="36"/>
+      <c r="EF7" s="36"/>
+      <c r="EG7" s="36"/>
+      <c r="EH7" s="36"/>
+      <c r="EI7" s="36"/>
+      <c r="EJ7" s="36"/>
+      <c r="EK7" s="36"/>
+      <c r="EL7" s="36"/>
+      <c r="EM7" s="36"/>
+      <c r="EN7" s="36"/>
+      <c r="EO7" s="36"/>
+      <c r="EP7" s="36"/>
+      <c r="EQ7" s="36"/>
+      <c r="ER7" s="36"/>
+      <c r="ES7" s="36"/>
+      <c r="ET7" s="36"/>
+      <c r="EU7" s="36"/>
+      <c r="EV7" s="36"/>
+      <c r="EW7" s="36"/>
+      <c r="EX7" s="36"/>
+      <c r="EY7" s="36"/>
+      <c r="EZ7" s="36"/>
+      <c r="FA7" s="36"/>
+      <c r="FB7" s="36"/>
+      <c r="FC7" s="36"/>
+      <c r="FD7" s="36"/>
+      <c r="FE7" s="36"/>
+      <c r="FF7" s="36"/>
+      <c r="FG7" s="36"/>
+      <c r="FH7" s="36"/>
+      <c r="FI7" s="36"/>
+      <c r="FJ7" s="36"/>
+      <c r="FK7" s="36"/>
+      <c r="FL7" s="36"/>
+      <c r="FM7" s="36"/>
+      <c r="FN7" s="36"/>
+      <c r="FO7" s="36"/>
+      <c r="FP7" s="36"/>
+      <c r="FQ7" s="36"/>
+      <c r="FR7" s="36"/>
+      <c r="FS7" s="36"/>
+      <c r="FT7" s="36"/>
+      <c r="FU7" s="36"/>
+      <c r="FV7" s="36"/>
+      <c r="FW7" s="36"/>
+      <c r="FX7" s="36"/>
+      <c r="FY7" s="36"/>
+      <c r="FZ7" s="36"/>
+      <c r="GA7" s="36"/>
+      <c r="GB7" s="36"/>
+      <c r="GC7" s="36"/>
+      <c r="GD7" s="36"/>
+      <c r="GE7" s="36"/>
+      <c r="GF7" s="36"/>
+      <c r="GG7" s="36"/>
+      <c r="GH7" s="36"/>
+      <c r="GI7" s="36"/>
+      <c r="GJ7" s="36"/>
+      <c r="GK7" s="36"/>
+      <c r="GL7" s="36"/>
+      <c r="GM7" s="36"/>
+      <c r="GN7" s="36"/>
+      <c r="GO7" s="36"/>
+      <c r="GP7" s="36"/>
+      <c r="GQ7" s="36"/>
+      <c r="GR7" s="36"/>
+      <c r="GS7" s="36"/>
+      <c r="GT7" s="36"/>
+      <c r="GU7" s="36"/>
+      <c r="GV7" s="36"/>
+      <c r="GW7" s="36"/>
+      <c r="GX7" s="36"/>
+      <c r="GY7" s="36"/>
+      <c r="GZ7" s="36"/>
+      <c r="HA7" s="36"/>
+      <c r="HB7" s="36"/>
+      <c r="HC7" s="36"/>
+      <c r="HD7" s="36"/>
+      <c r="HE7" s="36"/>
+      <c r="HF7" s="36"/>
+      <c r="HG7" s="36"/>
+      <c r="HH7" s="36"/>
+      <c r="HI7" s="36"/>
+      <c r="HJ7" s="36"/>
+      <c r="HK7" s="36"/>
+      <c r="HL7" s="36"/>
+      <c r="HM7" s="36"/>
+      <c r="HN7" s="36"/>
+      <c r="HO7" s="36"/>
+      <c r="HP7" s="36"/>
+      <c r="HQ7" s="36"/>
+      <c r="HR7" s="36"/>
+      <c r="HS7" s="36"/>
+      <c r="HT7" s="36"/>
+      <c r="HU7" s="36"/>
+      <c r="HV7" s="36"/>
+      <c r="HW7" s="36"/>
+      <c r="HX7" s="36"/>
+      <c r="HY7" s="36"/>
+      <c r="HZ7" s="36"/>
+      <c r="IA7" s="36"/>
+      <c r="IB7" s="36"/>
+      <c r="IC7" s="36"/>
+      <c r="ID7" s="36"/>
+      <c r="IE7" s="36"/>
+      <c r="IF7" s="36"/>
+      <c r="IG7" s="36"/>
+      <c r="IH7" s="36"/>
+      <c r="II7" s="36"/>
+      <c r="IJ7" s="36"/>
+      <c r="IK7" s="36"/>
+      <c r="IL7" s="36"/>
+      <c r="IM7" s="36"/>
+      <c r="IN7" s="36"/>
+      <c r="IO7" s="36"/>
+      <c r="IP7" s="36"/>
+      <c r="IQ7" s="36"/>
+      <c r="IR7" s="36"/>
+      <c r="IS7" s="36"/>
+      <c r="IT7" s="36"/>
+      <c r="IU7" s="36"/>
+    </row>
+    <row r="8" spans="1:255" ht="14.5" customHeight="1">
+      <c r="A8" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="36"/>
+      <c r="BQ8" s="36"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="36"/>
+      <c r="BY8" s="36"/>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="36"/>
+      <c r="CF8" s="36"/>
+      <c r="CG8" s="36"/>
+      <c r="CH8" s="36"/>
+      <c r="CI8" s="36"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="36"/>
+      <c r="CL8" s="36"/>
+      <c r="CM8" s="36"/>
+      <c r="CN8" s="36"/>
+      <c r="CO8" s="36"/>
+      <c r="CP8" s="36"/>
+      <c r="CQ8" s="36"/>
+      <c r="CR8" s="36"/>
+      <c r="CS8" s="36"/>
+      <c r="CT8" s="36"/>
+      <c r="CU8" s="36"/>
+      <c r="CV8" s="36"/>
+      <c r="CW8" s="36"/>
+      <c r="CX8" s="36"/>
+      <c r="CY8" s="36"/>
+      <c r="CZ8" s="36"/>
+      <c r="DA8" s="36"/>
+      <c r="DB8" s="36"/>
+      <c r="DC8" s="36"/>
+      <c r="DD8" s="36"/>
+      <c r="DE8" s="36"/>
+      <c r="DF8" s="36"/>
+      <c r="DG8" s="36"/>
+      <c r="DH8" s="36"/>
+      <c r="DI8" s="36"/>
+      <c r="DJ8" s="36"/>
+      <c r="DK8" s="36"/>
+      <c r="DL8" s="36"/>
+      <c r="DM8" s="36"/>
+      <c r="DN8" s="36"/>
+      <c r="DO8" s="36"/>
+      <c r="DP8" s="36"/>
+      <c r="DQ8" s="36"/>
+      <c r="DR8" s="36"/>
+      <c r="DS8" s="36"/>
+      <c r="DT8" s="36"/>
+      <c r="DU8" s="36"/>
+      <c r="DV8" s="36"/>
+      <c r="DW8" s="36"/>
+      <c r="DX8" s="36"/>
+      <c r="DY8" s="36"/>
+      <c r="DZ8" s="36"/>
+      <c r="EA8" s="36"/>
+      <c r="EB8" s="36"/>
+      <c r="EC8" s="36"/>
+      <c r="ED8" s="36"/>
+      <c r="EE8" s="36"/>
+      <c r="EF8" s="36"/>
+      <c r="EG8" s="36"/>
+      <c r="EH8" s="36"/>
+      <c r="EI8" s="36"/>
+      <c r="EJ8" s="36"/>
+      <c r="EK8" s="36"/>
+      <c r="EL8" s="36"/>
+      <c r="EM8" s="36"/>
+      <c r="EN8" s="36"/>
+      <c r="EO8" s="36"/>
+      <c r="EP8" s="36"/>
+      <c r="EQ8" s="36"/>
+      <c r="ER8" s="36"/>
+      <c r="ES8" s="36"/>
+      <c r="ET8" s="36"/>
+      <c r="EU8" s="36"/>
+      <c r="EV8" s="36"/>
+      <c r="EW8" s="36"/>
+      <c r="EX8" s="36"/>
+      <c r="EY8" s="36"/>
+      <c r="EZ8" s="36"/>
+      <c r="FA8" s="36"/>
+      <c r="FB8" s="36"/>
+      <c r="FC8" s="36"/>
+      <c r="FD8" s="36"/>
+      <c r="FE8" s="36"/>
+      <c r="FF8" s="36"/>
+      <c r="FG8" s="36"/>
+      <c r="FH8" s="36"/>
+      <c r="FI8" s="36"/>
+      <c r="FJ8" s="36"/>
+      <c r="FK8" s="36"/>
+      <c r="FL8" s="36"/>
+      <c r="FM8" s="36"/>
+      <c r="FN8" s="36"/>
+      <c r="FO8" s="36"/>
+      <c r="FP8" s="36"/>
+      <c r="FQ8" s="36"/>
+      <c r="FR8" s="36"/>
+      <c r="FS8" s="36"/>
+      <c r="FT8" s="36"/>
+      <c r="FU8" s="36"/>
+      <c r="FV8" s="36"/>
+      <c r="FW8" s="36"/>
+      <c r="FX8" s="36"/>
+      <c r="FY8" s="36"/>
+      <c r="FZ8" s="36"/>
+      <c r="GA8" s="36"/>
+      <c r="GB8" s="36"/>
+      <c r="GC8" s="36"/>
+      <c r="GD8" s="36"/>
+      <c r="GE8" s="36"/>
+      <c r="GF8" s="36"/>
+      <c r="GG8" s="36"/>
+      <c r="GH8" s="36"/>
+      <c r="GI8" s="36"/>
+      <c r="GJ8" s="36"/>
+      <c r="GK8" s="36"/>
+      <c r="GL8" s="36"/>
+      <c r="GM8" s="36"/>
+      <c r="GN8" s="36"/>
+      <c r="GO8" s="36"/>
+      <c r="GP8" s="36"/>
+      <c r="GQ8" s="36"/>
+      <c r="GR8" s="36"/>
+      <c r="GS8" s="36"/>
+      <c r="GT8" s="36"/>
+      <c r="GU8" s="36"/>
+      <c r="GV8" s="36"/>
+      <c r="GW8" s="36"/>
+      <c r="GX8" s="36"/>
+      <c r="GY8" s="36"/>
+      <c r="GZ8" s="36"/>
+      <c r="HA8" s="36"/>
+      <c r="HB8" s="36"/>
+      <c r="HC8" s="36"/>
+      <c r="HD8" s="36"/>
+      <c r="HE8" s="36"/>
+      <c r="HF8" s="36"/>
+      <c r="HG8" s="36"/>
+      <c r="HH8" s="36"/>
+      <c r="HI8" s="36"/>
+      <c r="HJ8" s="36"/>
+      <c r="HK8" s="36"/>
+      <c r="HL8" s="36"/>
+      <c r="HM8" s="36"/>
+      <c r="HN8" s="36"/>
+      <c r="HO8" s="36"/>
+      <c r="HP8" s="36"/>
+      <c r="HQ8" s="36"/>
+      <c r="HR8" s="36"/>
+      <c r="HS8" s="36"/>
+      <c r="HT8" s="36"/>
+      <c r="HU8" s="36"/>
+      <c r="HV8" s="36"/>
+      <c r="HW8" s="36"/>
+      <c r="HX8" s="36"/>
+      <c r="HY8" s="36"/>
+      <c r="HZ8" s="36"/>
+      <c r="IA8" s="36"/>
+      <c r="IB8" s="36"/>
+      <c r="IC8" s="36"/>
+      <c r="ID8" s="36"/>
+      <c r="IE8" s="36"/>
+      <c r="IF8" s="36"/>
+      <c r="IG8" s="36"/>
+      <c r="IH8" s="36"/>
+      <c r="II8" s="36"/>
+      <c r="IJ8" s="36"/>
+      <c r="IK8" s="36"/>
+      <c r="IL8" s="36"/>
+      <c r="IM8" s="36"/>
+      <c r="IN8" s="36"/>
+      <c r="IO8" s="36"/>
+      <c r="IP8" s="36"/>
+      <c r="IQ8" s="36"/>
+      <c r="IR8" s="36"/>
+      <c r="IS8" s="36"/>
+      <c r="IT8" s="36"/>
+      <c r="IU8" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文档介绍" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,42 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
             <rFont val="Helvetica"/>
           </rPr>
-          <t>作者:
-步骤id，为了好看</t>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>步骤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>，如此设计是方便截图命名不重复使用</t>
         </r>
       </text>
     </comment>
@@ -213,8 +245,31 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>z</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>案例库案例名称不能为空，如果想一个案例需要多个步骤建议封装到公共案例库</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="365">
   <si>
     <t>支持定位方式</t>
   </si>
@@ -471,831 +526,997 @@
     <t>5</t>
   </si>
   <si>
+    <t>等待文本显示（个人中心）</t>
+  </si>
+  <si>
+    <t>点击左屏个人中心</t>
+  </si>
+  <si>
+    <t>loginyztByH5</t>
+  </si>
+  <si>
+    <t>等待文本显示（一账通登录）</t>
+  </si>
+  <si>
+    <t>一账通登录</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>隐藏键盘</t>
+  </si>
+  <si>
+    <t>hidekeyboard</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>等待文本显示（一账通）</t>
+  </si>
+  <si>
+    <t>点击一账通</t>
+  </si>
+  <si>
+    <t>点击宿主登陆</t>
+  </si>
+  <si>
+    <t>等待文本显示（返回）</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>点击默认登录账号</t>
+  </si>
+  <si>
+    <t>输入宿主登录账号</t>
+  </si>
+  <si>
+    <t>15006180030</t>
+  </si>
+  <si>
+    <t>点击确认宿主登录账号</t>
+  </si>
+  <si>
+    <t>点击宿主登录</t>
+  </si>
+  <si>
+    <t>断言页面文字消失（15006180030）</t>
+  </si>
+  <si>
+    <t>assertFalse</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>等待文本显示（密码登录）</t>
+  </si>
+  <si>
+    <t>密码登录</t>
+  </si>
+  <si>
+    <t>向上滑动</t>
+  </si>
+  <si>
+    <t>swipeToUp</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>点击密码登录</t>
+  </si>
+  <si>
+    <t>等待文本显示（注册账号 Link）</t>
+  </si>
+  <si>
+    <t>注册账号 Link</t>
+  </si>
+  <si>
+    <t>等待文本显示（注册账号）</t>
+  </si>
+  <si>
+    <t>注册账号</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>等待文本显示（非一账通）</t>
+  </si>
+  <si>
+    <t>点击非一账通</t>
+  </si>
+  <si>
+    <t>滑动打开个人中心</t>
+  </si>
+  <si>
+    <t>公共库</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>步骤ID</t>
+  </si>
+  <si>
+    <t>API类别</t>
+  </si>
+  <si>
+    <t>定位元素</t>
+  </si>
+  <si>
+    <t>定位索引</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>是否跳过</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>test_loginyzt</t>
+  </si>
+  <si>
+    <t>test_0001</t>
+  </si>
+  <si>
+    <t>test_0002</t>
+  </si>
+  <si>
+    <t>test_0003</t>
+  </si>
+  <si>
+    <t>点击选择登陆用户</t>
+  </si>
+  <si>
+    <t>test_0004</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>test_0005</t>
+  </si>
+  <si>
+    <t>点击登陆</t>
+  </si>
+  <si>
+    <t>test_0006</t>
+  </si>
+  <si>
+    <t>test_0007</t>
+  </si>
+  <si>
+    <t>断言不存在个人中心</t>
+  </si>
+  <si>
+    <t>assertNotTrue</t>
+  </si>
+  <si>
+    <t>test_0008</t>
+  </si>
+  <si>
+    <t>等待我的订单</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+  </si>
+  <si>
+    <t>test_0009</t>
+  </si>
+  <si>
+    <t>向左滑动</t>
+  </si>
+  <si>
+    <t>swipe2left</t>
+  </si>
+  <si>
+    <t>test_loginbyH5</t>
+  </si>
+  <si>
+    <t>点击个人中心</t>
+  </si>
+  <si>
+    <t>点击账户输入框</t>
+  </si>
+  <si>
+    <t>输入账户</t>
+  </si>
+  <si>
+    <t>18602753065</t>
+  </si>
+  <si>
+    <t>点击密码输入框</t>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+  </si>
+  <si>
     <t>SwipeToClickPersonalCenter</t>
-  </si>
-  <si>
-    <t>等待文本显示（个人中心）</t>
-  </si>
-  <si>
-    <t>点击左屏个人中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一账通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>classname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起键盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面完成按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qweqwe123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭H5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeH5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPluginList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本活动的最终解释权归平安科技所有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信用卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试算一下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+  </si>
+  <si>
+    <t>PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取插件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_WLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA00500000000_02_GSZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_WDCX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000001_02_XYK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02500000000_02_TZLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登 录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待文本显示（我的订单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18602753065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟等待</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言页面文字消失（18602753065）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA03300000000_02_AJDK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSuite（案例）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseID(步骤id)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description（步骤描述）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action_Keyword(操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios or android(ios或android独有操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element（元素封装）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject(页面元素)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter（传入参数）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件:PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios or android(ios或android独有操作)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckPlugin_PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckPlugin_PA02100000001_02_JF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckPlugin_PA02100000000_02_DYP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckPlugin_PA02100000000_02_KY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档介绍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6%</t>
+  </si>
+  <si>
+    <t>设置界面loading</t>
+  </si>
+  <si>
+    <t>设置界面loading</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe2up</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='个人中心']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='消息中心']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[contains(@text,'loading')]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-button</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-psd-input</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb_yzt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb_no_yzt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb_no_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-id-input</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.paic.example.simpleapp:array/user_system</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面关闭按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeButton</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertTrueCheckPlugin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_YYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_02_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动集合页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_HDJHY_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_HDJHY_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_HDJHY_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件,正常场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件，插件不存在</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查插件，断言失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动集合1页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA01100000000_01_HDJHY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickMsgCenter_2</t>
+  </si>
+  <si>
+    <t>checkplugin_PA01100000000_02_PAZB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickMsgCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_2</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_3</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_4</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_5</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_6</t>
+  </si>
+  <si>
+    <t>SwipeToClickPersonalCenter_7</t>
   </si>
   <si>
     <t>loginyztByH5</t>
-  </si>
-  <si>
-    <t>等待文本显示（一账通登录）</t>
-  </si>
-  <si>
-    <t>一账通登录</t>
-  </si>
-  <si>
-    <t>输入账号</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>隐藏键盘</t>
-  </si>
-  <si>
-    <t>hidekeyboard</t>
-  </si>
-  <si>
-    <t>ios</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>等待文本显示（一账通）</t>
-  </si>
-  <si>
-    <t>点击一账通</t>
-  </si>
-  <si>
-    <t>点击宿主登陆</t>
-  </si>
-  <si>
-    <t>等待文本显示（返回）</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>点击默认登录账号</t>
-  </si>
-  <si>
-    <t>输入宿主登录账号</t>
-  </si>
-  <si>
-    <t>15006180030</t>
-  </si>
-  <si>
-    <t>点击确认宿主登录账号</t>
-  </si>
-  <si>
-    <t>点击宿主登录</t>
-  </si>
-  <si>
-    <t>断言页面文字消失（15006180030）</t>
-  </si>
-  <si>
-    <t>assertFalse</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>等待文本显示（密码登录）</t>
-  </si>
-  <si>
-    <t>密码登录</t>
-  </si>
-  <si>
-    <t>向上滑动</t>
-  </si>
-  <si>
-    <t>swipeToUp</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>点击密码登录</t>
-  </si>
-  <si>
-    <t>等待文本显示（注册账号 Link）</t>
-  </si>
-  <si>
-    <t>注册账号 Link</t>
-  </si>
-  <si>
-    <t>等待文本显示（注册账号）</t>
-  </si>
-  <si>
-    <t>注册账号</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>等待文本显示（非一账通）</t>
-  </si>
-  <si>
-    <t>点击非一账通</t>
-  </si>
-  <si>
-    <t>滑动打开个人中心</t>
-  </si>
-  <si>
-    <t>公共库</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>步骤ID</t>
-  </si>
-  <si>
-    <t>API类别</t>
-  </si>
-  <si>
-    <t>定位元素</t>
-  </si>
-  <si>
-    <t>定位索引</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>是否跳过</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>test_loginyzt</t>
-  </si>
-  <si>
-    <t>test_0001</t>
-  </si>
-  <si>
-    <t>test_0002</t>
-  </si>
-  <si>
-    <t>test_0003</t>
-  </si>
-  <si>
-    <t>点击选择登陆用户</t>
-  </si>
-  <si>
-    <t>test_0004</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>test_0005</t>
-  </si>
-  <si>
-    <t>点击登陆</t>
-  </si>
-  <si>
-    <t>test_0006</t>
-  </si>
-  <si>
-    <t>test_0007</t>
-  </si>
-  <si>
-    <t>断言不存在个人中心</t>
-  </si>
-  <si>
-    <t>assertNotTrue</t>
-  </si>
-  <si>
-    <t>test_0008</t>
-  </si>
-  <si>
-    <t>等待我的订单</t>
-  </si>
-  <si>
-    <t>我的订单</t>
-  </si>
-  <si>
-    <t>test_0009</t>
-  </si>
-  <si>
-    <t>向左滑动</t>
-  </si>
-  <si>
-    <t>swipe2left</t>
-  </si>
-  <si>
-    <t>test_loginbyH5</t>
-  </si>
-  <si>
-    <t>点击个人中心</t>
-  </si>
-  <si>
-    <t>点击账户输入框</t>
-  </si>
-  <si>
-    <t>输入账户</t>
-  </si>
-  <si>
-    <t>18602753065</t>
-  </si>
-  <si>
-    <t>点击密码输入框</t>
-  </si>
-  <si>
-    <t>qweqwe123</t>
-  </si>
-  <si>
-    <t>SwipeToClickPersonalCenter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一账通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>classname</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收起键盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面完成按钮</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面完成按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qweqwe123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭H5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2left</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>值得买</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取插件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPluginList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言等待文本显示（我的订单）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本活动的最终解释权归平安科技所有</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用积分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的信用卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元GO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0/0/1/0/1/0/0/0/0/0/2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试算一下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-  </si>
-  <si>
-    <t>PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录_1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取插件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_WLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA00500000000_02_GSZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000001_02_WDCX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000001_02_XYK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02500000000_02_TZLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登 录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByH5_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByH5_2</t>
+  </si>
+  <si>
+    <t>loginyztByH5_3</t>
+  </si>
+  <si>
+    <t>loginyztByH5_4</t>
+  </si>
+  <si>
+    <t>loginyztByH5_5</t>
+  </si>
+  <si>
+    <t>loginyztByH5_6</t>
+  </si>
+  <si>
+    <t>loginyztByH5_7</t>
+  </si>
+  <si>
+    <t>loginyztByH5_8</t>
+  </si>
+  <si>
+    <t>loginyztByH5_9</t>
   </si>
   <si>
     <t>loginyztByHost</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>loginyztByHost_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByHost_2</t>
+  </si>
+  <si>
+    <t>loginyztByHost_3</t>
+  </si>
+  <si>
+    <t>loginyztByHost_4</t>
+  </si>
+  <si>
+    <t>loginyztByHost_5</t>
+  </si>
+  <si>
+    <t>loginyztByHost_6</t>
+  </si>
+  <si>
+    <t>loginyztByHost_7</t>
+  </si>
+  <si>
+    <t>loginyztByHost_8</t>
+  </si>
+  <si>
+    <t>loginyztByHost_9</t>
+  </si>
+  <si>
+    <t>loginyztByHost_10</t>
+  </si>
+  <si>
     <t>loginyztByLow</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>loginyztByLow_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginyztByLow_2</t>
+  </si>
+  <si>
+    <t>loginyztByLow_3</t>
+  </si>
+  <si>
+    <t>loginyztByLow_4</t>
+  </si>
+  <si>
+    <t>loginyztByLow_5</t>
+  </si>
+  <si>
+    <t>loginyztByLow_6</t>
+  </si>
+  <si>
+    <t>loginyztByLow_7</t>
+  </si>
+  <si>
+    <t>loginyztByLow_8</t>
+  </si>
+  <si>
+    <t>loginyztByLow_9</t>
+  </si>
+  <si>
+    <t>loginyztByLow_10</t>
+  </si>
+  <si>
+    <t>loginyztByLow_11</t>
+  </si>
+  <si>
+    <t>loginyztByLow_12</t>
+  </si>
+  <si>
+    <t>loginyztByLow_13</t>
+  </si>
+  <si>
     <t>loginNoyztByHost</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>等待文本显示（我的订单）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18602753065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟等待</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言页面文字消失（18602753065）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点开插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA03300000000_02_AJDK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseSuite（案例）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseID(步骤id)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description（步骤描述）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action_Keyword(操作)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios or android(ios或android独有操作)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element（元素封装）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageObject(页面元素)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter（传入参数）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000000_02_KY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000000_02_KY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件:PA02100000000_02_DYP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA02100000000_02_DYP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电影</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios or android(ios或android独有操作)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginyztByH5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickMsgCenter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>loginNoyztByHost_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginNoyztByHost_2</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_3</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_4</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_5</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_6</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_7</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_8</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_9</t>
+  </si>
+  <si>
+    <t>loginNoyztByHost_10</t>
+  </si>
+  <si>
+    <t>ClickMsgCenter_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickMsgCenter_3</t>
+  </si>
+  <si>
+    <t>ClickMsgCenter_4</t>
   </si>
   <si>
     <t>login_1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckPlugin_PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckPlugin_PA02100000001_02_JF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckPlugin_PA02100000000_02_DYP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckPlugin_PA02100000000_02_KY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6%</t>
-  </si>
-  <si>
-    <t>设置界面loading</t>
-  </si>
-  <si>
-    <t>设置界面loading</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe2up</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@value='一账通号/手机号/身份证号/邮箱']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='个人中心']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='消息中心']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[contains(@text,'loading')]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-button</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user-psd-input</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb_yzt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb_no_yzt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb_no_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user-id-input</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.paic.example.simpleapp:array/user_system</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5页面关闭按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeButton</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元GO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动集合页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_HDJHY_0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_HDJHY_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_HDJHY_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件,正常场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件，插件不存在</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件，断言失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动集合1页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_01_HDJHY</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1303,7 +1524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1351,6 +1572,12 @@
       <sz val="9"/>
       <color rgb="FFA5C261"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2567,7 +2794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2723,9 +2950,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4251,17 +4475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="64" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -4447,22 +4671,22 @@
     </row>
     <row r="2" spans="1:256" ht="40.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="74"/>
+        <v>268</v>
+      </c>
+      <c r="D2" s="73"/>
       <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="74"/>
+      <c r="F2" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:256" ht="40.5" customHeight="1">
       <c r="A3" s="18" t="s">
@@ -4472,16 +4696,16 @@
         <v>37</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="74"/>
+        <v>267</v>
+      </c>
+      <c r="D3" s="73"/>
       <c r="E3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="74"/>
+      <c r="F3" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:256" ht="27.5" customHeight="1">
       <c r="A4" s="18" t="s">
@@ -4491,16 +4715,16 @@
         <v>38</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="74"/>
+        <v>279</v>
+      </c>
+      <c r="D4" s="73"/>
       <c r="E4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="74"/>
+      <c r="F4" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:256" ht="14.5" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -4510,16 +4734,16 @@
         <v>38</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="74"/>
+        <v>274</v>
+      </c>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="74"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:256" ht="14.5" customHeight="1">
       <c r="A6" s="18" t="s">
@@ -4529,35 +4753,35 @@
         <v>38</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="74"/>
+        <v>270</v>
+      </c>
+      <c r="D6" s="73"/>
       <c r="E6" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:256" ht="27.5" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="74"/>
+        <v>278</v>
+      </c>
+      <c r="D7" s="73"/>
       <c r="E7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="74"/>
+      <c r="F7" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="73"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
@@ -4816,16 +5040,16 @@
         <v>38</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="74"/>
+        <v>275</v>
+      </c>
+      <c r="D8" s="73"/>
       <c r="E8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="74"/>
+      <c r="F8" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:256" ht="27.5" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -4835,16 +5059,16 @@
         <v>38</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="74"/>
+        <v>276</v>
+      </c>
+      <c r="D9" s="73"/>
       <c r="E9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:256" ht="27.5" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -4853,17 +5077,17 @@
       <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="67" t="s">
+      <c r="C10" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" spans="1:256" ht="40.5" customHeight="1">
       <c r="A11" s="20" t="s">
@@ -4872,32 +5096,32 @@
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="G11" s="75"/>
     </row>
     <row r="12" spans="1:256" ht="14.5" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="76"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" spans="1:256" ht="28" customHeight="1">
       <c r="A13" s="18" t="s">
@@ -4906,17 +5130,17 @@
       <c r="B13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:256" ht="40.5" customHeight="1">
       <c r="A14" s="20" t="s">
@@ -4925,17 +5149,17 @@
       <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="76"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:256" ht="14.5" customHeight="1">
       <c r="A15" s="20" t="s">
@@ -4944,59 +5168,59 @@
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="67" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="76"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:256" ht="14.5" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="E16" s="67" t="s">
+      <c r="D16" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="76"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="1:256" ht="14.5" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="76"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="1:256" ht="14.5" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -5005,88 +5229,88 @@
       <c r="B18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="67" t="s">
+      <c r="D18" s="75"/>
+      <c r="E18" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:256" ht="14.5" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="22"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="68" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="76"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:256" ht="14.5" customHeight="1">
       <c r="A20" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="77"/>
+        <v>230</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="75"/>
+      <c r="E20" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="76"/>
       <c r="I20" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:256" ht="14" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="74"/>
+        <v>265</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:256" ht="14" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="73"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -5338,7 +5562,7 @@
       <c r="IV22" s="36"/>
     </row>
     <row r="24" spans="1:256" ht="14" customHeight="1">
-      <c r="C24" s="78"/>
+      <c r="C24" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5360,19 +5584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="24" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="24" customWidth="1"/>
     <col min="4" max="5" width="23.1640625" style="24" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="24" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="24" customWidth="1"/>
     <col min="9" max="256" width="11.1640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5390,24 +5614,24 @@
         <v>73</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="14.5" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="49">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>361</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>77</v>
@@ -5670,8 +5894,8 @@
     </row>
     <row r="3" spans="1:256" ht="14.5" customHeight="1">
       <c r="A3" s="44"/>
-      <c r="B3" s="49">
-        <v>2</v>
+      <c r="B3" s="49" t="s">
+        <v>304</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>79</v>
@@ -5690,26 +5914,26 @@
     </row>
     <row r="4" spans="1:256" ht="14.5" customHeight="1">
       <c r="A4" s="44"/>
-      <c r="B4" s="49">
-        <v>3</v>
+      <c r="B4" s="49" t="s">
+        <v>362</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:256" ht="14.5" customHeight="1">
       <c r="A5" s="44"/>
-      <c r="B5" s="49">
-        <v>4</v>
+      <c r="B5" s="49" t="s">
+        <v>363</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>82</v>
@@ -5726,19 +5950,19 @@
     </row>
     <row r="6" spans="1:256" ht="14.5" customHeight="1">
       <c r="A6" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="49">
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>308</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="45"/>
@@ -5994,8 +6218,8 @@
     </row>
     <row r="7" spans="1:256" ht="14.5" customHeight="1">
       <c r="A7" s="55"/>
-      <c r="B7" s="49">
-        <v>2</v>
+      <c r="B7" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>82</v>
@@ -6004,7 +6228,7 @@
         <v>83</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
@@ -6262,20 +6486,20 @@
     </row>
     <row r="8" spans="1:256" ht="14.5" customHeight="1">
       <c r="A8" s="55"/>
-      <c r="B8" s="49">
-        <v>3</v>
+      <c r="B8" s="49" t="s">
+        <v>310</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="53"/>
@@ -6529,8 +6753,8 @@
       <c r="IV8" s="36"/>
     </row>
     <row r="9" spans="1:256" ht="14.5" customHeight="1">
-      <c r="B9" s="49">
-        <v>4</v>
+      <c r="B9" s="49" t="s">
+        <v>311</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>77</v>
@@ -6545,11 +6769,11 @@
     </row>
     <row r="10" spans="1:256" ht="14.5" customHeight="1">
       <c r="A10" s="55"/>
-      <c r="B10" s="49">
-        <v>5</v>
+      <c r="B10" s="49" t="s">
+        <v>312</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>80</v>
@@ -6565,11 +6789,11 @@
     </row>
     <row r="11" spans="1:256" ht="14.5" customHeight="1">
       <c r="A11" s="55"/>
-      <c r="B11" s="49">
-        <v>6</v>
+      <c r="B11" s="49" t="s">
+        <v>313</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>10</v>
@@ -6583,8 +6807,8 @@
     </row>
     <row r="12" spans="1:256" ht="14.5" customHeight="1">
       <c r="A12" s="55"/>
-      <c r="B12" s="49">
-        <v>7</v>
+      <c r="B12" s="49" t="s">
+        <v>314</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>82</v>
@@ -6601,13 +6825,13 @@
     </row>
     <row r="13" spans="1:256" ht="14.5" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="44">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>316</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>80</v>
@@ -6615,7 +6839,7 @@
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>81</v>
@@ -6623,11 +6847,11 @@
     </row>
     <row r="14" spans="1:256" ht="14.5" customHeight="1">
       <c r="A14" s="55"/>
-      <c r="B14" s="44">
-        <v>2</v>
+      <c r="B14" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>16</v>
@@ -6638,16 +6862,16 @@
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="14.5" customHeight="1">
       <c r="A15" s="55"/>
-      <c r="B15" s="44">
-        <v>3</v>
+      <c r="B15" s="44" t="s">
+        <v>318</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>16</v>
@@ -6658,36 +6882,36 @@
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="14.5" customHeight="1">
       <c r="A16" s="55"/>
-      <c r="B16" s="44">
-        <v>4</v>
+      <c r="B16" s="44" t="s">
+        <v>319</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:256" ht="14.5" customHeight="1">
       <c r="A17" s="55"/>
-      <c r="B17" s="44">
-        <v>5</v>
+      <c r="B17" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>10</v>
@@ -6700,8 +6924,8 @@
     </row>
     <row r="18" spans="1:256" ht="14.5" customHeight="1">
       <c r="A18" s="55"/>
-      <c r="B18" s="44">
-        <v>6</v>
+      <c r="B18" s="44" t="s">
+        <v>321</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>82</v>
@@ -6713,24 +6937,24 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="H18" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:256" ht="14.5" customHeight="1">
       <c r="A19" s="55"/>
-      <c r="B19" s="44">
-        <v>7</v>
+      <c r="B19" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>81</v>
@@ -6738,14 +6962,14 @@
     </row>
     <row r="20" spans="1:256" ht="14.5" customHeight="1">
       <c r="A20" s="55"/>
-      <c r="B20" s="44">
-        <v>8</v>
+      <c r="B20" s="44" t="s">
+        <v>323</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -7002,14 +7226,14 @@
     </row>
     <row r="21" spans="1:256" ht="14.5" customHeight="1">
       <c r="A21" s="55"/>
-      <c r="B21" s="44">
-        <v>9</v>
+      <c r="B21" s="44" t="s">
+        <v>324</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
@@ -7266,13 +7490,13 @@
     </row>
     <row r="22" spans="1:256" ht="14.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="44">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>326</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>80</v>
@@ -7288,11 +7512,11 @@
     </row>
     <row r="23" spans="1:256" ht="14.5" customHeight="1">
       <c r="A23" s="54"/>
-      <c r="B23" s="44">
-        <v>2</v>
+      <c r="B23" s="44" t="s">
+        <v>327</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>10</v>
@@ -7306,11 +7530,11 @@
     </row>
     <row r="24" spans="1:256" ht="14.5" customHeight="1">
       <c r="A24" s="54"/>
-      <c r="B24" s="44">
-        <v>3</v>
+      <c r="B24" s="44" t="s">
+        <v>328</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>10</v>
@@ -7324,11 +7548,11 @@
     </row>
     <row r="25" spans="1:256" ht="14.5" customHeight="1">
       <c r="A25" s="54"/>
-      <c r="B25" s="44">
-        <v>4</v>
+      <c r="B25" s="44" t="s">
+        <v>329</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>80</v>
@@ -7336,7 +7560,7 @@
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="53" t="s">
         <v>81</v>
@@ -7344,11 +7568,11 @@
     </row>
     <row r="26" spans="1:256" ht="14.5" customHeight="1">
       <c r="A26" s="54"/>
-      <c r="B26" s="44">
-        <v>5</v>
+      <c r="B26" s="44" t="s">
+        <v>330</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>10</v>
@@ -7362,33 +7586,33 @@
     </row>
     <row r="27" spans="1:256" ht="14.5" customHeight="1">
       <c r="A27" s="54"/>
-      <c r="B27" s="44">
-        <v>6</v>
+      <c r="B27" s="44" t="s">
+        <v>331</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="55" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="14.5" customHeight="1">
       <c r="A28" s="54"/>
-      <c r="B28" s="44">
-        <v>7</v>
+      <c r="B28" s="44" t="s">
+        <v>332</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>10</v>
@@ -7402,11 +7626,11 @@
     </row>
     <row r="29" spans="1:256" ht="14.5" customHeight="1">
       <c r="A29" s="54"/>
-      <c r="B29" s="44">
-        <v>8</v>
+      <c r="B29" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="45" t="s">
         <v>10</v>
@@ -7420,11 +7644,11 @@
     </row>
     <row r="30" spans="1:256" ht="14.5" customHeight="1">
       <c r="A30" s="54"/>
-      <c r="B30" s="44">
-        <v>9</v>
+      <c r="B30" s="44" t="s">
+        <v>334</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>83</v>
@@ -7433,38 +7657,38 @@
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="H30" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:256" ht="14.5" customHeight="1">
       <c r="A31" s="54"/>
-      <c r="B31" s="44">
-        <v>10</v>
+      <c r="B31" s="44" t="s">
+        <v>335</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="57" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:256" ht="14.5" customHeight="1">
       <c r="A32" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="44">
-        <v>1</v>
+        <v>336</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>337</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>80</v>
@@ -7472,7 +7696,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="53" t="s">
         <v>81</v>
@@ -7480,31 +7704,31 @@
     </row>
     <row r="33" spans="1:8" ht="14.5" customHeight="1">
       <c r="A33" s="54"/>
-      <c r="B33" s="44">
-        <v>2</v>
+      <c r="B33" s="44" t="s">
+        <v>338</v>
       </c>
       <c r="C33" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="E33" s="55" t="s">
         <v>114</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>115</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="H33" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1">
       <c r="A34" s="54"/>
-      <c r="B34" s="44">
-        <v>3</v>
+      <c r="B34" s="44" t="s">
+        <v>339</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>10</v>
@@ -7518,8 +7742,8 @@
     </row>
     <row r="35" spans="1:8" ht="14.5" customHeight="1">
       <c r="A35" s="54"/>
-      <c r="B35" s="44">
-        <v>4</v>
+      <c r="B35" s="44" t="s">
+        <v>340</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>82</v>
@@ -7536,21 +7760,21 @@
     </row>
     <row r="36" spans="1:8" ht="14.5" customHeight="1">
       <c r="A36" s="54"/>
-      <c r="B36" s="44">
-        <v>5</v>
+      <c r="B36" s="44" t="s">
+        <v>341</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" s="53" t="s">
         <v>81</v>
@@ -7558,21 +7782,21 @@
     </row>
     <row r="37" spans="1:8" ht="14.5" customHeight="1">
       <c r="A37" s="54"/>
-      <c r="B37" s="44">
-        <v>6</v>
+      <c r="B37" s="44" t="s">
+        <v>342</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>81</v>
@@ -7580,11 +7804,11 @@
     </row>
     <row r="38" spans="1:8" ht="14.5" customHeight="1">
       <c r="A38" s="54"/>
-      <c r="B38" s="44">
-        <v>7</v>
+      <c r="B38" s="44" t="s">
+        <v>343</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>16</v>
@@ -7595,16 +7819,16 @@
       </c>
       <c r="G38" s="54"/>
       <c r="H38" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.5" customHeight="1">
       <c r="A39" s="54"/>
-      <c r="B39" s="44">
-        <v>8</v>
+      <c r="B39" s="44" t="s">
+        <v>344</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>16</v>
@@ -7615,22 +7839,22 @@
       </c>
       <c r="G39" s="54"/>
       <c r="H39" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.5" customHeight="1">
       <c r="A40" s="54"/>
-      <c r="B40" s="44">
-        <v>9</v>
+      <c r="B40" s="44" t="s">
+        <v>345</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="E40" s="55" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>95</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -7638,8 +7862,8 @@
     </row>
     <row r="41" spans="1:8" ht="14.5" customHeight="1">
       <c r="A41" s="54"/>
-      <c r="B41" s="44">
-        <v>10</v>
+      <c r="B41" s="44" t="s">
+        <v>346</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>82</v>
@@ -7651,16 +7875,16 @@
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" customHeight="1">
       <c r="A42" s="54"/>
-      <c r="B42" s="44">
-        <v>11</v>
+      <c r="B42" s="44" t="s">
+        <v>347</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>10</v>
@@ -7674,8 +7898,8 @@
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1">
       <c r="A43" s="54"/>
-      <c r="B43" s="44">
-        <v>12</v>
+      <c r="B43" s="44" t="s">
+        <v>348</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>82</v>
@@ -7687,16 +7911,16 @@
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="H43" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.5" customHeight="1">
       <c r="A44" s="54"/>
-      <c r="B44" s="44">
-        <v>13</v>
+      <c r="B44" s="44" t="s">
+        <v>349</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D44" s="45" t="s">
         <v>80</v>
@@ -7704,21 +7928,21 @@
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.5" customHeight="1">
       <c r="A45" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="44">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>351</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>80</v>
@@ -7734,11 +7958,11 @@
     </row>
     <row r="46" spans="1:8" ht="14.5" customHeight="1">
       <c r="A46" s="54"/>
-      <c r="B46" s="44">
-        <v>2</v>
+      <c r="B46" s="44" t="s">
+        <v>352</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" s="45" t="s">
         <v>10</v>
@@ -7752,11 +7976,11 @@
     </row>
     <row r="47" spans="1:8" ht="14.5" customHeight="1">
       <c r="A47" s="54"/>
-      <c r="B47" s="44">
-        <v>3</v>
+      <c r="B47" s="44" t="s">
+        <v>353</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="45" t="s">
         <v>10</v>
@@ -7770,11 +7994,11 @@
     </row>
     <row r="48" spans="1:8" ht="14.5" customHeight="1">
       <c r="A48" s="54"/>
-      <c r="B48" s="44">
-        <v>4</v>
+      <c r="B48" s="44" t="s">
+        <v>354</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>80</v>
@@ -7782,7 +8006,7 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>81</v>
@@ -7790,11 +8014,11 @@
     </row>
     <row r="49" spans="1:8" ht="14.5" customHeight="1">
       <c r="A49" s="54"/>
-      <c r="B49" s="44">
-        <v>5</v>
+      <c r="B49" s="44" t="s">
+        <v>355</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="45" t="s">
         <v>10</v>
@@ -7808,33 +8032,33 @@
     </row>
     <row r="50" spans="1:8" ht="14.5" customHeight="1">
       <c r="A50" s="54"/>
-      <c r="B50" s="44">
-        <v>6</v>
+      <c r="B50" s="44" t="s">
+        <v>356</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="54"/>
       <c r="H50" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1">
       <c r="A51" s="54"/>
-      <c r="B51" s="44">
-        <v>7</v>
+      <c r="B51" s="44" t="s">
+        <v>357</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>10</v>
@@ -7848,11 +8072,11 @@
     </row>
     <row r="52" spans="1:8" ht="14.5" customHeight="1">
       <c r="A52" s="54"/>
-      <c r="B52" s="44">
-        <v>8</v>
+      <c r="B52" s="44" t="s">
+        <v>358</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="45" t="s">
         <v>10</v>
@@ -7866,8 +8090,8 @@
     </row>
     <row r="53" spans="1:8" ht="14.5" customHeight="1">
       <c r="A53" s="54"/>
-      <c r="B53" s="44">
-        <v>9</v>
+      <c r="B53" s="44" t="s">
+        <v>359</v>
       </c>
       <c r="C53" s="45" t="s">
         <v>82</v>
@@ -7879,27 +8103,27 @@
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" customHeight="1">
       <c r="A54" s="58"/>
-      <c r="B54" s="59">
-        <v>10</v>
-      </c>
-      <c r="C54" s="60" t="s">
+      <c r="B54" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="60" t="s">
         <v>108</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>109</v>
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="H54" s="62" t="s">
-        <v>110</v>
+      <c r="G54" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="61" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7919,11 +8143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -7941,22 +8165,22 @@
   <sheetData>
     <row r="1" spans="1:255" ht="28" customHeight="1">
       <c r="A1" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>75</v>
@@ -7967,22 +8191,22 @@
     </row>
     <row r="2" spans="1:255" ht="14.5" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="B2" s="44">
         <v>1</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>125</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>126</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
       <c r="G2" s="47"/>
       <c r="H2" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -8234,7 +8458,7 @@
     </row>
     <row r="3" spans="1:255" ht="14.5" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B3" s="44">
         <v>2</v>
@@ -8243,37 +8467,37 @@
         <v>28</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="14.5" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B4" s="44">
         <v>1</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
@@ -8525,26 +8749,26 @@
     </row>
     <row r="5" spans="1:255" ht="14.5" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B5" s="44">
         <v>1</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="46" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
@@ -8796,24 +9020,24 @@
     </row>
     <row r="6" spans="1:255" ht="14.5" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B6" s="44">
         <v>1</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
@@ -9065,24 +9289,24 @@
     </row>
     <row r="7" spans="1:255" ht="14.5" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
@@ -9334,24 +9558,24 @@
     </row>
     <row r="8" spans="1:255" ht="14.5" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B8" s="44">
         <v>1</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
@@ -9608,6 +9832,7 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9640,22 +9865,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>25</v>
@@ -9667,24 +9892,24 @@
         <v>27</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.5" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -9705,10 +9930,10 @@
     <row r="3" spans="1:12" ht="14.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -9729,10 +9954,10 @@
     <row r="4" spans="1:12" ht="14.5" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -9753,10 +9978,10 @@
     <row r="5" spans="1:12" ht="14.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -9777,10 +10002,10 @@
     <row r="6" spans="1:12" ht="14.5" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -9801,7 +10026,7 @@
     <row r="7" spans="1:12" ht="14.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>77</v>
@@ -9821,10 +10046,10 @@
     <row r="8" spans="1:12" ht="14.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12" t="s">
@@ -9832,11 +10057,11 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -9845,14 +10070,14 @@
     <row r="9" spans="1:12" ht="14.5" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="12" t="s">
@@ -9869,10 +10094,10 @@
     <row r="10" spans="1:12" ht="14.5" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12"/>
@@ -9880,7 +10105,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="14"/>
       <c r="I10" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -9888,10 +10113,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>77</v>
@@ -9911,10 +10136,10 @@
     <row r="12" spans="1:12" ht="14.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -9935,10 +10160,10 @@
     <row r="13" spans="1:12" ht="14.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>15</v>
@@ -9959,10 +10184,10 @@
     <row r="14" spans="1:12" ht="14.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>15</v>
@@ -9972,7 +10197,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
@@ -9985,10 +10210,10 @@
     <row r="15" spans="1:12" ht="14.5" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>15</v>
@@ -10009,10 +10234,10 @@
     <row r="16" spans="1:12" ht="14.5" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>15</v>
@@ -10022,7 +10247,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -10194,22 +10419,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1">
       <c r="A1" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>238</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>242</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>75</v>
@@ -10220,26 +10445,26 @@
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2" s="29">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="H2" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="29">
         <v>2</v>
@@ -10248,27 +10473,27 @@
         <v>28</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -10277,236 +10502,236 @@
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="29">
         <v>1</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="29">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B14" s="29">
         <v>1</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B15" s="29">
         <v>1</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -10515,16 +10740,16 @@
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B16" s="29">
         <v>1</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -10533,86 +10758,86 @@
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B17" s="29">
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B18" s="29">
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B19" s="29">
         <v>1</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B20" s="29">
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -10645,16 +10870,16 @@
   <sheetData>
     <row r="1" spans="1:256" ht="14" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="29">
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -10664,47 +10889,47 @@
     </row>
     <row r="2" spans="1:256" ht="14" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B2" s="29">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="IV2"/>
     </row>
     <row r="3" spans="1:256" ht="14" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -10957,24 +11182,24 @@
     </row>
     <row r="4" spans="1:256" ht="14" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
@@ -11227,24 +11452,24 @@
     </row>
     <row r="5" spans="1:256" ht="14" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>

--- a/TestCase/Excel/TestCase.xlsx
+++ b/TestCase/Excel/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文档介绍" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="342">
   <si>
     <t>支持定位方式</t>
   </si>
@@ -1222,89 +1222,9 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertTrueCheckPlugin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_YYG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元GO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_02_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动集合页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_HDJHY_0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_HDJHY_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkplugin_PA01100000000_02_HDJHY_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件,正常场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件，插件不存在</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查插件，断言失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动集合1页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA01100000000_01_HDJHY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ClickMsgCenter_2</t>
   </si>
   <si>
-    <t>checkplugin_PA01100000000_02_PAZB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ClickMsgCenter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1504,6 +1424,10 @@
   </si>
   <si>
     <t>PA01100000000_02_RYG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1954,8 +1878,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="303">
+  <cellStyleXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3068,7 +3010,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="303">
+  <cellStyles count="309">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3220,6 +3162,9 @@
     <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3371,6 +3316,9 @@
     <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5659,20 +5607,20 @@
     </row>
     <row r="23" spans="1:256" ht="14" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>225</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="67" t="s">
         <v>215</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:256" ht="14" customHeight="1">
@@ -5742,10 +5690,10 @@
     </row>
     <row r="2" spans="1:256" ht="14.5" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>77</v>
@@ -6009,7 +5957,7 @@
     <row r="3" spans="1:256" ht="14.5" customHeight="1">
       <c r="A3" s="43"/>
       <c r="B3" s="48" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>79</v>
@@ -6029,7 +5977,7 @@
     <row r="4" spans="1:256" ht="14.5" customHeight="1">
       <c r="A4" s="43"/>
       <c r="B4" s="48" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>235</v>
@@ -6047,7 +5995,7 @@
     <row r="5" spans="1:256" ht="14.5" customHeight="1">
       <c r="A5" s="43"/>
       <c r="B5" s="48" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>82</v>
@@ -6064,10 +6012,10 @@
     </row>
     <row r="6" spans="1:256" ht="14.5" customHeight="1">
       <c r="A6" s="54" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>254</v>
@@ -6333,7 +6281,7 @@
     <row r="7" spans="1:256" ht="14.5" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="48" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>82</v>
@@ -6601,7 +6549,7 @@
     <row r="8" spans="1:256" ht="14.5" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="48" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>252</v>
@@ -6868,7 +6816,7 @@
     </row>
     <row r="9" spans="1:256" ht="14.5" customHeight="1">
       <c r="B9" s="48" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>77</v>
@@ -6884,7 +6832,7 @@
     <row r="10" spans="1:256" ht="14.5" customHeight="1">
       <c r="A10" s="54"/>
       <c r="B10" s="48" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>85</v>
@@ -6904,7 +6852,7 @@
     <row r="11" spans="1:256" ht="14.5" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="48" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>86</v>
@@ -6922,7 +6870,7 @@
     <row r="12" spans="1:256" ht="14.5" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="48" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>82</v>
@@ -6939,10 +6887,10 @@
     </row>
     <row r="13" spans="1:256" ht="14.5" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>88</v>
@@ -6962,7 +6910,7 @@
     <row r="14" spans="1:256" ht="14.5" customHeight="1">
       <c r="A14" s="54"/>
       <c r="B14" s="43" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>90</v>
@@ -6982,7 +6930,7 @@
     <row r="15" spans="1:256" ht="14.5" customHeight="1">
       <c r="A15" s="54"/>
       <c r="B15" s="43" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>91</v>
@@ -7002,7 +6950,7 @@
     <row r="16" spans="1:256" ht="14.5" customHeight="1">
       <c r="A16" s="54"/>
       <c r="B16" s="43" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>165</v>
@@ -7022,7 +6970,7 @@
     <row r="17" spans="1:256" ht="14.5" customHeight="1">
       <c r="A17" s="54"/>
       <c r="B17" s="43" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>95</v>
@@ -7039,7 +6987,7 @@
     <row r="18" spans="1:256" ht="14.5" customHeight="1">
       <c r="A18" s="54"/>
       <c r="B18" s="43" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>82</v>
@@ -7057,7 +7005,7 @@
     <row r="19" spans="1:256" ht="14.5" customHeight="1">
       <c r="A19" s="54"/>
       <c r="B19" s="43" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>184</v>
@@ -7077,7 +7025,7 @@
     <row r="20" spans="1:256" ht="14.5" customHeight="1">
       <c r="A20" s="54"/>
       <c r="B20" s="43" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>172</v>
@@ -7341,7 +7289,7 @@
     <row r="21" spans="1:256" ht="14.5" customHeight="1">
       <c r="A21" s="54"/>
       <c r="B21" s="43" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>173</v>
@@ -7604,10 +7552,10 @@
     </row>
     <row r="22" spans="1:256" ht="14.5" customHeight="1">
       <c r="A22" s="54" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>97</v>
@@ -7627,7 +7575,7 @@
     <row r="23" spans="1:256" ht="14.5" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="43" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>98</v>
@@ -7645,7 +7593,7 @@
     <row r="24" spans="1:256" ht="14.5" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="43" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>99</v>
@@ -7663,7 +7611,7 @@
     <row r="25" spans="1:256" ht="14.5" customHeight="1">
       <c r="A25" s="53"/>
       <c r="B25" s="43" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>100</v>
@@ -7683,7 +7631,7 @@
     <row r="26" spans="1:256" ht="14.5" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="43" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>102</v>
@@ -7701,7 +7649,7 @@
     <row r="27" spans="1:256" ht="14.5" customHeight="1">
       <c r="A27" s="53"/>
       <c r="B27" s="43" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>103</v>
@@ -7723,7 +7671,7 @@
     <row r="28" spans="1:256" ht="14.5" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="43" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>105</v>
@@ -7741,7 +7689,7 @@
     <row r="29" spans="1:256" ht="14.5" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="43" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>106</v>
@@ -7759,7 +7707,7 @@
     <row r="30" spans="1:256" ht="14.5" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="43" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>220</v>
@@ -7777,7 +7725,7 @@
     <row r="31" spans="1:256" ht="14.5" customHeight="1">
       <c r="A31" s="53"/>
       <c r="B31" s="43" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>221</v>
@@ -7796,10 +7744,10 @@
     </row>
     <row r="32" spans="1:256" ht="14.5" customHeight="1">
       <c r="A32" s="54" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>110</v>
@@ -7819,7 +7767,7 @@
     <row r="33" spans="1:8" ht="14.5" customHeight="1">
       <c r="A33" s="53"/>
       <c r="B33" s="43" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>112</v>
@@ -7839,7 +7787,7 @@
     <row r="34" spans="1:8" ht="14.5" customHeight="1">
       <c r="A34" s="53"/>
       <c r="B34" s="43" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>116</v>
@@ -7857,7 +7805,7 @@
     <row r="35" spans="1:8" ht="14.5" customHeight="1">
       <c r="A35" s="53"/>
       <c r="B35" s="43" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>82</v>
@@ -7875,7 +7823,7 @@
     <row r="36" spans="1:8" ht="14.5" customHeight="1">
       <c r="A36" s="53"/>
       <c r="B36" s="43" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>117</v>
@@ -7897,7 +7845,7 @@
     <row r="37" spans="1:8" ht="14.5" customHeight="1">
       <c r="A37" s="53"/>
       <c r="B37" s="43" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>119</v>
@@ -7919,7 +7867,7 @@
     <row r="38" spans="1:8" ht="14.5" customHeight="1">
       <c r="A38" s="53"/>
       <c r="B38" s="43" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>90</v>
@@ -7939,7 +7887,7 @@
     <row r="39" spans="1:8" ht="14.5" customHeight="1">
       <c r="A39" s="53"/>
       <c r="B39" s="43" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>91</v>
@@ -7959,7 +7907,7 @@
     <row r="40" spans="1:8" ht="14.5" customHeight="1">
       <c r="A40" s="53"/>
       <c r="B40" s="43" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>92</v>
@@ -7977,7 +7925,7 @@
     <row r="41" spans="1:8" ht="14.5" customHeight="1">
       <c r="A41" s="53"/>
       <c r="B41" s="43" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>82</v>
@@ -7995,7 +7943,7 @@
     <row r="42" spans="1:8" ht="14.5" customHeight="1">
       <c r="A42" s="53"/>
       <c r="B42" s="43" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>116</v>
@@ -8013,7 +7961,7 @@
     <row r="43" spans="1:8" ht="14.5" customHeight="1">
       <c r="A43" s="53"/>
       <c r="B43" s="43" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>82</v>
@@ -8031,7 +7979,7 @@
     <row r="44" spans="1:8" ht="14.5" customHeight="1">
       <c r="A44" s="53"/>
       <c r="B44" s="43" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>217</v>
@@ -8050,10 +7998,10 @@
     </row>
     <row r="45" spans="1:8" ht="14.5" customHeight="1">
       <c r="A45" s="54" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>122</v>
@@ -8073,7 +8021,7 @@
     <row r="46" spans="1:8" ht="14.5" customHeight="1">
       <c r="A46" s="53"/>
       <c r="B46" s="43" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>123</v>
@@ -8091,7 +8039,7 @@
     <row r="47" spans="1:8" ht="14.5" customHeight="1">
       <c r="A47" s="53"/>
       <c r="B47" s="43" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>99</v>
@@ -8109,7 +8057,7 @@
     <row r="48" spans="1:8" ht="14.5" customHeight="1">
       <c r="A48" s="53"/>
       <c r="B48" s="43" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>100</v>
@@ -8129,7 +8077,7 @@
     <row r="49" spans="1:8" ht="14.5" customHeight="1">
       <c r="A49" s="53"/>
       <c r="B49" s="43" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>102</v>
@@ -8147,7 +8095,7 @@
     <row r="50" spans="1:8" ht="14.5" customHeight="1">
       <c r="A50" s="53"/>
       <c r="B50" s="43" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C50" s="44" t="s">
         <v>103</v>
@@ -8169,7 +8117,7 @@
     <row r="51" spans="1:8" ht="14.5" customHeight="1">
       <c r="A51" s="53"/>
       <c r="B51" s="43" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>105</v>
@@ -8187,7 +8135,7 @@
     <row r="52" spans="1:8" ht="14.5" customHeight="1">
       <c r="A52" s="53"/>
       <c r="B52" s="43" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C52" s="44" t="s">
         <v>106</v>
@@ -8205,7 +8153,7 @@
     <row r="53" spans="1:8" ht="14.5" customHeight="1">
       <c r="A53" s="53"/>
       <c r="B53" s="43" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C53" s="44" t="s">
         <v>82</v>
@@ -8223,7 +8171,7 @@
     <row r="54" spans="1:8" ht="14.5" customHeight="1">
       <c r="A54" s="57"/>
       <c r="B54" s="43" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>107</v>
@@ -8259,10 +8207,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU8"/>
+  <dimension ref="A1:IU5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -8306,7 +8254,7 @@
     </row>
     <row r="2" spans="1:255" ht="14.5" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B2" s="43">
         <v>1</v>
@@ -8591,1354 +8539,45 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="14.5" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="43">
+    <row r="4" spans="1:255" ht="14" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35"/>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35"/>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35"/>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35"/>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35"/>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35"/>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
-      <c r="FO4" s="35"/>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35"/>
-      <c r="GA4" s="35"/>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35"/>
-      <c r="GM4" s="35"/>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35"/>
-      <c r="GY4" s="35"/>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35"/>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35"/>
-      <c r="HK4" s="35"/>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="35"/>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="35"/>
-      <c r="IG4" s="35"/>
-      <c r="IH4" s="35"/>
-      <c r="II4" s="35"/>
-      <c r="IJ4" s="35"/>
-      <c r="IK4" s="35"/>
-      <c r="IL4" s="35"/>
-      <c r="IM4" s="35"/>
-      <c r="IN4" s="35"/>
-      <c r="IO4" s="35"/>
-      <c r="IP4" s="35"/>
-      <c r="IQ4" s="35"/>
-      <c r="IR4" s="35"/>
-      <c r="IS4" s="35"/>
-      <c r="IT4" s="35"/>
-      <c r="IU4" s="35"/>
-    </row>
-    <row r="5" spans="1:255" ht="14.5" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="43">
+      <c r="C4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:255" ht="14" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="35"/>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="35"/>
-      <c r="BC5" s="35"/>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="35"/>
-      <c r="BF5" s="35"/>
-      <c r="BG5" s="35"/>
-      <c r="BH5" s="35"/>
-      <c r="BI5" s="35"/>
-      <c r="BJ5" s="35"/>
-      <c r="BK5" s="35"/>
-      <c r="BL5" s="35"/>
-      <c r="BM5" s="35"/>
-      <c r="BN5" s="35"/>
-      <c r="BO5" s="35"/>
-      <c r="BP5" s="35"/>
-      <c r="BQ5" s="35"/>
-      <c r="BR5" s="35"/>
-      <c r="BS5" s="35"/>
-      <c r="BT5" s="35"/>
-      <c r="BU5" s="35"/>
-      <c r="BV5" s="35"/>
-      <c r="BW5" s="35"/>
-      <c r="BX5" s="35"/>
-      <c r="BY5" s="35"/>
-      <c r="BZ5" s="35"/>
-      <c r="CA5" s="35"/>
-      <c r="CB5" s="35"/>
-      <c r="CC5" s="35"/>
-      <c r="CD5" s="35"/>
-      <c r="CE5" s="35"/>
-      <c r="CF5" s="35"/>
-      <c r="CG5" s="35"/>
-      <c r="CH5" s="35"/>
-      <c r="CI5" s="35"/>
-      <c r="CJ5" s="35"/>
-      <c r="CK5" s="35"/>
-      <c r="CL5" s="35"/>
-      <c r="CM5" s="35"/>
-      <c r="CN5" s="35"/>
-      <c r="CO5" s="35"/>
-      <c r="CP5" s="35"/>
-      <c r="CQ5" s="35"/>
-      <c r="CR5" s="35"/>
-      <c r="CS5" s="35"/>
-      <c r="CT5" s="35"/>
-      <c r="CU5" s="35"/>
-      <c r="CV5" s="35"/>
-      <c r="CW5" s="35"/>
-      <c r="CX5" s="35"/>
-      <c r="CY5" s="35"/>
-      <c r="CZ5" s="35"/>
-      <c r="DA5" s="35"/>
-      <c r="DB5" s="35"/>
-      <c r="DC5" s="35"/>
-      <c r="DD5" s="35"/>
-      <c r="DE5" s="35"/>
-      <c r="DF5" s="35"/>
-      <c r="DG5" s="35"/>
-      <c r="DH5" s="35"/>
-      <c r="DI5" s="35"/>
-      <c r="DJ5" s="35"/>
-      <c r="DK5" s="35"/>
-      <c r="DL5" s="35"/>
-      <c r="DM5" s="35"/>
-      <c r="DN5" s="35"/>
-      <c r="DO5" s="35"/>
-      <c r="DP5" s="35"/>
-      <c r="DQ5" s="35"/>
-      <c r="DR5" s="35"/>
-      <c r="DS5" s="35"/>
-      <c r="DT5" s="35"/>
-      <c r="DU5" s="35"/>
-      <c r="DV5" s="35"/>
-      <c r="DW5" s="35"/>
-      <c r="DX5" s="35"/>
-      <c r="DY5" s="35"/>
-      <c r="DZ5" s="35"/>
-      <c r="EA5" s="35"/>
-      <c r="EB5" s="35"/>
-      <c r="EC5" s="35"/>
-      <c r="ED5" s="35"/>
-      <c r="EE5" s="35"/>
-      <c r="EF5" s="35"/>
-      <c r="EG5" s="35"/>
-      <c r="EH5" s="35"/>
-      <c r="EI5" s="35"/>
-      <c r="EJ5" s="35"/>
-      <c r="EK5" s="35"/>
-      <c r="EL5" s="35"/>
-      <c r="EM5" s="35"/>
-      <c r="EN5" s="35"/>
-      <c r="EO5" s="35"/>
-      <c r="EP5" s="35"/>
-      <c r="EQ5" s="35"/>
-      <c r="ER5" s="35"/>
-      <c r="ES5" s="35"/>
-      <c r="ET5" s="35"/>
-      <c r="EU5" s="35"/>
-      <c r="EV5" s="35"/>
-      <c r="EW5" s="35"/>
-      <c r="EX5" s="35"/>
-      <c r="EY5" s="35"/>
-      <c r="EZ5" s="35"/>
-      <c r="FA5" s="35"/>
-      <c r="FB5" s="35"/>
-      <c r="FC5" s="35"/>
-      <c r="FD5" s="35"/>
-      <c r="FE5" s="35"/>
-      <c r="FF5" s="35"/>
-      <c r="FG5" s="35"/>
-      <c r="FH5" s="35"/>
-      <c r="FI5" s="35"/>
-      <c r="FJ5" s="35"/>
-      <c r="FK5" s="35"/>
-      <c r="FL5" s="35"/>
-      <c r="FM5" s="35"/>
-      <c r="FN5" s="35"/>
-      <c r="FO5" s="35"/>
-      <c r="FP5" s="35"/>
-      <c r="FQ5" s="35"/>
-      <c r="FR5" s="35"/>
-      <c r="FS5" s="35"/>
-      <c r="FT5" s="35"/>
-      <c r="FU5" s="35"/>
-      <c r="FV5" s="35"/>
-      <c r="FW5" s="35"/>
-      <c r="FX5" s="35"/>
-      <c r="FY5" s="35"/>
-      <c r="FZ5" s="35"/>
-      <c r="GA5" s="35"/>
-      <c r="GB5" s="35"/>
-      <c r="GC5" s="35"/>
-      <c r="GD5" s="35"/>
-      <c r="GE5" s="35"/>
-      <c r="GF5" s="35"/>
-      <c r="GG5" s="35"/>
-      <c r="GH5" s="35"/>
-      <c r="GI5" s="35"/>
-      <c r="GJ5" s="35"/>
-      <c r="GK5" s="35"/>
-      <c r="GL5" s="35"/>
-      <c r="GM5" s="35"/>
-      <c r="GN5" s="35"/>
-      <c r="GO5" s="35"/>
-      <c r="GP5" s="35"/>
-      <c r="GQ5" s="35"/>
-      <c r="GR5" s="35"/>
-      <c r="GS5" s="35"/>
-      <c r="GT5" s="35"/>
-      <c r="GU5" s="35"/>
-      <c r="GV5" s="35"/>
-      <c r="GW5" s="35"/>
-      <c r="GX5" s="35"/>
-      <c r="GY5" s="35"/>
-      <c r="GZ5" s="35"/>
-      <c r="HA5" s="35"/>
-      <c r="HB5" s="35"/>
-      <c r="HC5" s="35"/>
-      <c r="HD5" s="35"/>
-      <c r="HE5" s="35"/>
-      <c r="HF5" s="35"/>
-      <c r="HG5" s="35"/>
-      <c r="HH5" s="35"/>
-      <c r="HI5" s="35"/>
-      <c r="HJ5" s="35"/>
-      <c r="HK5" s="35"/>
-      <c r="HL5" s="35"/>
-      <c r="HM5" s="35"/>
-      <c r="HN5" s="35"/>
-      <c r="HO5" s="35"/>
-      <c r="HP5" s="35"/>
-      <c r="HQ5" s="35"/>
-      <c r="HR5" s="35"/>
-      <c r="HS5" s="35"/>
-      <c r="HT5" s="35"/>
-      <c r="HU5" s="35"/>
-      <c r="HV5" s="35"/>
-      <c r="HW5" s="35"/>
-      <c r="HX5" s="35"/>
-      <c r="HY5" s="35"/>
-      <c r="HZ5" s="35"/>
-      <c r="IA5" s="35"/>
-      <c r="IB5" s="35"/>
-      <c r="IC5" s="35"/>
-      <c r="ID5" s="35"/>
-      <c r="IE5" s="35"/>
-      <c r="IF5" s="35"/>
-      <c r="IG5" s="35"/>
-      <c r="IH5" s="35"/>
-      <c r="II5" s="35"/>
-      <c r="IJ5" s="35"/>
-      <c r="IK5" s="35"/>
-      <c r="IL5" s="35"/>
-      <c r="IM5" s="35"/>
-      <c r="IN5" s="35"/>
-      <c r="IO5" s="35"/>
-      <c r="IP5" s="35"/>
-      <c r="IQ5" s="35"/>
-      <c r="IR5" s="35"/>
-      <c r="IS5" s="35"/>
-      <c r="IT5" s="35"/>
-      <c r="IU5" s="35"/>
-    </row>
-    <row r="6" spans="1:255" ht="14.5" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="43">
-        <v>1</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="35"/>
-      <c r="CG6" s="35"/>
-      <c r="CH6" s="35"/>
-      <c r="CI6" s="35"/>
-      <c r="CJ6" s="35"/>
-      <c r="CK6" s="35"/>
-      <c r="CL6" s="35"/>
-      <c r="CM6" s="35"/>
-      <c r="CN6" s="35"/>
-      <c r="CO6" s="35"/>
-      <c r="CP6" s="35"/>
-      <c r="CQ6" s="35"/>
-      <c r="CR6" s="35"/>
-      <c r="CS6" s="35"/>
-      <c r="CT6" s="35"/>
-      <c r="CU6" s="35"/>
-      <c r="CV6" s="35"/>
-      <c r="CW6" s="35"/>
-      <c r="CX6" s="35"/>
-      <c r="CY6" s="35"/>
-      <c r="CZ6" s="35"/>
-      <c r="DA6" s="35"/>
-      <c r="DB6" s="35"/>
-      <c r="DC6" s="35"/>
-      <c r="DD6" s="35"/>
-      <c r="DE6" s="35"/>
-      <c r="DF6" s="35"/>
-      <c r="DG6" s="35"/>
-      <c r="DH6" s="35"/>
-      <c r="DI6" s="35"/>
-      <c r="DJ6" s="35"/>
-      <c r="DK6" s="35"/>
-      <c r="DL6" s="35"/>
-      <c r="DM6" s="35"/>
-      <c r="DN6" s="35"/>
-      <c r="DO6" s="35"/>
-      <c r="DP6" s="35"/>
-      <c r="DQ6" s="35"/>
-      <c r="DR6" s="35"/>
-      <c r="DS6" s="35"/>
-      <c r="DT6" s="35"/>
-      <c r="DU6" s="35"/>
-      <c r="DV6" s="35"/>
-      <c r="DW6" s="35"/>
-      <c r="DX6" s="35"/>
-      <c r="DY6" s="35"/>
-      <c r="DZ6" s="35"/>
-      <c r="EA6" s="35"/>
-      <c r="EB6" s="35"/>
-      <c r="EC6" s="35"/>
-      <c r="ED6" s="35"/>
-      <c r="EE6" s="35"/>
-      <c r="EF6" s="35"/>
-      <c r="EG6" s="35"/>
-      <c r="EH6" s="35"/>
-      <c r="EI6" s="35"/>
-      <c r="EJ6" s="35"/>
-      <c r="EK6" s="35"/>
-      <c r="EL6" s="35"/>
-      <c r="EM6" s="35"/>
-      <c r="EN6" s="35"/>
-      <c r="EO6" s="35"/>
-      <c r="EP6" s="35"/>
-      <c r="EQ6" s="35"/>
-      <c r="ER6" s="35"/>
-      <c r="ES6" s="35"/>
-      <c r="ET6" s="35"/>
-      <c r="EU6" s="35"/>
-      <c r="EV6" s="35"/>
-      <c r="EW6" s="35"/>
-      <c r="EX6" s="35"/>
-      <c r="EY6" s="35"/>
-      <c r="EZ6" s="35"/>
-      <c r="FA6" s="35"/>
-      <c r="FB6" s="35"/>
-      <c r="FC6" s="35"/>
-      <c r="FD6" s="35"/>
-      <c r="FE6" s="35"/>
-      <c r="FF6" s="35"/>
-      <c r="FG6" s="35"/>
-      <c r="FH6" s="35"/>
-      <c r="FI6" s="35"/>
-      <c r="FJ6" s="35"/>
-      <c r="FK6" s="35"/>
-      <c r="FL6" s="35"/>
-      <c r="FM6" s="35"/>
-      <c r="FN6" s="35"/>
-      <c r="FO6" s="35"/>
-      <c r="FP6" s="35"/>
-      <c r="FQ6" s="35"/>
-      <c r="FR6" s="35"/>
-      <c r="FS6" s="35"/>
-      <c r="FT6" s="35"/>
-      <c r="FU6" s="35"/>
-      <c r="FV6" s="35"/>
-      <c r="FW6" s="35"/>
-      <c r="FX6" s="35"/>
-      <c r="FY6" s="35"/>
-      <c r="FZ6" s="35"/>
-      <c r="GA6" s="35"/>
-      <c r="GB6" s="35"/>
-      <c r="GC6" s="35"/>
-      <c r="GD6" s="35"/>
-      <c r="GE6" s="35"/>
-      <c r="GF6" s="35"/>
-      <c r="GG6" s="35"/>
-      <c r="GH6" s="35"/>
-      <c r="GI6" s="35"/>
-      <c r="GJ6" s="35"/>
-      <c r="GK6" s="35"/>
-      <c r="GL6" s="35"/>
-      <c r="GM6" s="35"/>
-      <c r="GN6" s="35"/>
-      <c r="GO6" s="35"/>
-      <c r="GP6" s="35"/>
-      <c r="GQ6" s="35"/>
-      <c r="GR6" s="35"/>
-      <c r="GS6" s="35"/>
-      <c r="GT6" s="35"/>
-      <c r="GU6" s="35"/>
-      <c r="GV6" s="35"/>
-      <c r="GW6" s="35"/>
-      <c r="GX6" s="35"/>
-      <c r="GY6" s="35"/>
-      <c r="GZ6" s="35"/>
-      <c r="HA6" s="35"/>
-      <c r="HB6" s="35"/>
-      <c r="HC6" s="35"/>
-      <c r="HD6" s="35"/>
-      <c r="HE6" s="35"/>
-      <c r="HF6" s="35"/>
-      <c r="HG6" s="35"/>
-      <c r="HH6" s="35"/>
-      <c r="HI6" s="35"/>
-      <c r="HJ6" s="35"/>
-      <c r="HK6" s="35"/>
-      <c r="HL6" s="35"/>
-      <c r="HM6" s="35"/>
-      <c r="HN6" s="35"/>
-      <c r="HO6" s="35"/>
-      <c r="HP6" s="35"/>
-      <c r="HQ6" s="35"/>
-      <c r="HR6" s="35"/>
-      <c r="HS6" s="35"/>
-      <c r="HT6" s="35"/>
-      <c r="HU6" s="35"/>
-      <c r="HV6" s="35"/>
-      <c r="HW6" s="35"/>
-      <c r="HX6" s="35"/>
-      <c r="HY6" s="35"/>
-      <c r="HZ6" s="35"/>
-      <c r="IA6" s="35"/>
-      <c r="IB6" s="35"/>
-      <c r="IC6" s="35"/>
-      <c r="ID6" s="35"/>
-      <c r="IE6" s="35"/>
-      <c r="IF6" s="35"/>
-      <c r="IG6" s="35"/>
-      <c r="IH6" s="35"/>
-      <c r="II6" s="35"/>
-      <c r="IJ6" s="35"/>
-      <c r="IK6" s="35"/>
-      <c r="IL6" s="35"/>
-      <c r="IM6" s="35"/>
-      <c r="IN6" s="35"/>
-      <c r="IO6" s="35"/>
-      <c r="IP6" s="35"/>
-      <c r="IQ6" s="35"/>
-      <c r="IR6" s="35"/>
-      <c r="IS6" s="35"/>
-      <c r="IT6" s="35"/>
-      <c r="IU6" s="35"/>
-    </row>
-    <row r="7" spans="1:255" ht="14.5" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="43">
-        <v>1</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="35"/>
-      <c r="BN7" s="35"/>
-      <c r="BO7" s="35"/>
-      <c r="BP7" s="35"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="35"/>
-      <c r="BS7" s="35"/>
-      <c r="BT7" s="35"/>
-      <c r="BU7" s="35"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35"/>
-      <c r="CA7" s="35"/>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="35"/>
-      <c r="CF7" s="35"/>
-      <c r="CG7" s="35"/>
-      <c r="CH7" s="35"/>
-      <c r="CI7" s="35"/>
-      <c r="CJ7" s="35"/>
-      <c r="CK7" s="35"/>
-      <c r="CL7" s="35"/>
-      <c r="CM7" s="35"/>
-      <c r="CN7" s="35"/>
-      <c r="CO7" s="35"/>
-      <c r="CP7" s="35"/>
-      <c r="CQ7" s="35"/>
-      <c r="CR7" s="35"/>
-      <c r="CS7" s="35"/>
-      <c r="CT7" s="35"/>
-      <c r="CU7" s="35"/>
-      <c r="CV7" s="35"/>
-      <c r="CW7" s="35"/>
-      <c r="CX7" s="35"/>
-      <c r="CY7" s="35"/>
-      <c r="CZ7" s="35"/>
-      <c r="DA7" s="35"/>
-      <c r="DB7" s="35"/>
-      <c r="DC7" s="35"/>
-      <c r="DD7" s="35"/>
-      <c r="DE7" s="35"/>
-      <c r="DF7" s="35"/>
-      <c r="DG7" s="35"/>
-      <c r="DH7" s="35"/>
-      <c r="DI7" s="35"/>
-      <c r="DJ7" s="35"/>
-      <c r="DK7" s="35"/>
-      <c r="DL7" s="35"/>
-      <c r="DM7" s="35"/>
-      <c r="DN7" s="35"/>
-      <c r="DO7" s="35"/>
-      <c r="DP7" s="35"/>
-      <c r="DQ7" s="35"/>
-      <c r="DR7" s="35"/>
-      <c r="DS7" s="35"/>
-      <c r="DT7" s="35"/>
-      <c r="DU7" s="35"/>
-      <c r="DV7" s="35"/>
-      <c r="DW7" s="35"/>
-      <c r="DX7" s="35"/>
-      <c r="DY7" s="35"/>
-      <c r="DZ7" s="35"/>
-      <c r="EA7" s="35"/>
-      <c r="EB7" s="35"/>
-      <c r="EC7" s="35"/>
-      <c r="ED7" s="35"/>
-      <c r="EE7" s="35"/>
-      <c r="EF7" s="35"/>
-      <c r="EG7" s="35"/>
-      <c r="EH7" s="35"/>
-      <c r="EI7" s="35"/>
-      <c r="EJ7" s="35"/>
-      <c r="EK7" s="35"/>
-      <c r="EL7" s="35"/>
-      <c r="EM7" s="35"/>
-      <c r="EN7" s="35"/>
-      <c r="EO7" s="35"/>
-      <c r="EP7" s="35"/>
-      <c r="EQ7" s="35"/>
-      <c r="ER7" s="35"/>
-      <c r="ES7" s="35"/>
-      <c r="ET7" s="35"/>
-      <c r="EU7" s="35"/>
-      <c r="EV7" s="35"/>
-      <c r="EW7" s="35"/>
-      <c r="EX7" s="35"/>
-      <c r="EY7" s="35"/>
-      <c r="EZ7" s="35"/>
-      <c r="FA7" s="35"/>
-      <c r="FB7" s="35"/>
-      <c r="FC7" s="35"/>
-      <c r="FD7" s="35"/>
-      <c r="FE7" s="35"/>
-      <c r="FF7" s="35"/>
-      <c r="FG7" s="35"/>
-      <c r="FH7" s="35"/>
-      <c r="FI7" s="35"/>
-      <c r="FJ7" s="35"/>
-      <c r="FK7" s="35"/>
-      <c r="FL7" s="35"/>
-      <c r="FM7" s="35"/>
-      <c r="FN7" s="35"/>
-      <c r="FO7" s="35"/>
-      <c r="FP7" s="35"/>
-      <c r="FQ7" s="35"/>
-      <c r="FR7" s="35"/>
-      <c r="FS7" s="35"/>
-      <c r="FT7" s="35"/>
-      <c r="FU7" s="35"/>
-      <c r="FV7" s="35"/>
-      <c r="FW7" s="35"/>
-      <c r="FX7" s="35"/>
-      <c r="FY7" s="35"/>
-      <c r="FZ7" s="35"/>
-      <c r="GA7" s="35"/>
-      <c r="GB7" s="35"/>
-      <c r="GC7" s="35"/>
-      <c r="GD7" s="35"/>
-      <c r="GE7" s="35"/>
-      <c r="GF7" s="35"/>
-      <c r="GG7" s="35"/>
-      <c r="GH7" s="35"/>
-      <c r="GI7" s="35"/>
-      <c r="GJ7" s="35"/>
-      <c r="GK7" s="35"/>
-      <c r="GL7" s="35"/>
-      <c r="GM7" s="35"/>
-      <c r="GN7" s="35"/>
-      <c r="GO7" s="35"/>
-      <c r="GP7" s="35"/>
-      <c r="GQ7" s="35"/>
-      <c r="GR7" s="35"/>
-      <c r="GS7" s="35"/>
-      <c r="GT7" s="35"/>
-      <c r="GU7" s="35"/>
-      <c r="GV7" s="35"/>
-      <c r="GW7" s="35"/>
-      <c r="GX7" s="35"/>
-      <c r="GY7" s="35"/>
-      <c r="GZ7" s="35"/>
-      <c r="HA7" s="35"/>
-      <c r="HB7" s="35"/>
-      <c r="HC7" s="35"/>
-      <c r="HD7" s="35"/>
-      <c r="HE7" s="35"/>
-      <c r="HF7" s="35"/>
-      <c r="HG7" s="35"/>
-      <c r="HH7" s="35"/>
-      <c r="HI7" s="35"/>
-      <c r="HJ7" s="35"/>
-      <c r="HK7" s="35"/>
-      <c r="HL7" s="35"/>
-      <c r="HM7" s="35"/>
-      <c r="HN7" s="35"/>
-      <c r="HO7" s="35"/>
-      <c r="HP7" s="35"/>
-      <c r="HQ7" s="35"/>
-      <c r="HR7" s="35"/>
-      <c r="HS7" s="35"/>
-      <c r="HT7" s="35"/>
-      <c r="HU7" s="35"/>
-      <c r="HV7" s="35"/>
-      <c r="HW7" s="35"/>
-      <c r="HX7" s="35"/>
-      <c r="HY7" s="35"/>
-      <c r="HZ7" s="35"/>
-      <c r="IA7" s="35"/>
-      <c r="IB7" s="35"/>
-      <c r="IC7" s="35"/>
-      <c r="ID7" s="35"/>
-      <c r="IE7" s="35"/>
-      <c r="IF7" s="35"/>
-      <c r="IG7" s="35"/>
-      <c r="IH7" s="35"/>
-      <c r="II7" s="35"/>
-      <c r="IJ7" s="35"/>
-      <c r="IK7" s="35"/>
-      <c r="IL7" s="35"/>
-      <c r="IM7" s="35"/>
-      <c r="IN7" s="35"/>
-      <c r="IO7" s="35"/>
-      <c r="IP7" s="35"/>
-      <c r="IQ7" s="35"/>
-      <c r="IR7" s="35"/>
-      <c r="IS7" s="35"/>
-      <c r="IT7" s="35"/>
-      <c r="IU7" s="35"/>
-    </row>
-    <row r="8" spans="1:255" ht="14.5" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="43">
-        <v>1</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="35"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
-      <c r="BP8" s="35"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="35"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="35"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="35"/>
-      <c r="CF8" s="35"/>
-      <c r="CG8" s="35"/>
-      <c r="CH8" s="35"/>
-      <c r="CI8" s="35"/>
-      <c r="CJ8" s="35"/>
-      <c r="CK8" s="35"/>
-      <c r="CL8" s="35"/>
-      <c r="CM8" s="35"/>
-      <c r="CN8" s="35"/>
-      <c r="CO8" s="35"/>
-      <c r="CP8" s="35"/>
-      <c r="CQ8" s="35"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="35"/>
-      <c r="CT8" s="35"/>
-      <c r="CU8" s="35"/>
-      <c r="CV8" s="35"/>
-      <c r="CW8" s="35"/>
-      <c r="CX8" s="35"/>
-      <c r="CY8" s="35"/>
-      <c r="CZ8" s="35"/>
-      <c r="DA8" s="35"/>
-      <c r="DB8" s="35"/>
-      <c r="DC8" s="35"/>
-      <c r="DD8" s="35"/>
-      <c r="DE8" s="35"/>
-      <c r="DF8" s="35"/>
-      <c r="DG8" s="35"/>
-      <c r="DH8" s="35"/>
-      <c r="DI8" s="35"/>
-      <c r="DJ8" s="35"/>
-      <c r="DK8" s="35"/>
-      <c r="DL8" s="35"/>
-      <c r="DM8" s="35"/>
-      <c r="DN8" s="35"/>
-      <c r="DO8" s="35"/>
-      <c r="DP8" s="35"/>
-      <c r="DQ8" s="35"/>
-      <c r="DR8" s="35"/>
-      <c r="DS8" s="35"/>
-      <c r="DT8" s="35"/>
-      <c r="DU8" s="35"/>
-      <c r="DV8" s="35"/>
-      <c r="DW8" s="35"/>
-      <c r="DX8" s="35"/>
-      <c r="DY8" s="35"/>
-      <c r="DZ8" s="35"/>
-      <c r="EA8" s="35"/>
-      <c r="EB8" s="35"/>
-      <c r="EC8" s="35"/>
-      <c r="ED8" s="35"/>
-      <c r="EE8" s="35"/>
-      <c r="EF8" s="35"/>
-      <c r="EG8" s="35"/>
-      <c r="EH8" s="35"/>
-      <c r="EI8" s="35"/>
-      <c r="EJ8" s="35"/>
-      <c r="EK8" s="35"/>
-      <c r="EL8" s="35"/>
-      <c r="EM8" s="35"/>
-      <c r="EN8" s="35"/>
-      <c r="EO8" s="35"/>
-      <c r="EP8" s="35"/>
-      <c r="EQ8" s="35"/>
-      <c r="ER8" s="35"/>
-      <c r="ES8" s="35"/>
-      <c r="ET8" s="35"/>
-      <c r="EU8" s="35"/>
-      <c r="EV8" s="35"/>
-      <c r="EW8" s="35"/>
-      <c r="EX8" s="35"/>
-      <c r="EY8" s="35"/>
-      <c r="EZ8" s="35"/>
-      <c r="FA8" s="35"/>
-      <c r="FB8" s="35"/>
-      <c r="FC8" s="35"/>
-      <c r="FD8" s="35"/>
-      <c r="FE8" s="35"/>
-      <c r="FF8" s="35"/>
-      <c r="FG8" s="35"/>
-      <c r="FH8" s="35"/>
-      <c r="FI8" s="35"/>
-      <c r="FJ8" s="35"/>
-      <c r="FK8" s="35"/>
-      <c r="FL8" s="35"/>
-      <c r="FM8" s="35"/>
-      <c r="FN8" s="35"/>
-      <c r="FO8" s="35"/>
-      <c r="FP8" s="35"/>
-      <c r="FQ8" s="35"/>
-      <c r="FR8" s="35"/>
-      <c r="FS8" s="35"/>
-      <c r="FT8" s="35"/>
-      <c r="FU8" s="35"/>
-      <c r="FV8" s="35"/>
-      <c r="FW8" s="35"/>
-      <c r="FX8" s="35"/>
-      <c r="FY8" s="35"/>
-      <c r="FZ8" s="35"/>
-      <c r="GA8" s="35"/>
-      <c r="GB8" s="35"/>
-      <c r="GC8" s="35"/>
-      <c r="GD8" s="35"/>
-      <c r="GE8" s="35"/>
-      <c r="GF8" s="35"/>
-      <c r="GG8" s="35"/>
-      <c r="GH8" s="35"/>
-      <c r="GI8" s="35"/>
-      <c r="GJ8" s="35"/>
-      <c r="GK8" s="35"/>
-      <c r="GL8" s="35"/>
-      <c r="GM8" s="35"/>
-      <c r="GN8" s="35"/>
-      <c r="GO8" s="35"/>
-      <c r="GP8" s="35"/>
-      <c r="GQ8" s="35"/>
-      <c r="GR8" s="35"/>
-      <c r="GS8" s="35"/>
-      <c r="GT8" s="35"/>
-      <c r="GU8" s="35"/>
-      <c r="GV8" s="35"/>
-      <c r="GW8" s="35"/>
-      <c r="GX8" s="35"/>
-      <c r="GY8" s="35"/>
-      <c r="GZ8" s="35"/>
-      <c r="HA8" s="35"/>
-      <c r="HB8" s="35"/>
-      <c r="HC8" s="35"/>
-      <c r="HD8" s="35"/>
-      <c r="HE8" s="35"/>
-      <c r="HF8" s="35"/>
-      <c r="HG8" s="35"/>
-      <c r="HH8" s="35"/>
-      <c r="HI8" s="35"/>
-      <c r="HJ8" s="35"/>
-      <c r="HK8" s="35"/>
-      <c r="HL8" s="35"/>
-      <c r="HM8" s="35"/>
-      <c r="HN8" s="35"/>
-      <c r="HO8" s="35"/>
-      <c r="HP8" s="35"/>
-      <c r="HQ8" s="35"/>
-      <c r="HR8" s="35"/>
-      <c r="HS8" s="35"/>
-      <c r="HT8" s="35"/>
-      <c r="HU8" s="35"/>
-      <c r="HV8" s="35"/>
-      <c r="HW8" s="35"/>
-      <c r="HX8" s="35"/>
-      <c r="HY8" s="35"/>
-      <c r="HZ8" s="35"/>
-      <c r="IA8" s="35"/>
-      <c r="IB8" s="35"/>
-      <c r="IC8" s="35"/>
-      <c r="ID8" s="35"/>
-      <c r="IE8" s="35"/>
-      <c r="IF8" s="35"/>
-      <c r="IG8" s="35"/>
-      <c r="IH8" s="35"/>
-      <c r="II8" s="35"/>
-      <c r="IJ8" s="35"/>
-      <c r="IK8" s="35"/>
-      <c r="IL8" s="35"/>
-      <c r="IM8" s="35"/>
-      <c r="IN8" s="35"/>
-      <c r="IO8" s="35"/>
-      <c r="IP8" s="35"/>
-      <c r="IQ8" s="35"/>
-      <c r="IR8" s="35"/>
-      <c r="IS8" s="35"/>
-      <c r="IT8" s="35"/>
-      <c r="IU8" s="35"/>
+      <c r="C5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -10516,7 +9155,7 @@
   <dimension ref="A1:IU16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -10678,7 +9317,7 @@
         <v>197</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1">
